--- a/All Teraco Data/Operations JB3/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations JB3/Outputs/Data Analysis Results.xlsx
@@ -43,7 +43,7 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.9432635590663921</t>
+    <t>R2 = 0.8087428479918146</t>
   </si>
   <si>
     <t>const</t>
@@ -55,13 +55,13 @@
     <t>CDD 18</t>
   </si>
   <si>
-    <t>R2 = 0.9428475161569757</t>
+    <t>R2 = 0.9438331854400864</t>
   </si>
   <si>
     <t>Total UPS LOOP 2</t>
   </si>
   <si>
-    <t>R2 = 0.9622599285165412</t>
+    <t>R2 = 0.9321179036266829</t>
   </si>
   <si>
     <t>Total UPS Total</t>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8348.957030000049</v>
+        <v>853.945309999981</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8197486.71865</v>
+        <v>2609852.02146</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>20.19163131122019</v>
+        <v>22.01633928581357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>52.2904793580688</v>
+        <v>50.62647770507497</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>27.51788933071101</v>
+        <v>27.35718300911148</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>43.51578908272606</v>
+        <v>79.08479922982953</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.180544196625146</v>
+        <v>0.130113059524638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5.603627653666971</v>
+        <v>5.154964417475803</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.987149296379373</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.1813286266117116</v>
+        <v>0.1694295646647562</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -656,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3.123109369939841</v>
+        <v>3.97611771353967</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>27.63837789398019</v>
+        <v>65.41912329887562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.179545763108115</v>
+        <v>0.1622830861534198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>9.928234205656922</v>
+        <v>9.17353355826069</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
         <v>209.8296842253521</v>
       </c>
       <c r="E2">
-        <v>173.8277464280013</v>
+        <v>198.9379645783367</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.207112722434463</v>
+        <v>1.05474932685725</v>
       </c>
       <c r="I2">
         <v>625.3681526825983</v>
       </c>
       <c r="J2">
-        <v>694.8448384402204</v>
+        <v>723.7776627788096</v>
       </c>
       <c r="K2">
         <v>0.699384507042082</v>
@@ -807,7 +807,7 @@
         <v>246.0623289880958</v>
       </c>
       <c r="E3">
-        <v>146.7738977824353</v>
+        <v>174.0498777163024</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.676471993357</v>
+        <v>1.413746060707794</v>
       </c>
       <c r="I3">
         <v>666.8355386964591</v>
       </c>
       <c r="J3">
-        <v>616.6603376778947</v>
+        <v>650.3385135802446</v>
       </c>
       <c r="K3">
         <v>0.7090309523809992</v>
@@ -848,7 +848,7 @@
         <v>173.8325378571414</v>
       </c>
       <c r="E4">
-        <v>150.8317542795749</v>
+        <v>177.7824574828676</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.152492979263062</v>
+        <v>0.9777822869497298</v>
       </c>
       <c r="I4">
         <v>549.0837530234937</v>
       </c>
       <c r="J4">
-        <v>610.0143878254571</v>
+        <v>642.4412338026199</v>
       </c>
       <c r="K4">
         <v>0.7195404761904294</v>
@@ -889,7 +889,7 @@
         <v>190.2680119642866</v>
       </c>
       <c r="E5">
-        <v>180.946319885559</v>
+        <v>205.4855068574927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.051516339678105</v>
+        <v>0.9259437070481097</v>
       </c>
       <c r="I5">
         <v>567.9820122448994</v>
       </c>
       <c r="J5">
-        <v>678.7396146360411</v>
+        <v>705.1761556582318</v>
       </c>
       <c r="K5">
         <v>0.7291666666666666</v>
@@ -930,7 +930,7 @@
         <v>115.237380059524</v>
       </c>
       <c r="E6">
-        <v>75.41071114268777</v>
+        <v>108.3998959333668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.528130133151489</v>
+        <v>1.063076482382973</v>
       </c>
       <c r="I6">
         <v>475.3234972553736</v>
       </c>
       <c r="J6">
-        <v>432.3444724108543</v>
+        <v>478.491711775854</v>
       </c>
       <c r="K6">
         <v>0.7257255952381023</v>
@@ -971,7 +971,7 @@
         <v>105.0662557738099</v>
       </c>
       <c r="E7">
-        <v>84.87185202791406</v>
+        <v>117.0759301300041</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.237939944320455</v>
+        <v>0.8974197826755815</v>
       </c>
       <c r="I7">
         <v>225.7679548028301</v>
       </c>
       <c r="J7">
-        <v>222.8435758987892</v>
+        <v>244.4322779583368</v>
       </c>
       <c r="K7">
         <v>1.492512500000192</v>
@@ -1012,7 +1012,7 @@
         <v>149.8882673809518</v>
       </c>
       <c r="E8">
-        <v>135.811000724642</v>
+        <v>163.5604702967418</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.103653360782251</v>
+        <v>0.9164088799024303</v>
       </c>
       <c r="I8">
         <v>32.21712068844382</v>
       </c>
       <c r="J8">
-        <v>35.53173321640602</v>
+        <v>37.6607896292024</v>
       </c>
       <c r="K8">
         <v>11.94642797619053</v>
@@ -1053,7 +1053,7 @@
         <v>122.0218367857146</v>
       </c>
       <c r="E9">
-        <v>166.6358029118812</v>
+        <v>191.0628764418247</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.7322666236993565</v>
+        <v>0.6386475439820364</v>
       </c>
       <c r="I9">
         <v>11.73508143796019</v>
       </c>
       <c r="J9">
-        <v>15.06177192582633</v>
+        <v>15.66271771316647</v>
       </c>
       <c r="K9">
         <v>35.69475517857115</v>
@@ -1094,7 +1094,7 @@
         <v>118.1905783333336</v>
       </c>
       <c r="E10">
-        <v>119.428707741523</v>
+        <v>146.7561507103688</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.9896328995632355</v>
+        <v>0.8053534912249715</v>
       </c>
       <c r="I10">
         <v>6.896657526143269</v>
       </c>
       <c r="J10">
-        <v>7.48709310090247</v>
+        <v>7.952375391595656</v>
       </c>
       <c r="K10">
         <v>60.13746327380951</v>
@@ -1135,7 +1135,7 @@
         <v>136.5653833333331</v>
       </c>
       <c r="E11">
-        <v>136.477997430415</v>
+        <v>161.9541967032979</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.000640292974423</v>
+        <v>0.843234606532133</v>
       </c>
       <c r="I11">
         <v>5.884898003325697</v>
       </c>
       <c r="J11">
-        <v>6.501902740684335</v>
+        <v>6.851930853525978</v>
       </c>
       <c r="K11">
         <v>73.65122845238095</v>
@@ -1176,7 +1176,7 @@
         <v>172.6052360714294</v>
       </c>
       <c r="E12">
-        <v>195.5139836324522</v>
+        <v>216.0351841683062</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.8828280865879695</v>
+        <v>0.7989681714852436</v>
       </c>
       <c r="I12">
         <v>5.866617466732969</v>
       </c>
       <c r="J12">
-        <v>7.280579753984179</v>
+        <v>7.504017728042456</v>
       </c>
       <c r="K12">
         <v>79.99413934523831</v>
@@ -1217,7 +1217,7 @@
         <v>116.6964731547618</v>
       </c>
       <c r="E13">
-        <v>128.9250262871567</v>
+        <v>154.3808250520709</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9051498883920489</v>
+        <v>0.7559000485675692</v>
       </c>
       <c r="I13">
         <v>5.003857497857754</v>
       </c>
       <c r="J13">
-        <v>5.547552920420199</v>
+        <v>5.843283783525982</v>
       </c>
       <c r="K13">
         <v>91.02804178571421</v>
@@ -1258,7 +1258,7 @@
         <v>108.2733485119049</v>
       </c>
       <c r="E14">
-        <v>92.10141960613643</v>
+        <v>119.9784550510586</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.175588269702316</v>
+        <v>0.9024399294508967</v>
       </c>
       <c r="I14">
         <v>4.11439707738977</v>
       </c>
       <c r="J14">
-        <v>4.025602176000887</v>
+        <v>4.328238935644349</v>
       </c>
       <c r="K14">
         <v>105.6797332142858</v>
@@ -1299,7 +1299,7 @@
         <v>122.1506526190455</v>
       </c>
       <c r="E15">
-        <v>112.2220266383071</v>
+        <v>138.2140614248178</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.088473058972089</v>
+        <v>0.8837787657769534</v>
       </c>
       <c r="I15">
         <v>3.827190553689982</v>
       </c>
       <c r="J15">
-        <v>3.927093627446003</v>
+        <v>4.185940729197899</v>
       </c>
       <c r="K15">
         <v>113.2963631547619</v>
@@ -1340,7 +1340,7 @@
         <v>123.6241099404773</v>
       </c>
       <c r="E16">
-        <v>130.9479758415929</v>
+        <v>155.3495345868405</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.9440704153382616</v>
+        <v>0.7957803688904603</v>
       </c>
       <c r="I16">
         <v>3.739912814111165</v>
       </c>
       <c r="J16">
-        <v>4.108273090811054</v>
+        <v>4.339838772302323</v>
       </c>
       <c r="K16">
         <v>115.8301247619047</v>
@@ -1381,7 +1381,7 @@
         <v>129.6876833333337</v>
       </c>
       <c r="E17">
-        <v>145.6498333425974</v>
+        <v>168.8020175012909</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.8904073582307677</v>
+        <v>0.7682827803426104</v>
       </c>
       <c r="I17">
         <v>3.766965667694176</v>
       </c>
       <c r="J17">
-        <v>4.296248071542694</v>
+        <v>4.507184391429336</v>
       </c>
       <c r="K17">
         <v>117.8383565476187</v>
@@ -1422,7 +1422,7 @@
         <v>84.32029190476169</v>
       </c>
       <c r="E18">
-        <v>89.66957933833217</v>
+        <v>117.2515396967238</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.9403444571387238</v>
+        <v>0.7191401675650466</v>
       </c>
       <c r="I18">
         <v>3.525279724573007</v>
       </c>
       <c r="J18">
-        <v>3.59527592847718</v>
+        <v>3.866924924475888</v>
       </c>
       <c r="K18">
         <v>119.2940836309528</v>
@@ -1463,7 +1463,7 @@
         <v>82.22686327381027</v>
       </c>
       <c r="E19">
-        <v>102.4669198807122</v>
+        <v>129.0111366200082</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.8024722844166234</v>
+        <v>0.6373625210047005</v>
       </c>
       <c r="I19">
         <v>3.623731811483089</v>
       </c>
       <c r="J19">
-        <v>3.900069812318362</v>
+        <v>4.156509364090591</v>
       </c>
       <c r="K19">
         <v>119.6583439880952</v>
@@ -1504,7 +1504,7 @@
         <v>75.96007196428366</v>
       </c>
       <c r="E20">
-        <v>75.5917645284454</v>
+        <v>104.2381523866833</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.004872322244835</v>
+        <v>0.728716599681287</v>
       </c>
       <c r="I20">
         <v>3.318462914059969</v>
       </c>
       <c r="J20">
-        <v>3.248429073846859</v>
+        <v>3.531930586129255</v>
       </c>
       <c r="K20">
         <v>121.0379002976188</v>
@@ -1545,7 +1545,7 @@
         <v>86.58010000000026</v>
       </c>
       <c r="E21">
-        <v>88.30790552838606</v>
+        <v>115.9312554728362</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.9804343051955817</v>
+        <v>0.7468227584258915</v>
       </c>
       <c r="I21">
         <v>3.390317174680583</v>
       </c>
       <c r="J21">
-        <v>3.418490466787742</v>
+        <v>3.687547674551447</v>
       </c>
       <c r="K21">
         <v>121.1741077380952</v>
@@ -1586,7 +1586,7 @@
         <v>79.98293690476289</v>
       </c>
       <c r="E22">
-        <v>73.23983685243606</v>
+        <v>102.0739516241158</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.092068747584909</v>
+        <v>0.7835783334743189</v>
       </c>
       <c r="I22">
         <v>3.415419737982404</v>
       </c>
       <c r="J22">
-        <v>3.2777211678792</v>
+        <v>3.563802260910358</v>
       </c>
       <c r="K22">
         <v>121.0541297619049</v>
@@ -1627,7 +1627,7 @@
         <v>80.18802321428527</v>
       </c>
       <c r="E23">
-        <v>69.34597394614309</v>
+        <v>98.47085619020829</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.156347205918004</v>
+        <v>0.8143325478900322</v>
       </c>
       <c r="I23">
         <v>3.404275557750478</v>
       </c>
       <c r="J23">
-        <v>3.208161477705376</v>
+        <v>3.497214874760931</v>
       </c>
       <c r="K23">
         <v>121.6378803571431</v>
@@ -1668,22 +1668,22 @@
         <v>57.08571714285894</v>
       </c>
       <c r="E24">
-        <v>65.64810644391066</v>
+        <v>95.05021653393565</v>
       </c>
       <c r="F24">
-        <v>-8.562389301051724</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-8.562389301051724</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.8695714200322384</v>
+        <v>0.600584819525137</v>
       </c>
       <c r="I24">
         <v>3.251465106185762</v>
       </c>
       <c r="J24">
-        <v>3.191071355006458</v>
+        <v>3.48299220482045</v>
       </c>
       <c r="K24">
         <v>122.1617833333332</v>
@@ -1709,22 +1709,22 @@
         <v>50.62199690476076</v>
       </c>
       <c r="E25">
-        <v>66.30384476826151</v>
+        <v>95.66502071063428</v>
       </c>
       <c r="F25">
-        <v>-15.68184786350075</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-24.24423716455247</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.7634850902189706</v>
+        <v>0.5291588976694126</v>
       </c>
       <c r="I25">
         <v>3.208192538504918</v>
       </c>
       <c r="J25">
-        <v>3.210596092764639</v>
+        <v>3.502543946394703</v>
       </c>
       <c r="K25">
         <v>121.8402160714287</v>
@@ -1750,22 +1750,22 @@
         <v>60.43051589285495</v>
       </c>
       <c r="E26">
-        <v>67.7813953335345</v>
+        <v>97.00367961832711</v>
       </c>
       <c r="F26">
-        <v>-7.350879440679556</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-31.59511660523203</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.8915501900704788</v>
+        <v>0.622971377277916</v>
       </c>
       <c r="I26">
         <v>3.245513172676071</v>
       </c>
       <c r="J26">
-        <v>3.188508126323689</v>
+        <v>3.477498388808104</v>
       </c>
       <c r="K26">
         <v>122.4125279761903</v>
@@ -1791,22 +1791,22 @@
         <v>56.87599970238322</v>
       </c>
       <c r="E27">
-        <v>68.3230912403573</v>
+        <v>97.48113183036595</v>
       </c>
       <c r="F27">
-        <v>-11.44709153797408</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>-43.04220814320611</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8324564751073137</v>
+        <v>0.5834564970106965</v>
       </c>
       <c r="I27">
         <v>3.164422678988888</v>
       </c>
       <c r="J27">
-        <v>3.143728094774841</v>
+        <v>3.43079525515333</v>
       </c>
       <c r="K27">
         <v>122.992698214286</v>
@@ -1832,22 +1832,22 @@
         <v>71.98634815476197</v>
       </c>
       <c r="E28">
-        <v>73.60029195863987</v>
+        <v>102.3184347080005</v>
       </c>
       <c r="F28">
-        <v>-1.613943803877902</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-44.65615194708401</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.9780715026947873</v>
+        <v>0.7035520858015353</v>
       </c>
       <c r="I28">
         <v>3.278347895298483</v>
       </c>
       <c r="J28">
-        <v>3.210532819639455</v>
+        <v>3.490748910706454</v>
       </c>
       <c r="K28">
         <v>123.4755392857143</v>
@@ -1873,22 +1873,22 @@
         <v>77.41299398809566</v>
       </c>
       <c r="E29">
-        <v>79.93781275825367</v>
+        <v>106.0077203868953</v>
       </c>
       <c r="F29">
-        <v>-2.524818770158006</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-47.18097071724202</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.9684152132384019</v>
+        <v>0.7302580765397301</v>
       </c>
       <c r="I29">
         <v>2.637638996388765</v>
       </c>
       <c r="J29">
-        <v>2.577947504885975</v>
+        <v>2.764664446669739</v>
       </c>
       <c r="K29">
         <v>182.9828886904758</v>
@@ -1914,22 +1914,22 @@
         <v>70.74449869047524</v>
       </c>
       <c r="E30">
-        <v>78.8758114653084</v>
+        <v>104.5677600951398</v>
       </c>
       <c r="F30">
-        <v>-8.131312774833162</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-55.31228349207518</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.8969099319072042</v>
+        <v>0.6765421639146634</v>
       </c>
       <c r="I30">
         <v>2.497116635466115</v>
       </c>
       <c r="J30">
-        <v>2.456567434738068</v>
+        <v>2.632208884304098</v>
       </c>
       <c r="K30">
         <v>195.8524452380955</v>
@@ -1955,22 +1955,22 @@
         <v>70.49710267857327</v>
       </c>
       <c r="E31">
-        <v>79.45730767646472</v>
+        <v>104.9868278500154</v>
       </c>
       <c r="F31">
-        <v>-8.960204997891452</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-64.27248848996663</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.8872324615581524</v>
+        <v>0.6714852150717964</v>
       </c>
       <c r="I31">
         <v>2.47486360687252</v>
       </c>
       <c r="J31">
-        <v>2.439118051236778</v>
+        <v>2.611638513667842</v>
       </c>
       <c r="K31">
         <v>199.0732422619048</v>
@@ -1996,22 +1996,22 @@
         <v>78.93805833333144</v>
       </c>
       <c r="E32">
-        <v>81.12885815803759</v>
+        <v>106.543059460577</v>
       </c>
       <c r="F32">
-        <v>-2.190799824706147</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-66.46328831467278</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.9729960475908769</v>
+        <v>0.7409028681266664</v>
       </c>
       <c r="I32">
         <v>2.477051948399112</v>
       </c>
       <c r="J32">
-        <v>2.413981691353553</v>
+        <v>2.585797271052487</v>
       </c>
       <c r="K32">
         <v>198.5585476190471</v>
@@ -2037,22 +2037,22 @@
         <v>118.7566258333349</v>
       </c>
       <c r="E33">
-        <v>108.7583376810179</v>
+        <v>128.51853513531</v>
       </c>
       <c r="F33">
-        <v>9.998288152316988</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-56.46500016235579</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1.091931233646117</v>
+        <v>0.924042790468337</v>
       </c>
       <c r="I33">
         <v>2.097827999970653</v>
       </c>
       <c r="J33">
-        <v>2.040678846368006</v>
+        <v>2.146273655797176</v>
       </c>
       <c r="K33">
         <v>294.2291654761909</v>
@@ -2078,22 +2078,22 @@
         <v>101.2461356547622</v>
       </c>
       <c r="E34">
-        <v>106.6094647548632</v>
+        <v>126.1437602591572</v>
       </c>
       <c r="F34">
-        <v>-5.363329100100984</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-61.82832926245678</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.9496918110185304</v>
+        <v>0.8026250006084817</v>
       </c>
       <c r="I34">
         <v>2.036081067093312</v>
       </c>
       <c r="J34">
-        <v>2.020803611821702</v>
+        <v>2.123775884648492</v>
       </c>
       <c r="K34">
         <v>305.2909690476191</v>
@@ -2119,22 +2119,22 @@
         <v>121.267282440474</v>
       </c>
       <c r="E35">
-        <v>114.3474801552524</v>
+        <v>133.1074242470174</v>
       </c>
       <c r="F35">
-        <v>6.919802285221635</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-54.90852697723514</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1.060515564276768</v>
+        <v>0.9110482238423401</v>
       </c>
       <c r="I35">
         <v>2.063743985586362</v>
       </c>
       <c r="J35">
-        <v>2.026342705697797</v>
+        <v>2.12461565700609</v>
       </c>
       <c r="K35">
         <v>309.593750595238</v>
@@ -2160,22 +2160,22 @@
         <v>114.2064258928571</v>
       </c>
       <c r="E36">
-        <v>132.621606736274</v>
+        <v>149.9053182558772</v>
       </c>
       <c r="F36">
-        <v>-18.41518084341683</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-73.32370782065198</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.8611449423921056</v>
+        <v>0.7618570656573722</v>
       </c>
       <c r="I36">
         <v>2.058151076898119</v>
       </c>
       <c r="J36">
-        <v>2.147865206906951</v>
+        <v>2.238090753369406</v>
       </c>
       <c r="K36">
         <v>309.9574964285715</v>
@@ -2201,22 +2201,22 @@
         <v>142.1308945238097</v>
       </c>
       <c r="E37">
-        <v>144.8931853006713</v>
+        <v>160.7057856924117</v>
       </c>
       <c r="F37">
-        <v>-2.762290776861676</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-76.08599859751365</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.980935674986166</v>
+        <v>0.8844167863118876</v>
       </c>
       <c r="I37">
         <v>2.05746946506264</v>
       </c>
       <c r="J37">
-        <v>2.118245493078747</v>
+        <v>2.199871520775035</v>
       </c>
       <c r="K37">
         <v>323.5380392857142</v>
@@ -2242,22 +2242,22 @@
         <v>154.944294642858</v>
       </c>
       <c r="E38">
-        <v>151.8886961492771</v>
+        <v>165.1025535245289</v>
       </c>
       <c r="F38">
-        <v>3.055598493580931</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-73.03040010393272</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1.020117352844861</v>
+        <v>0.9384730359112118</v>
       </c>
       <c r="I38">
         <v>1.983210157661925</v>
       </c>
       <c r="J38">
-        <v>2.00418347088591</v>
+        <v>2.072216844306239</v>
       </c>
       <c r="K38">
         <v>380.2052648809523</v>
@@ -2283,22 +2283,22 @@
         <v>206.10506238095</v>
       </c>
       <c r="E39">
-        <v>192.6742284943183</v>
+        <v>200.6680055502706</v>
       </c>
       <c r="F39">
-        <v>13.43083388663169</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>-59.59956621730103</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.069707474588527</v>
+        <v>1.027094786813523</v>
       </c>
       <c r="I39">
         <v>1.953064814876338</v>
       </c>
       <c r="J39">
-        <v>1.998187372974488</v>
+        <v>2.045955311631654</v>
       </c>
       <c r="K39">
         <v>434.5344113095236</v>
@@ -2324,22 +2324,22 @@
         <v>179.1452280952376</v>
       </c>
       <c r="E40">
-        <v>193.9194168171407</v>
+        <v>201.3845961319754</v>
       </c>
       <c r="F40">
-        <v>-14.77418872190307</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>-74.3737549392041</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.9238127415789693</v>
+        <v>0.8895676806275519</v>
       </c>
       <c r="I40">
         <v>1.923730571134157</v>
       </c>
       <c r="J40">
-        <v>2.034626834458078</v>
+        <v>2.080931912726578</v>
       </c>
       <c r="K40">
         <v>446.4563803571428</v>
@@ -2365,22 +2365,22 @@
         <v>214.4242419642868</v>
       </c>
       <c r="E41">
-        <v>201.0219154813088</v>
+        <v>207.9540664309434</v>
       </c>
       <c r="F41">
-        <v>13.40232648297791</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-60.97142845622619</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1.066670971923079</v>
+        <v>1.031113484070733</v>
       </c>
       <c r="I41">
         <v>1.945191760808501</v>
       </c>
       <c r="J41">
-        <v>1.974489092528331</v>
+        <v>2.018734125770526</v>
       </c>
       <c r="K41">
         <v>445.4655880952383</v>
@@ -2406,22 +2406,22 @@
         <v>177.1669864285726</v>
       </c>
       <c r="E42">
-        <v>180.1356086147677</v>
+        <v>188.4382002165423</v>
       </c>
       <c r="F42">
-        <v>-2.968622186195063</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-63.94005064242126</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.9835200701903216</v>
+        <v>0.9401861524095566</v>
       </c>
       <c r="I42">
         <v>2.539958453890706</v>
       </c>
       <c r="J42">
-        <v>2.521595653093601</v>
+        <v>2.560478165962528</v>
       </c>
       <c r="K42">
         <v>453.856119642857</v>
@@ -2447,22 +2447,22 @@
         <v>250.9753785714288</v>
       </c>
       <c r="E43">
-        <v>241.8133819445254</v>
+        <v>244.6663054288895</v>
       </c>
       <c r="F43">
-        <v>9.161996626903402</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-54.77805401551785</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1.037888708032731</v>
+        <v>1.025786440562299</v>
       </c>
       <c r="I43">
         <v>2.10354247371688</v>
       </c>
       <c r="J43">
-        <v>2.055208748501212</v>
+        <v>2.071483481370382</v>
       </c>
       <c r="K43">
         <v>468.0696619047619</v>
@@ -2488,22 +2488,22 @@
         <v>178.7405289880976</v>
       </c>
       <c r="E44">
-        <v>175.8443371153124</v>
+        <v>183.7199018123971</v>
       </c>
       <c r="F44">
-        <v>2.896191872785124</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>-51.88186214273273</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1.01647020268208</v>
+        <v>0.9728969329115791</v>
       </c>
       <c r="I44">
         <v>1.843868676257804</v>
       </c>
       <c r="J44">
-        <v>1.787331059052079</v>
+        <v>1.808935826736286</v>
       </c>
       <c r="K44">
         <v>475.2766005952376</v>
@@ -2529,22 +2529,22 @@
         <v>170.6271564285687</v>
       </c>
       <c r="E45">
-        <v>170.1195632887986</v>
+        <v>177.6601277046488</v>
       </c>
       <c r="F45">
-        <v>0.5075931397700231</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>-51.37426900296271</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1.002983743491678</v>
+        <v>0.9604133388456633</v>
       </c>
       <c r="I45">
         <v>1.880971877249785</v>
       </c>
       <c r="J45">
-        <v>1.841983097816681</v>
+        <v>1.869344135736414</v>
       </c>
       <c r="K45">
         <v>497.3294267857144</v>
@@ -2570,22 +2570,22 @@
         <v>262.6304925000018</v>
       </c>
       <c r="E46">
-        <v>263.6376643899043</v>
+        <v>262.9007889536822</v>
       </c>
       <c r="F46">
-        <v>-1.007171889902565</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>-52.38144089286527</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.9961797116802968</v>
+        <v>0.998971868989986</v>
       </c>
       <c r="I46">
         <v>1.502933338082155</v>
       </c>
       <c r="J46">
-        <v>1.508308879780382</v>
+        <v>1.509240611009255</v>
       </c>
       <c r="K46">
         <v>519.2822726190481</v>
@@ -2611,22 +2611,22 @@
         <v>245.260922619046</v>
       </c>
       <c r="E47">
-        <v>246.258133482456</v>
+        <v>245.1192447409856</v>
       </c>
       <c r="F47">
-        <v>-0.9972108634100039</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>-53.37865175627527</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.9959505464883212</v>
+        <v>1.000577995735138</v>
       </c>
       <c r="I47">
         <v>1.607382705148449</v>
       </c>
       <c r="J47">
-        <v>1.584835596795158</v>
+        <v>1.586559709546443</v>
       </c>
       <c r="K47">
         <v>569.1364392857142</v>
@@ -2652,22 +2652,22 @@
         <v>253.2017095833324</v>
       </c>
       <c r="E48">
-        <v>259.5228802270131</v>
+        <v>256.380239715292</v>
       </c>
       <c r="F48">
-        <v>-6.321170643680716</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>-59.69982239995599</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.9756431084683116</v>
+        <v>0.9876022811450317</v>
       </c>
       <c r="I48">
         <v>1.311289847109123</v>
       </c>
       <c r="J48">
-        <v>1.297043830877011</v>
+        <v>1.291026392838446</v>
       </c>
       <c r="K48">
         <v>595.3122214285712</v>
@@ -2693,22 +2693,22 @@
         <v>187.3106360119058</v>
       </c>
       <c r="E49">
-        <v>185.1648259576454</v>
+        <v>187.363632691677</v>
       </c>
       <c r="F49">
-        <v>2.145810054260352</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>-57.55401234569564</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1.01158864834702</v>
+        <v>0.9997171453231884</v>
       </c>
       <c r="I49">
         <v>1.091057492416464</v>
       </c>
       <c r="J49">
-        <v>1.106270610319927</v>
+        <v>1.102334141199207</v>
       </c>
       <c r="K49">
         <v>612.3278452380955</v>
@@ -2734,22 +2734,22 @@
         <v>229.9645133333328</v>
       </c>
       <c r="E50">
-        <v>257.9695027483397</v>
+        <v>254.0451443608187</v>
       </c>
       <c r="F50">
-        <v>-28.00498941500695</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-85.55900176070259</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.8914406969946095</v>
+        <v>0.9052112131956973</v>
       </c>
       <c r="I50">
         <v>1.661042028360881</v>
       </c>
       <c r="J50">
-        <v>1.715643654561175</v>
+        <v>1.723721024490533</v>
       </c>
       <c r="K50">
         <v>620.4985119047619</v>
@@ -2775,22 +2775,22 @@
         <v>258.9908026785734</v>
       </c>
       <c r="E51">
-        <v>225.4813484894961</v>
+        <v>223.9170328463032</v>
       </c>
       <c r="F51">
-        <v>33.5094541890773</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>-52.04954757162528</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1.148612975811781</v>
+        <v>1.156637346370809</v>
       </c>
       <c r="I51">
         <v>2.061050094014197</v>
       </c>
       <c r="J51">
-        <v>1.996809887393417</v>
+        <v>2.025026049282649</v>
       </c>
       <c r="K51">
         <v>627.2022886904759</v>
@@ -2816,22 +2816,22 @@
         <v>174.2398981547587</v>
       </c>
       <c r="E52">
-        <v>197.3236775213055</v>
+        <v>197.8528967048104</v>
       </c>
       <c r="F52">
-        <v>-23.08377936654674</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-75.13332693817202</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0.8830156641285265</v>
+        <v>0.8806537637642908</v>
       </c>
       <c r="I52">
         <v>4.705763220732165</v>
       </c>
       <c r="J52">
-        <v>4.719281163881116</v>
+        <v>4.753350978130877</v>
       </c>
       <c r="K52">
         <v>631.6762470238091</v>
@@ -2857,22 +2857,22 @@
         <v>214.1412194642859</v>
       </c>
       <c r="E53">
-        <v>208.0261548905289</v>
+        <v>207.6315580200058</v>
       </c>
       <c r="F53">
-        <v>6.115064573756968</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-69.01826236441505</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1.029395652565779</v>
+        <v>1.031351984767426</v>
       </c>
       <c r="I53">
         <v>1.980812786102582</v>
       </c>
       <c r="J53">
-        <v>1.971731254776302</v>
+        <v>2.003446567352946</v>
       </c>
       <c r="K53">
         <v>633.5359922619057</v>
@@ -2898,22 +2898,22 @@
         <v>261.9981911309546</v>
       </c>
       <c r="E54">
-        <v>251.7753039628247</v>
+        <v>247.8384844158663</v>
       </c>
       <c r="F54">
-        <v>10.22288716812989</v>
+        <v>14.1597067150883</v>
       </c>
       <c r="G54">
-        <v>-58.79537519628516</v>
+        <v>14.1597067150883</v>
       </c>
       <c r="H54">
-        <v>1.040603216468122</v>
+        <v>1.05713280061594</v>
       </c>
       <c r="I54">
         <v>2.077146247084362</v>
       </c>
       <c r="J54">
-        <v>2.091826542762111</v>
+        <v>2.114214914110102</v>
       </c>
       <c r="K54">
         <v>634.6305803571427</v>
@@ -2939,22 +2939,22 @@
         <v>245.957974226189</v>
       </c>
       <c r="E55">
-        <v>247.1561377108866</v>
+        <v>243.4116031137837</v>
       </c>
       <c r="F55">
-        <v>-1.198163484697602</v>
+        <v>2.546371112405296</v>
       </c>
       <c r="G55">
-        <v>-59.99353868098277</v>
+        <v>16.7060778274936</v>
       </c>
       <c r="H55">
-        <v>0.995152200160616</v>
+        <v>1.010461173912137</v>
       </c>
       <c r="I55">
         <v>2.041102800120592</v>
       </c>
       <c r="J55">
-        <v>2.066760501966197</v>
+        <v>2.090003243843921</v>
       </c>
       <c r="K55">
         <v>639.5660345238095</v>
@@ -2980,22 +2980,22 @@
         <v>266.7373492857164</v>
       </c>
       <c r="E56">
-        <v>228.5531327308722</v>
+        <v>226.1015362330623</v>
       </c>
       <c r="F56">
-        <v>38.18421655484423</v>
+        <v>40.63581305265407</v>
       </c>
       <c r="G56">
-        <v>-21.80932212613854</v>
+        <v>57.34189088014767</v>
       </c>
       <c r="H56">
-        <v>1.167069320374651</v>
+        <v>1.179723737085834</v>
       </c>
       <c r="I56">
         <v>2.061193782710517</v>
       </c>
       <c r="J56">
-        <v>2.008094642469668</v>
+        <v>2.034855355592762</v>
       </c>
       <c r="K56">
         <v>645.0292029761906</v>
@@ -3021,22 +3021,22 @@
         <v>241.1269130357125</v>
       </c>
       <c r="E57">
-        <v>213.6568923222104</v>
+        <v>212.2557405259683</v>
       </c>
       <c r="F57">
-        <v>27.47002071350215</v>
+        <v>28.87117250974424</v>
       </c>
       <c r="G57">
-        <v>5.660698587363612</v>
+        <v>86.21306338989191</v>
       </c>
       <c r="H57">
-        <v>1.128570721098364</v>
+        <v>1.136020691069187</v>
       </c>
       <c r="I57">
         <v>2.039712075117801</v>
       </c>
       <c r="J57">
-        <v>1.979635996163622</v>
+        <v>2.009187068216903</v>
       </c>
       <c r="K57">
         <v>648.9831666666664</v>
@@ -3062,22 +3062,22 @@
         <v>268.8155508928577</v>
       </c>
       <c r="E58">
-        <v>244.7818398657996</v>
+        <v>240.1705206947711</v>
       </c>
       <c r="F58">
-        <v>24.03371102705819</v>
+        <v>28.64503019808663</v>
       </c>
       <c r="G58">
-        <v>29.6944096144218</v>
+        <v>114.8580935879785</v>
       </c>
       <c r="H58">
-        <v>1.098184207783693</v>
+        <v>1.119269551130678</v>
       </c>
       <c r="I58">
         <v>2.059845670343221</v>
       </c>
       <c r="J58">
-        <v>2.02499590992977</v>
+        <v>2.047501575013793</v>
       </c>
       <c r="K58">
         <v>668.9439172619046</v>
@@ -3103,22 +3103,22 @@
         <v>277.7922759523776</v>
       </c>
       <c r="E59">
-        <v>255.6010301078948</v>
+        <v>249.3075104176689</v>
       </c>
       <c r="F59">
-        <v>22.19124584448286</v>
+        <v>28.48476553470869</v>
       </c>
       <c r="G59">
-        <v>51.88565545890467</v>
+        <v>143.3428591226872</v>
       </c>
       <c r="H59">
-        <v>1.086819860761576</v>
+        <v>1.114255545238038</v>
       </c>
       <c r="I59">
         <v>2.137286426616849</v>
       </c>
       <c r="J59">
-        <v>2.09349707734766</v>
+        <v>2.113312328704092</v>
       </c>
       <c r="K59">
         <v>691.6244416666668</v>
@@ -3144,22 +3144,22 @@
         <v>283.6586523809542</v>
       </c>
       <c r="E60">
-        <v>265.0908449617539</v>
+        <v>257.3641640210208</v>
       </c>
       <c r="F60">
-        <v>18.56780741920028</v>
+        <v>26.29448835993344</v>
       </c>
       <c r="G60">
-        <v>70.45346287810494</v>
+        <v>169.6373474826207</v>
       </c>
       <c r="H60">
-        <v>1.070043186221234</v>
+        <v>1.102168413617157</v>
       </c>
       <c r="I60">
         <v>1.975833829529693</v>
       </c>
       <c r="J60">
-        <v>1.940906021992219</v>
+        <v>1.951106242306161</v>
       </c>
       <c r="K60">
         <v>710.3411458333335</v>
@@ -3185,22 +3185,22 @@
         <v>321.9901685119063</v>
       </c>
       <c r="E61">
-        <v>269.8031338794821</v>
+        <v>261.3902519654758</v>
       </c>
       <c r="F61">
-        <v>52.18703463242429</v>
+        <v>60.59991654643051</v>
       </c>
       <c r="G61">
-        <v>122.6404975105292</v>
+        <v>230.2372640290512</v>
       </c>
       <c r="H61">
-        <v>1.193426347137004</v>
+        <v>1.231836941472609</v>
       </c>
       <c r="I61">
         <v>1.790608305342029</v>
       </c>
       <c r="J61">
-        <v>1.719323240426119</v>
+        <v>1.719623373257777</v>
       </c>
       <c r="K61">
         <v>718.9276410714284</v>
@@ -3226,22 +3226,22 @@
         <v>307.9714026190451</v>
       </c>
       <c r="E62">
-        <v>272.5746722544205</v>
+        <v>263.9053726820671</v>
       </c>
       <c r="F62">
-        <v>35.39673036462466</v>
+        <v>44.066029936978</v>
       </c>
       <c r="G62">
-        <v>158.0372278751539</v>
+        <v>274.3032939660292</v>
       </c>
       <c r="H62">
-        <v>1.129860672937306</v>
+        <v>1.166976630635199</v>
       </c>
       <c r="I62">
         <v>1.939893976491091</v>
       </c>
       <c r="J62">
-        <v>1.878945993909263</v>
+        <v>1.885739868535726</v>
       </c>
       <c r="K62">
         <v>719.8869053571425</v>
@@ -3267,22 +3267,22 @@
         <v>292.6836995833354</v>
       </c>
       <c r="E63">
-        <v>232.1006562125759</v>
+        <v>226.4608465464075</v>
       </c>
       <c r="F63">
-        <v>60.58304337075947</v>
+        <v>66.22285303692794</v>
       </c>
       <c r="G63">
-        <v>218.6202712459134</v>
+        <v>340.5261470029571</v>
       </c>
       <c r="H63">
-        <v>1.261020560473008</v>
+        <v>1.292425176567364</v>
       </c>
       <c r="I63">
         <v>1.93460898753739</v>
       </c>
       <c r="J63">
-        <v>1.824873922063345</v>
+        <v>1.838428745597254</v>
       </c>
       <c r="K63">
         <v>725.7554875000001</v>
@@ -3308,22 +3308,22 @@
         <v>206.0271769999992</v>
       </c>
       <c r="E64">
-        <v>175.4611530235749</v>
+        <v>174.1740644255438</v>
       </c>
       <c r="F64">
-        <v>30.5660239764243</v>
+        <v>31.85311257445537</v>
       </c>
       <c r="G64">
-        <v>249.1862952223377</v>
+        <v>372.3792595774125</v>
       </c>
       <c r="H64">
-        <v>1.17420393887596</v>
+        <v>1.182880916739886</v>
       </c>
       <c r="I64">
         <v>2.025751878444774</v>
       </c>
       <c r="J64">
-        <v>1.889896776137688</v>
+        <v>1.923245457194285</v>
       </c>
       <c r="K64">
         <v>730.8203000000037</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>72.55730853120799</v>
+        <v>94.36188406375523</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>625.3681526825983</v>
       </c>
       <c r="J65">
-        <v>694.8448384402204</v>
+        <v>723.7776627788096</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>57.47822536260116</v>
+        <v>75.16428238264905</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>666.8355386964591</v>
       </c>
       <c r="J66">
-        <v>616.6603376778947</v>
+        <v>650.3385135802446</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>59.73876166846237</v>
+        <v>78.04223425149681</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>549.0837530234937</v>
       </c>
       <c r="J67">
-        <v>610.0143878254571</v>
+        <v>642.4412338026199</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>76.52175654454386</v>
+        <v>99.40913348830405</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>567.9820122448994</v>
       </c>
       <c r="J68">
-        <v>678.7396146360411</v>
+        <v>705.1761556582318</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>17.70319674401018</v>
+        <v>24.52558321664025</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>475.3234972553736</v>
       </c>
       <c r="J69">
-        <v>432.3444724108543</v>
+        <v>478.491711775854</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>22.89908405888033</v>
+        <v>31.14061238886845</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>225.7679548028301</v>
       </c>
       <c r="J70">
-        <v>222.8435758987892</v>
+        <v>244.4322779583368</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>50.23744500788944</v>
+        <v>65.94584280274606</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>32.21712068844382</v>
       </c>
       <c r="J71">
-        <v>35.53173321640602</v>
+        <v>37.6607896292024</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>65.02759866696169</v>
+        <v>84.7756002604375</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>11.73508143796019</v>
       </c>
       <c r="J72">
-        <v>15.06177192582633</v>
+        <v>15.66271771316647</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>36.25781259006349</v>
+        <v>48.14798256118755</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>6.896657526143269</v>
       </c>
       <c r="J73">
-        <v>7.48709310090247</v>
+        <v>7.952375391595656</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>44.40020487597807</v>
+        <v>58.51428945720168</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>5.884898003325697</v>
       </c>
       <c r="J74">
-        <v>6.501902740684335</v>
+        <v>6.851930853525978</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0.00156547619047619</v>
       </c>
       <c r="E75">
-        <v>76.66489905733276</v>
+        <v>99.59137221684126</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>2.041972545095861E-05</v>
+        <v>1.571899408181327E-05</v>
       </c>
       <c r="I75">
         <v>5.866617466732969</v>
       </c>
       <c r="J75">
-        <v>7.280579753984179</v>
+        <v>7.504017728042456</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>38.44213015534879</v>
+        <v>50.92889822393106</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>5.003857497857754</v>
       </c>
       <c r="J76">
-        <v>5.547552920420199</v>
+        <v>5.843283783525982</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>8.004002001000503E-05</v>
       </c>
       <c r="E77">
-        <v>16.44465802767133</v>
+        <v>22.92330244755313</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3847,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>4.867235297646335E-06</v>
+        <v>3.491644373367705E-06</v>
       </c>
       <c r="I77">
         <v>4.11439707738977</v>
       </c>
       <c r="J77">
-        <v>4.025602176000887</v>
+        <v>4.328238935644349</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0.0001404369587147776</v>
       </c>
       <c r="E78">
-        <v>26.89220246758913</v>
+        <v>36.22436289403703</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5.222218555138214E-06</v>
+        <v>3.876864836120976E-06</v>
       </c>
       <c r="I78">
         <v>3.827190553689982</v>
       </c>
       <c r="J78">
-        <v>3.927093627446003</v>
+        <v>4.185940729197899</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0.000272836961692117</v>
       </c>
       <c r="E79">
-        <v>37.07391081232753</v>
+        <v>49.1869799875232</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3929,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>7.359271134713832E-06</v>
+        <v>5.546934610771488E-06</v>
       </c>
       <c r="I79">
         <v>3.739912814111165</v>
       </c>
       <c r="J79">
-        <v>4.108273090811054</v>
+        <v>4.339838772302323</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0.0003593136553665002</v>
       </c>
       <c r="E80">
-        <v>45.06572461076288</v>
+        <v>59.36158120806312</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>7.973102806399491E-06</v>
+        <v>6.052966380849948E-06</v>
       </c>
       <c r="I80">
         <v>3.766965667694176</v>
       </c>
       <c r="J80">
-        <v>4.296248071542694</v>
+        <v>4.507184391429336</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>1.481290626271959E-05</v>
       </c>
       <c r="E81">
-        <v>13.7193733036643</v>
+        <v>19.45366639514292</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1.079707209276332E-06</v>
+        <v>7.614454757185509E-07</v>
       </c>
       <c r="I81">
         <v>3.525279724573007</v>
       </c>
       <c r="J81">
-        <v>3.59527592847718</v>
+        <v>3.866924924475888</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>1.47908960008132E-05</v>
       </c>
       <c r="E82">
-        <v>20.81515215191452</v>
+        <v>28.48750050977443</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>7.105831315988134E-07</v>
+        <v>5.19206519916981E-07</v>
       </c>
       <c r="I82">
         <v>3.623731811483089</v>
       </c>
       <c r="J82">
-        <v>3.900069812318362</v>
+        <v>4.156509364090591</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>1.483491652462565E-05</v>
       </c>
       <c r="E83">
-        <v>5.697815606467627</v>
+        <v>9.241197386855021</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2.603614709431179E-06</v>
+        <v>1.605302419546553E-06</v>
       </c>
       <c r="I83">
         <v>3.318462914059969</v>
       </c>
       <c r="J83">
-        <v>3.248429073846859</v>
+        <v>3.531930586129255</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>8.950928686108236E-05</v>
       </c>
       <c r="E84">
-        <v>12.77128796857822</v>
+        <v>18.24663200424764</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>7.008634296032329E-06</v>
+        <v>4.905523761330062E-06</v>
       </c>
       <c r="I84">
         <v>3.390317174680583</v>
       </c>
       <c r="J84">
-        <v>3.418490466787742</v>
+        <v>3.687547674551447</v>
       </c>
       <c r="K84">
         <v>7.929974421090132E-06</v>
@@ -4166,7 +4166,7 @@
         <v>7.719159547924422E-05</v>
       </c>
       <c r="E85">
-        <v>4.385368356000777</v>
+        <v>7.570283385078511</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4175,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1.760207791293474E-05</v>
+        <v>1.0196658639146E-05</v>
       </c>
       <c r="I85">
         <v>3.415419737982404</v>
       </c>
       <c r="J85">
-        <v>3.2777211678792</v>
+        <v>3.563802260910358</v>
       </c>
       <c r="K85">
         <v>1.258696411649448E-05</v>
@@ -4207,7 +4207,7 @@
         <v>3.672837262653653E-05</v>
       </c>
       <c r="E86">
-        <v>2.156435392120195</v>
+        <v>4.732566460759774</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1.703198378247048E-05</v>
+        <v>7.760772707804741E-06</v>
       </c>
       <c r="I86">
         <v>3.404275557750478</v>
       </c>
       <c r="J86">
-        <v>3.208161477705376</v>
+        <v>3.497214874760931</v>
       </c>
       <c r="K86">
         <v>1.506614641653134E-05</v>
@@ -4248,22 +4248,22 @@
         <v>2.365927273108898E-05</v>
       </c>
       <c r="E87">
-        <v>0.04275813668054806</v>
+        <v>2.041585439337596</v>
       </c>
       <c r="F87">
-        <v>-0.04273447740781697</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.04273447740781697</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.0005533279644024406</v>
+        <v>1.158867626855987E-05</v>
       </c>
       <c r="I87">
         <v>3.251465106185762</v>
       </c>
       <c r="J87">
-        <v>3.191071355006458</v>
+        <v>3.48299220482045</v>
       </c>
       <c r="K87">
         <v>7.071200822105277E-06</v>
@@ -4289,22 +4289,22 @@
         <v>1.665930651729589E-05</v>
       </c>
       <c r="E88">
-        <v>0.4405819979338138</v>
+        <v>2.548066367279379</v>
       </c>
       <c r="F88">
-        <v>-0.4405653386272965</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.4832998160351134</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>3.781204542042711E-05</v>
+        <v>6.538019076435345E-06</v>
       </c>
       <c r="I88">
         <v>3.208192538504918</v>
       </c>
       <c r="J88">
-        <v>3.210596092764639</v>
+        <v>3.502543946394703</v>
       </c>
       <c r="K88">
         <v>2.743811583234558E-06</v>
@@ -4330,22 +4330,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E89">
-        <v>1.206487391038108</v>
+        <v>3.523161901790298</v>
       </c>
       <c r="F89">
-        <v>-1.206470731731591</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>-1.689770547766704</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1.380810660852514E-05</v>
+        <v>4.728510066151123E-06</v>
       </c>
       <c r="I89">
         <v>3.245513172676071</v>
       </c>
       <c r="J89">
-        <v>3.188508126323689</v>
+        <v>3.477498388808104</v>
       </c>
       <c r="K89">
         <v>2.743811583234558E-06</v>
@@ -4371,22 +4371,22 @@
         <v>1.665930651729523E-05</v>
       </c>
       <c r="E90">
-        <v>1.450015562146512</v>
+        <v>3.833204413977022</v>
       </c>
       <c r="F90">
-        <v>-1.449998902839995</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>-3.139769450606699</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1.148905360204123E-05</v>
+        <v>4.346052210664885E-06</v>
       </c>
       <c r="I90">
         <v>3.164422678988888</v>
       </c>
       <c r="J90">
-        <v>3.143728094774841</v>
+        <v>3.43079525515333</v>
       </c>
       <c r="K90">
         <v>2.74381158323456E-06</v>
@@ -4412,22 +4412,22 @@
         <v>1.665930651729622E-05</v>
       </c>
       <c r="E91">
-        <v>4.342609716686031</v>
+        <v>7.515846772469716</v>
       </c>
       <c r="F91">
-        <v>-4.342593057379514</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>-7.482362507986212</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3.836243089791041E-06</v>
+        <v>2.216557497994594E-06</v>
       </c>
       <c r="I91">
         <v>3.278347895298483</v>
       </c>
       <c r="J91">
-        <v>3.210532819639455</v>
+        <v>3.490748910706454</v>
       </c>
       <c r="K91">
         <v>2.743811583234558E-06</v>
@@ -4453,22 +4453,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E92">
-        <v>1.886879075203573</v>
+        <v>4.389387546525726</v>
       </c>
       <c r="F92">
-        <v>-1.886862415897056</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>-9.369224923883268</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>8.829027114786465E-06</v>
+        <v>3.795360136400277E-06</v>
       </c>
       <c r="I92">
         <v>2.637638996388765</v>
       </c>
       <c r="J92">
-        <v>2.577947504885975</v>
+        <v>2.764664446669739</v>
       </c>
       <c r="K92">
         <v>2.743811583234556E-06</v>
@@ -4494,22 +4494,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E93">
-        <v>4.975315860692286E-07</v>
+        <v>1.987149761262175</v>
       </c>
       <c r="F93">
-        <v>1.616177493122633E-05</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>-9.369208762108336</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>33.48391737078079</v>
+        <v>8.38351836487356E-06</v>
       </c>
       <c r="I93">
         <v>2.497116635466115</v>
       </c>
       <c r="J93">
-        <v>2.456567434738068</v>
+        <v>2.632208884304098</v>
       </c>
       <c r="K93">
         <v>2.743811583234558E-06</v>
@@ -4535,22 +4535,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E94">
-        <v>4.975315860692286E-07</v>
+        <v>1.987149761262175</v>
       </c>
       <c r="F94">
-        <v>1.616177493122633E-05</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>-9.369192600333404</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>33.48391737078079</v>
+        <v>8.38351836487356E-06</v>
       </c>
       <c r="I94">
         <v>2.47486360687252</v>
       </c>
       <c r="J94">
-        <v>2.439118051236778</v>
+        <v>2.611638513667842</v>
       </c>
       <c r="K94">
         <v>2.743811583234558E-06</v>
@@ -4576,22 +4576,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E95">
-        <v>0.9834081503281192</v>
+        <v>3.239153493680321</v>
       </c>
       <c r="F95">
-        <v>-0.9833914910216019</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>-10.35258409135501</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1.694037873464552E-05</v>
+        <v>5.143104996351154E-06</v>
       </c>
       <c r="I95">
         <v>2.477051948399112</v>
       </c>
       <c r="J95">
-        <v>2.413981691353553</v>
+        <v>2.585797271052487</v>
       </c>
       <c r="K95">
         <v>2.743811583234558E-06</v>
@@ -4617,22 +4617,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E96">
-        <v>6.755583503699074</v>
+        <v>10.58787105352596</v>
       </c>
       <c r="F96">
-        <v>-6.755566844392557</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>-17.10815093574756</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>2.466005565348074E-06</v>
+        <v>1.573433075740727E-06</v>
       </c>
       <c r="I96">
         <v>2.097827999970653</v>
       </c>
       <c r="J96">
-        <v>2.040678846368006</v>
+        <v>2.146273655797176</v>
       </c>
       <c r="K96">
         <v>2.743811583234553E-06</v>
@@ -4658,22 +4658,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E97">
-        <v>4.44485436867811</v>
+        <v>7.646017292853456</v>
       </c>
       <c r="F97">
-        <v>-4.444837709371592</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-21.55298864511916</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>3.747998277444127E-06</v>
+        <v>2.17882145425784E-06</v>
       </c>
       <c r="I97">
         <v>2.036081067093312</v>
       </c>
       <c r="J97">
-        <v>2.020803611821702</v>
+        <v>2.123775884648492</v>
       </c>
       <c r="K97">
         <v>2.743811583234558E-06</v>
@@ -4699,22 +4699,22 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E98">
-        <v>8.324574163359328</v>
+        <v>12.58539685723279</v>
       </c>
       <c r="F98">
-        <v>-8.324557504052811</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>-29.87754614917197</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2.00122026549077E-06</v>
+        <v>1.323701326726261E-06</v>
       </c>
       <c r="I98">
         <v>2.063743985586362</v>
       </c>
       <c r="J98">
-        <v>2.026342705697797</v>
+        <v>2.12461565700609</v>
       </c>
       <c r="K98">
         <v>2.743811583234558E-06</v>
@@ -4740,22 +4740,22 @@
         <v>0.0002637369650517596</v>
       </c>
       <c r="E99">
-        <v>18.47282062199123</v>
+        <v>25.50541268950247</v>
       </c>
       <c r="F99">
-        <v>-18.47255688502618</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>-48.35010303419814</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1.427702733917041E-05</v>
+        <v>1.034043119640674E-05</v>
       </c>
       <c r="I99">
         <v>2.058151076898119</v>
       </c>
       <c r="J99">
-        <v>2.147865206906951</v>
+        <v>2.238090753369406</v>
       </c>
       <c r="K99">
         <v>2.743811583234558E-06</v>
@@ -4781,22 +4781,22 @@
         <v>0.05638282079146886</v>
       </c>
       <c r="E100">
-        <v>23.94569799407629</v>
+        <v>32.4730856351339</v>
       </c>
       <c r="F100">
-        <v>-23.88931517328482</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>-72.23941820748296</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0.002354611705426875</v>
+        <v>0.001736293908899932</v>
       </c>
       <c r="I100">
         <v>2.05746946506264</v>
       </c>
       <c r="J100">
-        <v>2.118245493078747</v>
+        <v>2.199871520775035</v>
       </c>
       <c r="K100">
         <v>2.743811583234558E-06</v>
@@ -4822,22 +4822,22 @@
         <v>3.374162582696231</v>
       </c>
       <c r="E101">
-        <v>22.14247413167054</v>
+        <v>30.17735100291158</v>
       </c>
       <c r="F101">
-        <v>-18.76831154897431</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>-91.00772975645727</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0.1523841718243285</v>
+        <v>0.1118110924438227</v>
       </c>
       <c r="I101">
         <v>1.983210157661925</v>
       </c>
       <c r="J101">
-        <v>2.00418347088591</v>
+        <v>2.072216844306239</v>
       </c>
       <c r="K101">
         <v>2.743811583234558E-06</v>
@@ -4863,22 +4863,22 @@
         <v>5.217865025013363</v>
       </c>
       <c r="E102">
-        <v>39.40694836895108</v>
+        <v>52.15723505388951</v>
       </c>
       <c r="F102">
-        <v>-34.18908334393772</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>-125.196813100395</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0.1324097713976894</v>
+        <v>0.1000410589177551</v>
       </c>
       <c r="I102">
         <v>1.953064814876338</v>
       </c>
       <c r="J102">
-        <v>1.998187372974488</v>
+        <v>2.045955311631654</v>
       </c>
       <c r="K102">
         <v>2.743811583234558E-06</v>
@@ -4904,22 +4904,22 @@
         <v>2.807769666968994</v>
       </c>
       <c r="E103">
-        <v>38.90130209074881</v>
+        <v>51.51348266286535</v>
       </c>
       <c r="F103">
-        <v>-36.09353242377981</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>-161.2903455241748</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0.07217675286084357</v>
+        <v>0.05450552985020828</v>
       </c>
       <c r="I103">
         <v>1.923730571134157</v>
       </c>
       <c r="J103">
-        <v>2.034626834458078</v>
+        <v>2.080931912726578</v>
       </c>
       <c r="K103">
         <v>2.7478946361858E-06</v>
@@ -4945,22 +4945,22 @@
         <v>16.71104948745814</v>
       </c>
       <c r="E104">
-        <v>42.95948527725765</v>
+        <v>56.68006895304089</v>
       </c>
       <c r="F104">
-        <v>-26.24843578979951</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>-187.5387813139743</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0.3889955705848462</v>
+        <v>0.2948311425186012</v>
       </c>
       <c r="I104">
         <v>1.945191760808501</v>
       </c>
       <c r="J104">
-        <v>1.974489092528331</v>
+        <v>2.018734125770526</v>
       </c>
       <c r="K104">
         <v>2.743811583234558E-06</v>
@@ -4986,22 +4986,22 @@
         <v>54.56517449301888</v>
       </c>
       <c r="E105">
-        <v>46.41189363718053</v>
+        <v>55.67663768807826</v>
       </c>
       <c r="F105">
-        <v>8.153280855838354</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>-179.385500458136</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1.175672230044644</v>
+        <v>0.9800371710431542</v>
       </c>
       <c r="I105">
         <v>2.539958453890706</v>
       </c>
       <c r="J105">
-        <v>2.521595653093601</v>
+        <v>2.560478165962528</v>
       </c>
       <c r="K105">
         <v>87.89241202742411</v>
@@ -5027,22 +5027,22 @@
         <v>130.8506438274929</v>
       </c>
       <c r="E106">
-        <v>99.9559282166604</v>
+        <v>116.8671602713336</v>
       </c>
       <c r="F106">
-        <v>30.89471561083255</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>-148.4907848473034</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1.309083374663546</v>
+        <v>1.119652805148114</v>
       </c>
       <c r="I106">
         <v>2.10354247371688</v>
       </c>
       <c r="J106">
-        <v>2.055208748501212</v>
+        <v>2.071483481370382</v>
       </c>
       <c r="K106">
         <v>201.4925042956422</v>
@@ -5068,22 +5068,22 @@
         <v>122.7463988095238</v>
       </c>
       <c r="E107">
-        <v>86.77511815639885</v>
+        <v>91.8508385587359</v>
       </c>
       <c r="F107">
-        <v>35.97128065312495</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>-112.5195041941785</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1.414534505021269</v>
+        <v>1.33636666507983</v>
       </c>
       <c r="I107">
         <v>1.843868676257804</v>
       </c>
       <c r="J107">
-        <v>1.787331059052079</v>
+        <v>1.808935826736286</v>
       </c>
       <c r="K107">
         <v>335.5660633506965</v>
@@ -5109,22 +5109,22 @@
         <v>82.9775833333334</v>
       </c>
       <c r="E108">
-        <v>63.71253367734956</v>
+        <v>68.46913292665026</v>
       </c>
       <c r="F108">
-        <v>19.26504965598384</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>-93.25445453819464</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1.302374565003883</v>
+        <v>1.211897679823488</v>
       </c>
       <c r="I108">
         <v>1.880971877249785</v>
       </c>
       <c r="J108">
-        <v>1.841983097816681</v>
+        <v>1.869344135736414</v>
       </c>
       <c r="K108">
         <v>238.2129138690476</v>
@@ -5150,22 +5150,22 @@
         <v>187.644232142857</v>
       </c>
       <c r="E109">
-        <v>183.180280406642</v>
+        <v>197.0049265319541</v>
       </c>
       <c r="F109">
-        <v>4.46395173621508</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>-88.79050280197956</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>1.024369171868858</v>
+        <v>0.9524849730720881</v>
       </c>
       <c r="I109">
         <v>1.502933338082155</v>
       </c>
       <c r="J109">
-        <v>1.508308879780382</v>
+        <v>1.509240611009255</v>
       </c>
       <c r="K109">
         <v>621.801688095238</v>
@@ -5191,22 +5191,22 @@
         <v>218.3294047619048</v>
       </c>
       <c r="E110">
-        <v>184.733829208189</v>
+        <v>193.4759702246572</v>
       </c>
       <c r="F110">
-        <v>33.5955755537158</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>-55.19492724826375</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>1.181859357854022</v>
+        <v>1.128457474633096</v>
       </c>
       <c r="I110">
         <v>1.607382705148449</v>
       </c>
       <c r="J110">
-        <v>1.584835596795158</v>
+        <v>1.586559709546443</v>
       </c>
       <c r="K110">
         <v>711.4528924404761</v>
@@ -5232,22 +5232,22 @@
         <v>365.9143869047619</v>
       </c>
       <c r="E111">
-        <v>326.0608742537446</v>
+        <v>327.141034977957</v>
       </c>
       <c r="F111">
-        <v>39.8535126510173</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>-15.34141459724646</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1.122227215216269</v>
+        <v>1.118521823254051</v>
       </c>
       <c r="I111">
         <v>1.311289847109123</v>
       </c>
       <c r="J111">
-        <v>1.297043830877011</v>
+        <v>1.291026392838446</v>
       </c>
       <c r="K111">
         <v>1464.604911488095</v>
@@ -5273,22 +5273,22 @@
         <v>309.6720473458469</v>
       </c>
       <c r="E112">
-        <v>363.3906901717908</v>
+        <v>347.402587741174</v>
       </c>
       <c r="F112">
-        <v>-53.7186428259439</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>-69.06005742319036</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0.8521738605891397</v>
+        <v>0.8913924601406896</v>
       </c>
       <c r="I112">
         <v>1.091057492416464</v>
       </c>
       <c r="J112">
-        <v>1.106270610319927</v>
+        <v>1.102334141199207</v>
       </c>
       <c r="K112">
         <v>1908.464750595238</v>
@@ -5314,22 +5314,22 @@
         <v>97.41502810745615</v>
       </c>
       <c r="E113">
-        <v>116.2104093369509</v>
+        <v>129.9094968947338</v>
       </c>
       <c r="F113">
-        <v>-18.79538122949475</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>-87.85543865268511</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.8382642197309732</v>
+        <v>0.7498684117481568</v>
       </c>
       <c r="I113">
         <v>1.661042028360881</v>
       </c>
       <c r="J113">
-        <v>1.715643654561175</v>
+        <v>1.723721024490533</v>
       </c>
       <c r="K113">
         <v>326.0623142857141</v>
@@ -5355,22 +5355,22 @@
         <v>43.31930397973476</v>
       </c>
       <c r="E114">
-        <v>38.30456462357763</v>
+        <v>50.75375970559657</v>
       </c>
       <c r="F114">
-        <v>5.014739356157129</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>-82.84069929652799</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1.130917539604938</v>
+        <v>0.8535191132836999</v>
       </c>
       <c r="I114">
         <v>2.061050094014197</v>
       </c>
       <c r="J114">
-        <v>1.996809887393417</v>
+        <v>2.025026049282649</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5396,22 +5396,22 @@
         <v>28.72340517021075</v>
       </c>
       <c r="E115">
-        <v>22.16106357086479</v>
+        <v>30.20101790537128</v>
       </c>
       <c r="F115">
-        <v>6.562341599345967</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>-76.27835769718202</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1.296120336389157</v>
+        <v>0.9510740750596444</v>
       </c>
       <c r="I115">
         <v>4.705763220732165</v>
       </c>
       <c r="J115">
-        <v>4.719281163881116</v>
+        <v>4.753350978130877</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5437,22 +5437,22 @@
         <v>21.815667074973</v>
       </c>
       <c r="E116">
-        <v>27.9388159052535</v>
+        <v>37.55683567541968</v>
       </c>
       <c r="F116">
-        <v>-6.123148830280496</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>-82.40150652746252</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0.7808372104585461</v>
+        <v>0.5808707438377455</v>
       </c>
       <c r="I116">
         <v>1.980812786102582</v>
       </c>
       <c r="J116">
-        <v>1.971731254776302</v>
+        <v>2.003446567352946</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>36.24765517021088</v>
       </c>
       <c r="E117">
-        <v>52.21169628817284</v>
+        <v>68.45931721451934</v>
       </c>
       <c r="F117">
-        <v>-15.96404111796195</v>
+        <v>-32.21166204430846</v>
       </c>
       <c r="G117">
-        <v>-98.36554764542447</v>
+        <v>-32.21166204430846</v>
       </c>
       <c r="H117">
-        <v>0.6942439672932408</v>
+        <v>0.5294773106869844</v>
       </c>
       <c r="I117">
         <v>2.077146247084362</v>
       </c>
       <c r="J117">
-        <v>2.091826542762111</v>
+        <v>2.114214914110102</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5519,22 +5519,22 @@
         <v>36.31801826544896</v>
       </c>
       <c r="E118">
-        <v>49.14063874106533</v>
+        <v>64.54946812953868</v>
       </c>
       <c r="F118">
-        <v>-12.82262047561637</v>
+        <v>-28.23144986408972</v>
       </c>
       <c r="G118">
-        <v>-111.1881681210408</v>
+        <v>-60.44311190839818</v>
       </c>
       <c r="H118">
-        <v>0.7390628041450162</v>
+        <v>0.5626385362705935</v>
       </c>
       <c r="I118">
         <v>2.041102800120592</v>
       </c>
       <c r="J118">
-        <v>2.066760501966197</v>
+        <v>2.090003243843921</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5560,22 +5560,22 @@
         <v>33.25356588449635</v>
       </c>
       <c r="E119">
-        <v>38.83164992274192</v>
+        <v>51.21854860575691</v>
       </c>
       <c r="F119">
-        <v>-5.578084038245571</v>
+        <v>-17.96498272126055</v>
       </c>
       <c r="G119">
-        <v>-116.7662521592864</v>
+        <v>-78.40809462965873</v>
       </c>
       <c r="H119">
-        <v>0.8563521238643341</v>
+        <v>0.6492485005863421</v>
       </c>
       <c r="I119">
         <v>2.061193782710517</v>
       </c>
       <c r="J119">
-        <v>2.008094642469668</v>
+        <v>2.034855355592762</v>
       </c>
       <c r="K119">
         <v>3.357886904762078</v>
@@ -5601,22 +5601,22 @@
         <v>37.23104709686041</v>
       </c>
       <c r="E120">
-        <v>30.55007248129455</v>
+        <v>40.53327017576994</v>
       </c>
       <c r="F120">
-        <v>6.680974615565862</v>
+        <v>-3.302223078909527</v>
       </c>
       <c r="G120">
-        <v>-110.0852775437206</v>
+        <v>-81.71031770856825</v>
       </c>
       <c r="H120">
-        <v>1.218689321266146</v>
+        <v>0.918530553676285</v>
       </c>
       <c r="I120">
         <v>2.039712075117801</v>
       </c>
       <c r="J120">
-        <v>1.979635996163622</v>
+        <v>2.009187068216903</v>
       </c>
       <c r="K120">
         <v>5.665922619047619</v>
@@ -5642,22 +5642,22 @@
         <v>46.67138690476159</v>
       </c>
       <c r="E121">
-        <v>46.39882741969661</v>
+        <v>60.53793313294354</v>
       </c>
       <c r="F121">
-        <v>0.2725594850649813</v>
+        <v>-13.86654622818195</v>
       </c>
       <c r="G121">
-        <v>-109.8127180586556</v>
+        <v>-95.5768639367502</v>
       </c>
       <c r="H121">
-        <v>1.005874275282855</v>
+        <v>0.7709445051959323</v>
       </c>
       <c r="I121">
         <v>2.059845670343221</v>
       </c>
       <c r="J121">
-        <v>2.02499590992977</v>
+        <v>2.047501575013793</v>
       </c>
       <c r="K121">
         <v>8.479588367535687</v>
@@ -5683,22 +5683,22 @@
         <v>61.18733650668513</v>
       </c>
       <c r="E122">
-        <v>50.5180481487189</v>
+        <v>65.65638616582127</v>
       </c>
       <c r="F122">
-        <v>10.66928835796623</v>
+        <v>-4.469049659136147</v>
       </c>
       <c r="G122">
-        <v>-99.14342970068935</v>
+        <v>-100.0459135958863</v>
       </c>
       <c r="H122">
-        <v>1.211197557090036</v>
+        <v>0.931932749879819</v>
       </c>
       <c r="I122">
         <v>2.137286426616849</v>
       </c>
       <c r="J122">
-        <v>2.09349707734766</v>
+        <v>2.113312328704092</v>
       </c>
       <c r="K122">
         <v>10.52829679287422</v>
@@ -5724,22 +5724,22 @@
         <v>106.2223242076008</v>
       </c>
       <c r="E123">
-        <v>89.67208337824074</v>
+        <v>103.3947446763935</v>
       </c>
       <c r="F123">
-        <v>16.55024082936004</v>
+        <v>2.827579531207277</v>
       </c>
       <c r="G123">
-        <v>-82.59318887132932</v>
+        <v>-97.21833406467907</v>
       </c>
       <c r="H123">
-        <v>1.184564027129273</v>
+        <v>1.027347420220023</v>
       </c>
       <c r="I123">
         <v>1.975833829529693</v>
       </c>
       <c r="J123">
-        <v>1.940906021992219</v>
+        <v>1.951106242306161</v>
       </c>
       <c r="K123">
         <v>207.6750986483759</v>
@@ -5765,22 +5765,22 @@
         <v>230.5880059523811</v>
       </c>
       <c r="E124">
-        <v>179.3148697638306</v>
+        <v>187.7520211995451</v>
       </c>
       <c r="F124">
-        <v>51.27313618855055</v>
+        <v>42.83598475283605</v>
       </c>
       <c r="G124">
-        <v>-31.32005268277877</v>
+        <v>-54.38234931184302</v>
       </c>
       <c r="H124">
-        <v>1.28593912069914</v>
+        <v>1.228151923367629</v>
       </c>
       <c r="I124">
         <v>1.790608305342029</v>
       </c>
       <c r="J124">
-        <v>1.719323240426119</v>
+        <v>1.719623373257777</v>
       </c>
       <c r="K124">
         <v>692.3225700714288</v>
@@ -5806,22 +5806,22 @@
         <v>139.5081547619047</v>
       </c>
       <c r="E125">
-        <v>108.8745478685369</v>
+        <v>122.4246630770365</v>
       </c>
       <c r="F125">
-        <v>30.6336068933678</v>
+        <v>17.08349168486822</v>
       </c>
       <c r="G125">
-        <v>-0.6864457894109677</v>
+        <v>-37.29885762697479</v>
       </c>
       <c r="H125">
-        <v>1.281366099727524</v>
+        <v>1.139542893200517</v>
       </c>
       <c r="I125">
         <v>1.939893976491091</v>
       </c>
       <c r="J125">
-        <v>1.878945993909263</v>
+        <v>1.885739868535726</v>
       </c>
       <c r="K125">
         <v>295.8684673214282</v>
@@ -5847,22 +5847,22 @@
         <v>118.8083690476189</v>
       </c>
       <c r="E126">
-        <v>77.16782479495046</v>
+        <v>84.95714748789156</v>
       </c>
       <c r="F126">
-        <v>41.64054425266848</v>
+        <v>33.85122155972738</v>
       </c>
       <c r="G126">
-        <v>40.95409846325751</v>
+        <v>-3.447636067247416</v>
       </c>
       <c r="H126">
-        <v>1.539610185505621</v>
+        <v>1.398450543134726</v>
       </c>
       <c r="I126">
         <v>1.93460898753739</v>
       </c>
       <c r="J126">
-        <v>1.824873922063345</v>
+        <v>1.838428745597254</v>
       </c>
       <c r="K126">
         <v>248.6694451785715</v>
@@ -5888,22 +5888,22 @@
         <v>57.05399999999791</v>
       </c>
       <c r="E127">
-        <v>2.840909320250276</v>
+        <v>4.641633799881174</v>
       </c>
       <c r="F127">
-        <v>54.21309067974763</v>
+        <v>52.41236620011673</v>
       </c>
       <c r="G127">
-        <v>95.16718914300515</v>
+        <v>48.96473013286931</v>
       </c>
       <c r="H127">
-        <v>20.08300637873637</v>
+        <v>12.29179260144531</v>
       </c>
       <c r="I127">
         <v>2.025751878444774</v>
       </c>
       <c r="J127">
-        <v>1.889896776137688</v>
+        <v>1.923245457194285</v>
       </c>
       <c r="K127">
         <v>15.66718600000022</v>
@@ -5926,7 +5926,7 @@
         <v>209.8296842253521</v>
       </c>
       <c r="E128">
-        <v>258.4206018447931</v>
+        <v>278.6557709321428</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0.8119696445540181</v>
+        <v>0.7530067779448538</v>
       </c>
       <c r="I128">
         <v>625.3681526825983</v>
       </c>
       <c r="J128">
-        <v>694.8448384402204</v>
+        <v>723.7776627788096</v>
       </c>
       <c r="K128">
         <v>0.699384507042082</v>
@@ -5967,7 +5967,7 @@
         <v>246.0623289880958</v>
       </c>
       <c r="E129">
-        <v>210.4865584240037</v>
+        <v>234.3654275584958</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>1.169016828582604</v>
+        <v>1.049908817829714</v>
       </c>
       <c r="I129">
         <v>666.8355386964591</v>
       </c>
       <c r="J129">
-        <v>616.6603376778947</v>
+        <v>650.3385135802446</v>
       </c>
       <c r="K129">
         <v>0.7090309523809992</v>
@@ -6008,7 +6008,7 @@
         <v>173.8325378571414</v>
       </c>
       <c r="E130">
-        <v>217.6745958371419</v>
+        <v>241.0070240329089</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0.7985890001936564</v>
+        <v>0.7212758157347521</v>
       </c>
       <c r="I130">
         <v>549.0837530234937</v>
       </c>
       <c r="J130">
-        <v>610.0143878254571</v>
+        <v>642.4412338026199</v>
       </c>
       <c r="K130">
         <v>0.7195404761904294</v>
@@ -6049,7 +6049,7 @@
         <v>190.2680119642866</v>
       </c>
       <c r="E131">
-        <v>271.0287637078274</v>
+        <v>290.3054082031749</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6058,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0.702021473150348</v>
+        <v>0.6554063637392676</v>
       </c>
       <c r="I131">
         <v>567.9820122448994</v>
       </c>
       <c r="J131">
-        <v>678.7396146360411</v>
+        <v>705.1761556582318</v>
       </c>
       <c r="K131">
         <v>0.7291666666666666</v>
@@ -6090,7 +6090,7 @@
         <v>115.237380059524</v>
       </c>
       <c r="E132">
-        <v>84.04640167149316</v>
+        <v>117.5366344282408</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6099,13 +6099,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1.371116166399901</v>
+        <v>0.9804379768069627</v>
       </c>
       <c r="I132">
         <v>475.3234972553736</v>
       </c>
       <c r="J132">
-        <v>432.3444724108543</v>
+        <v>478.491711775854</v>
       </c>
       <c r="K132">
         <v>0.7257255952381023</v>
@@ -6131,7 +6131,7 @@
         <v>105.0662557738099</v>
       </c>
       <c r="E133">
-        <v>100.7015837047899</v>
+        <v>132.9229913874596</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6140,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1.043342635820059</v>
+        <v>0.7904295161967152</v>
       </c>
       <c r="I133">
         <v>225.7679548028301</v>
       </c>
       <c r="J133">
-        <v>222.8435758987892</v>
+        <v>244.4322779583368</v>
       </c>
       <c r="K133">
         <v>1.492512500000192</v>
@@ -6172,7 +6172,7 @@
         <v>149.8882673809518</v>
       </c>
       <c r="E134">
-        <v>189.4860472152342</v>
+        <v>214.9206663079548</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6181,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0.791025352968053</v>
+        <v>0.6974120728165827</v>
       </c>
       <c r="I134">
         <v>32.21712068844382</v>
       </c>
       <c r="J134">
-        <v>35.53173321640602</v>
+        <v>37.6607896292024</v>
       </c>
       <c r="K134">
         <v>11.94642797619053</v>
@@ -6213,7 +6213,7 @@
         <v>122.0218367857146</v>
       </c>
       <c r="E135">
-        <v>240.7672393049736</v>
+        <v>262.2178520596729</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6222,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0.5068041529983767</v>
+        <v>0.465345268551533</v>
       </c>
       <c r="I135">
         <v>11.73508143796019</v>
       </c>
       <c r="J135">
-        <v>15.06177192582633</v>
+        <v>15.66271771316647</v>
       </c>
       <c r="K135">
         <v>35.69475517857115</v>
@@ -6254,7 +6254,7 @@
         <v>118.1905783333336</v>
       </c>
       <c r="E136">
-        <v>153.6978760259653</v>
+        <v>181.6787726944805</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0.7689799064846335</v>
+        <v>0.6505469878536023</v>
       </c>
       <c r="I136">
         <v>6.896657526143269</v>
       </c>
       <c r="J136">
-        <v>7.48709310090247</v>
+        <v>7.952375391595656</v>
       </c>
       <c r="K136">
         <v>60.13746327380951</v>
@@ -6295,7 +6295,7 @@
         <v>136.5653833333331</v>
       </c>
       <c r="E137">
-        <v>182.0085402007356</v>
+        <v>207.7885407043914</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6304,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.7503240407440019</v>
+        <v>0.657232506038996</v>
       </c>
       <c r="I137">
         <v>5.884898003325697</v>
       </c>
       <c r="J137">
-        <v>6.501902740684335</v>
+        <v>6.851930853525978</v>
       </c>
       <c r="K137">
         <v>73.65122845238095</v>
@@ -6336,7 +6336,7 @@
         <v>172.6068015476199</v>
       </c>
       <c r="E138">
-        <v>285.7154977829047</v>
+        <v>303.5892262147403</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6345,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.6041212425892688</v>
+        <v>0.5685537780761972</v>
       </c>
       <c r="I138">
         <v>5.866617466732969</v>
       </c>
       <c r="J138">
-        <v>7.280579753984179</v>
+        <v>7.504017728042456</v>
       </c>
       <c r="K138">
         <v>79.99413934523831</v>
@@ -6377,7 +6377,7 @@
         <v>116.6964731547618</v>
       </c>
       <c r="E139">
-        <v>166.1880027984786</v>
+        <v>193.1078041625976</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.7021955327080336</v>
+        <v>0.6043073901689799</v>
       </c>
       <c r="I139">
         <v>5.003857497857754</v>
       </c>
       <c r="J139">
-        <v>5.547552920420199</v>
+        <v>5.843283783525982</v>
       </c>
       <c r="K139">
         <v>91.02804178571421</v>
@@ -6418,7 +6418,7 @@
         <v>108.2734285519249</v>
       </c>
       <c r="E140">
-        <v>98.88960706235895</v>
+        <v>130.872179082316</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6427,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1.094891887715244</v>
+        <v>0.8273219664495925</v>
       </c>
       <c r="I140">
         <v>4.11439707738977</v>
       </c>
       <c r="J140">
-        <v>4.025602176000887</v>
+        <v>4.328238935644349</v>
       </c>
       <c r="K140">
         <v>105.6797332142858</v>
@@ -6459,7 +6459,7 @@
         <v>122.1507930560042</v>
       </c>
       <c r="E141">
-        <v>133.4694479805433</v>
+        <v>162.7958832221837</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.9151966603908551</v>
+        <v>0.7503309705276324</v>
       </c>
       <c r="I141">
         <v>3.827190553689982</v>
       </c>
       <c r="J141">
-        <v>3.927093627446003</v>
+        <v>4.185940729197899</v>
       </c>
       <c r="K141">
         <v>113.2963631547619</v>
@@ -6500,7 +6500,7 @@
         <v>123.6243827774389</v>
       </c>
       <c r="E142">
-        <v>166.2915995849169</v>
+        <v>193.1138813626261</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.7434192892847246</v>
+        <v>0.6401631094830469</v>
       </c>
       <c r="I142">
         <v>3.739912814111165</v>
       </c>
       <c r="J142">
-        <v>4.108273090811054</v>
+        <v>4.339838772302323</v>
       </c>
       <c r="K142">
         <v>115.8301247619047</v>
@@ -6541,7 +6541,7 @@
         <v>129.6880426469891</v>
       </c>
       <c r="E143">
-        <v>192.0578112660709</v>
+        <v>216.9142005377153</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6550,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.6752552358691797</v>
+        <v>0.5978771437070575</v>
       </c>
       <c r="I143">
         <v>3.766965667694176</v>
       </c>
       <c r="J143">
-        <v>4.296248071542694</v>
+        <v>4.507184391429336</v>
       </c>
       <c r="K143">
         <v>117.8383565476187</v>
@@ -6582,7 +6582,7 @@
         <v>84.32030671766795</v>
       </c>
       <c r="E144">
-        <v>92.67043972006152</v>
+        <v>125.076557766996</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6591,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.9098943198325418</v>
+        <v>0.674149562660235</v>
       </c>
       <c r="I144">
         <v>3.525279724573007</v>
       </c>
       <c r="J144">
-        <v>3.59527592847718</v>
+        <v>3.866924924475888</v>
       </c>
       <c r="K144">
         <v>119.2940836309528</v>
@@ -6623,7 +6623,7 @@
         <v>82.22687806470627</v>
       </c>
       <c r="E145">
-        <v>115.2930256256359</v>
+        <v>145.9781577237503</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6632,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.7131990648914218</v>
+        <v>0.5632820645696375</v>
       </c>
       <c r="I145">
         <v>3.623731811483089</v>
       </c>
       <c r="J145">
-        <v>3.900069812318362</v>
+        <v>4.156509364090591</v>
       </c>
       <c r="K145">
         <v>119.6583439880952</v>
@@ -6664,7 +6664,7 @@
         <v>75.96008679920017</v>
       </c>
       <c r="E146">
-        <v>67.48333783002631</v>
+        <v>101.7977656078871</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1.12561247326747</v>
+        <v>0.7461861893097873</v>
       </c>
       <c r="I146">
         <v>3.318462914059969</v>
       </c>
       <c r="J146">
-        <v>3.248429073846859</v>
+        <v>3.531930586129255</v>
       </c>
       <c r="K146">
         <v>121.0379002976188</v>
@@ -6705,7 +6705,7 @@
         <v>86.58018950928711</v>
       </c>
       <c r="E147">
-        <v>89.99406326583036</v>
+        <v>122.5968324807174</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6714,13 +6714,13 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0.9620655670756956</v>
+        <v>0.7062188129771201</v>
       </c>
       <c r="I147">
         <v>3.390317174680583</v>
       </c>
       <c r="J147">
-        <v>3.418490466787742</v>
+        <v>3.687547674551447</v>
       </c>
       <c r="K147">
         <v>121.1741156680696</v>
@@ -6746,7 +6746,7 @@
         <v>79.98301409635837</v>
       </c>
       <c r="E148">
-        <v>63.31403178984952</v>
+        <v>97.94533314896319</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1.263274693386075</v>
+        <v>0.8166087298382428</v>
       </c>
       <c r="I148">
         <v>3.415419737982404</v>
       </c>
       <c r="J148">
-        <v>3.2777211678792</v>
+        <v>3.563802260910358</v>
       </c>
       <c r="K148">
         <v>121.054142348869</v>
@@ -6787,7 +6787,7 @@
         <v>80.1880599426579</v>
       </c>
       <c r="E149">
-        <v>56.3331559830972</v>
+        <v>91.49300286588731</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1.423461166754413</v>
+        <v>0.8764392623575765</v>
       </c>
       <c r="I149">
         <v>3.404275557750478</v>
       </c>
       <c r="J149">
-        <v>3.208161477705376</v>
+        <v>3.497214874760931</v>
       </c>
       <c r="K149">
         <v>121.6378954232895</v>
@@ -6828,22 +6828,22 @@
         <v>57.08574080213167</v>
       </c>
       <c r="E150">
-        <v>49.70793202882187</v>
+        <v>85.36950569851253</v>
       </c>
       <c r="F150">
-        <v>7.377808773309809</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>7.377808773309809</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>1.148423168540425</v>
+        <v>0.6686900707113539</v>
       </c>
       <c r="I150">
         <v>3.251465106185762</v>
       </c>
       <c r="J150">
-        <v>3.191071355006458</v>
+        <v>3.48299220482045</v>
       </c>
       <c r="K150">
         <v>122.161790404534</v>
@@ -6869,22 +6869,22 @@
         <v>50.62201356406728</v>
       </c>
       <c r="E151">
-        <v>50.91486314100595</v>
+        <v>86.48585350993255</v>
       </c>
       <c r="F151">
-        <v>-0.2928495769386714</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>7.084959196371138</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0.9942482497472763</v>
+        <v>0.5853213156791423</v>
       </c>
       <c r="I151">
         <v>3.208192538504918</v>
       </c>
       <c r="J151">
-        <v>3.210596092764639</v>
+        <v>3.502543946394703</v>
       </c>
       <c r="K151">
         <v>121.8402188152402</v>
@@ -6910,22 +6910,22 @@
         <v>60.43053255216147</v>
       </c>
       <c r="E152">
-        <v>53.45240056435526</v>
+        <v>88.82842994851022</v>
       </c>
       <c r="F152">
-        <v>6.978131987806208</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>14.06309118417735</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1.130548523810539</v>
+        <v>0.6803062103787074</v>
       </c>
       <c r="I152">
         <v>3.245513172676071</v>
       </c>
       <c r="J152">
-        <v>3.188508126323689</v>
+        <v>3.477498388808104</v>
       </c>
       <c r="K152">
         <v>122.4125307200019</v>
@@ -6951,22 +6951,22 @@
         <v>56.87601636168974</v>
       </c>
       <c r="E153">
-        <v>54.33073355399929</v>
+        <v>89.6378989653214</v>
       </c>
       <c r="F153">
-        <v>2.545282807690448</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>16.60837399186779</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>1.04684793745994</v>
+        <v>0.6345085841837236</v>
       </c>
       <c r="I153">
         <v>3.164422678988888</v>
       </c>
       <c r="J153">
-        <v>3.143728094774841</v>
+        <v>3.43079525515333</v>
       </c>
       <c r="K153">
         <v>122.9927009580976</v>
@@ -6992,22 +6992,22 @@
         <v>71.98636481406849</v>
       </c>
       <c r="E154">
-        <v>63.61286158929678</v>
+        <v>98.21269531918918</v>
       </c>
       <c r="F154">
-        <v>8.373503224771717</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>24.98187721663951</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>1.131632236242311</v>
+        <v>0.7329639470754197</v>
       </c>
       <c r="I154">
         <v>3.278347895298483</v>
       </c>
       <c r="J154">
-        <v>3.210532819639455</v>
+        <v>3.490748910706454</v>
       </c>
       <c r="K154">
         <v>123.4755420295259</v>
@@ -7033,22 +7033,22 @@
         <v>77.41301064740216</v>
       </c>
       <c r="E155">
-        <v>66.49048893819641</v>
+        <v>100.6564948255571</v>
       </c>
       <c r="F155">
-        <v>10.92252170920575</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>35.90439892584526</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>1.164271941500661</v>
+        <v>0.7690811286600323</v>
       </c>
       <c r="I155">
         <v>2.637638996388765</v>
       </c>
       <c r="J155">
-        <v>2.577947504885975</v>
+        <v>2.764664446669739</v>
       </c>
       <c r="K155">
         <v>182.9828914342874</v>
@@ -7074,22 +7074,22 @@
         <v>70.74451534978174</v>
       </c>
       <c r="E156">
-        <v>62.8028551234841</v>
+        <v>97.20266298808161</v>
       </c>
       <c r="F156">
-        <v>7.941660226297635</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>43.8460591521429</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>1.126453808679281</v>
+        <v>0.727804292341826</v>
       </c>
       <c r="I156">
         <v>2.497116635466115</v>
       </c>
       <c r="J156">
-        <v>2.456567434738068</v>
+        <v>2.632208884304098</v>
       </c>
       <c r="K156">
         <v>195.8524479819071</v>
@@ -7115,22 +7115,22 @@
         <v>70.49711933787978</v>
       </c>
       <c r="E157">
-        <v>63.38113558294029</v>
+        <v>97.72534386897914</v>
       </c>
       <c r="F157">
-        <v>7.115983754939492</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>50.96204290708239</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>1.112272897755635</v>
+        <v>0.721380110285369</v>
       </c>
       <c r="I157">
         <v>2.47486360687252</v>
       </c>
       <c r="J157">
-        <v>2.439118051236778</v>
+        <v>2.611638513667842</v>
       </c>
       <c r="K157">
         <v>199.0732450057164</v>
@@ -7156,22 +7156,22 @@
         <v>78.93807499263795</v>
       </c>
       <c r="E158">
-        <v>66.41493618265913</v>
+        <v>100.5303886174333</v>
       </c>
       <c r="F158">
-        <v>12.52313880997882</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>63.48518171706121</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>1.188559073150907</v>
+        <v>0.7852160533571142</v>
       </c>
       <c r="I158">
         <v>2.477051948399112</v>
       </c>
       <c r="J158">
-        <v>2.413981691353553</v>
+        <v>2.585797271052487</v>
       </c>
       <c r="K158">
         <v>198.5585503628587</v>
@@ -7197,22 +7197,22 @@
         <v>118.7566424926414</v>
       </c>
       <c r="E159">
-        <v>101.9416945636572</v>
+        <v>133.0107675103519</v>
       </c>
       <c r="F159">
-        <v>16.81494792898417</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>80.30012964604538</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>1.164946717836676</v>
+        <v>0.8928348036439896</v>
       </c>
       <c r="I159">
         <v>2.097827999970653</v>
       </c>
       <c r="J159">
-        <v>2.040678846368006</v>
+        <v>2.146273655797176</v>
       </c>
       <c r="K159">
         <v>294.2291682200025</v>
@@ -7238,22 +7238,22 @@
         <v>101.2461523140687</v>
       </c>
       <c r="E160">
-        <v>96.58208314769878</v>
+        <v>128.0185883865616</v>
       </c>
       <c r="F160">
-        <v>4.664069166369956</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>84.96419881241533</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>1.048291246309498</v>
+        <v>0.790870713308824</v>
       </c>
       <c r="I160">
         <v>2.036081067093312</v>
       </c>
       <c r="J160">
-        <v>2.020803611821702</v>
+        <v>2.123775884648492</v>
       </c>
       <c r="K160">
         <v>305.2909717914307</v>
@@ -7279,22 +7279,22 @@
         <v>121.2672990997805</v>
       </c>
       <c r="E161">
-        <v>109.6880964793952</v>
+        <v>140.1127883266354</v>
       </c>
       <c r="F161">
-        <v>11.57920262038533</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>96.54340143280066</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1.105564805954678</v>
+        <v>0.8654977218573248</v>
       </c>
       <c r="I161">
         <v>2.063743985586362</v>
       </c>
       <c r="J161">
-        <v>2.026342705697797</v>
+        <v>2.12461565700609</v>
       </c>
       <c r="K161">
         <v>309.5937533390496</v>
@@ -7320,22 +7320,22 @@
         <v>114.2066896298222</v>
       </c>
       <c r="E162">
-        <v>142.0142570077858</v>
+        <v>169.9803417507496</v>
       </c>
       <c r="F162">
-        <v>-27.80756737796358</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>68.73583405483708</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0.804191720156385</v>
+        <v>0.6718817508749862</v>
       </c>
       <c r="I162">
         <v>2.058151076898119</v>
       </c>
       <c r="J162">
-        <v>2.147865206906951</v>
+        <v>2.238090753369406</v>
       </c>
       <c r="K162">
         <v>309.9574991723831</v>
@@ -7361,22 +7361,22 @@
         <v>142.1872773446011</v>
       </c>
       <c r="E163">
-        <v>161.8506344512642</v>
+        <v>188.259759630769</v>
       </c>
       <c r="F163">
-        <v>-19.66335710666303</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>49.07247694817406</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.8785092367828562</v>
+        <v>0.7552717459295117</v>
       </c>
       <c r="I163">
         <v>2.05746946506264</v>
       </c>
       <c r="J163">
-        <v>2.118245493078747</v>
+        <v>2.199871520775035</v>
       </c>
       <c r="K163">
         <v>323.5380420295258</v>
@@ -7402,22 +7402,22 @@
         <v>158.3184572255542</v>
       </c>
       <c r="E164">
-        <v>166.2926213928575</v>
+        <v>192.1592683415491</v>
       </c>
       <c r="F164">
-        <v>-7.974164167303314</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>41.09831278087074</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0.952047396327557</v>
+        <v>0.8238918611209254</v>
       </c>
       <c r="I164">
         <v>1.983210157661925</v>
       </c>
       <c r="J164">
-        <v>2.00418347088591</v>
+        <v>2.072216844306239</v>
       </c>
       <c r="K164">
         <v>380.2052676247639</v>
@@ -7443,22 +7443,22 @@
         <v>211.3229274059634</v>
       </c>
       <c r="E165">
-        <v>230.9302317497307</v>
+        <v>251.6870449846581</v>
       </c>
       <c r="F165">
-        <v>-19.60730434376728</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>21.49100843710346</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0.9150942507821298</v>
+        <v>0.8396257638880253</v>
       </c>
       <c r="I165">
         <v>1.953064814876338</v>
       </c>
       <c r="J165">
-        <v>1.998187372974488</v>
+        <v>2.045955311631654</v>
       </c>
       <c r="K165">
         <v>434.5344140533352</v>
@@ -7484,22 +7484,22 @@
         <v>181.9529977622066</v>
       </c>
       <c r="E166">
-        <v>231.4633423856683</v>
+        <v>252.1365401488184</v>
       </c>
       <c r="F166">
-        <v>-49.51034462346166</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>-28.0193361863582</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0.7860985497177922</v>
+        <v>0.7216446995537125</v>
       </c>
       <c r="I166">
         <v>1.923730571134157</v>
       </c>
       <c r="J166">
-        <v>2.034626834458078</v>
+        <v>2.080931912726578</v>
       </c>
       <c r="K166">
         <v>446.4563831050374</v>
@@ -7525,22 +7525,22 @@
         <v>231.1352914517449</v>
       </c>
       <c r="E167">
-        <v>244.1862446363263</v>
+        <v>263.8958845112541</v>
       </c>
       <c r="F167">
-        <v>-13.05095318458143</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>-41.07028937093963</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0.9465532827042793</v>
+        <v>0.8758578856954017</v>
       </c>
       <c r="I167">
         <v>1.945191760808501</v>
       </c>
       <c r="J167">
-        <v>1.974489092528331</v>
+        <v>2.018734125770526</v>
       </c>
       <c r="K167">
         <v>445.4655908390499</v>
@@ -7566,22 +7566,22 @@
         <v>231.7321609215915</v>
       </c>
       <c r="E168">
-        <v>221.7841405524061</v>
+        <v>242.8486848067979</v>
       </c>
       <c r="F168">
-        <v>9.948020369185429</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>-31.1222690017542</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>1.044854516397825</v>
+        <v>0.9542244838836564</v>
       </c>
       <c r="I168">
         <v>2.539958453890706</v>
       </c>
       <c r="J168">
-        <v>2.521595653093601</v>
+        <v>2.560478165962528</v>
       </c>
       <c r="K168">
         <v>541.7485316702812</v>
@@ -7607,22 +7607,22 @@
         <v>381.8260223989217</v>
       </c>
       <c r="E169">
-        <v>349.463588642984</v>
+        <v>360.3605340371982</v>
       </c>
       <c r="F169">
-        <v>32.36243375593773</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1.240164754183525</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>1.092606024798193</v>
+        <v>1.059566701495419</v>
       </c>
       <c r="I169">
         <v>2.10354247371688</v>
       </c>
       <c r="J169">
-        <v>2.055208748501212</v>
+        <v>2.071483481370382</v>
       </c>
       <c r="K169">
         <v>669.5621662004041</v>
@@ -7648,22 +7648,22 @@
         <v>301.4869277976214</v>
       </c>
       <c r="E170">
-        <v>255.6438156493752</v>
+        <v>273.1618830323712</v>
       </c>
       <c r="F170">
-        <v>45.84311214824621</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>47.08327690242973</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>1.179324158622017</v>
+        <v>1.103693254896378</v>
       </c>
       <c r="I170">
         <v>1.843868676257804</v>
       </c>
       <c r="J170">
-        <v>1.787331059052079</v>
+        <v>1.808935826736286</v>
       </c>
       <c r="K170">
         <v>810.8426639459341</v>
@@ -7689,22 +7689,22 @@
         <v>253.6047397619021</v>
       </c>
       <c r="E171">
-        <v>224.9268416784039</v>
+        <v>245.052043552628</v>
       </c>
       <c r="F171">
-        <v>28.67789808349818</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>75.76117498592791</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>1.127498780801365</v>
+        <v>1.034901550239214</v>
       </c>
       <c r="I171">
         <v>1.880971877249785</v>
       </c>
       <c r="J171">
-        <v>1.841983097816681</v>
+        <v>1.869344135736414</v>
       </c>
       <c r="K171">
         <v>735.542340654762</v>
@@ -7730,22 +7730,22 @@
         <v>450.2747246428588</v>
       </c>
       <c r="E172">
-        <v>456.4086690548559</v>
+        <v>457.4718526158198</v>
       </c>
       <c r="F172">
-        <v>-6.133944411997106</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>69.6272305739308</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0.9865604121308663</v>
+        <v>0.9842676048115139</v>
       </c>
       <c r="I172">
         <v>1.502933338082155</v>
       </c>
       <c r="J172">
-        <v>1.508308879780382</v>
+        <v>1.509240611009255</v>
       </c>
       <c r="K172">
         <v>1141.083960714286</v>
@@ -7771,22 +7771,22 @@
         <v>463.5903273809508</v>
       </c>
       <c r="E173">
-        <v>434.7167409624519</v>
+        <v>436.9246213584405</v>
       </c>
       <c r="F173">
-        <v>28.87358641849897</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>98.50081699242978</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>1.066419311008298</v>
+        <v>1.061030449461978</v>
       </c>
       <c r="I173">
         <v>1.607382705148449</v>
       </c>
       <c r="J173">
-        <v>1.584835596795158</v>
+        <v>1.586559709546443</v>
       </c>
       <c r="K173">
         <v>1280.58933172619</v>
@@ -7812,22 +7812,22 @@
         <v>619.1160964880943</v>
       </c>
       <c r="E174">
-        <v>589.7704835757568</v>
+        <v>577.3750598638536</v>
       </c>
       <c r="F174">
-        <v>29.34561291233751</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>127.8464299047673</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>1.049757683250637</v>
+        <v>1.072294491961747</v>
       </c>
       <c r="I174">
         <v>1.311289847109123</v>
       </c>
       <c r="J174">
-        <v>1.297043830877011</v>
+        <v>1.291026392838446</v>
       </c>
       <c r="K174">
         <v>2059.917132916666</v>
@@ -7853,22 +7853,22 @@
         <v>496.9826833577527</v>
       </c>
       <c r="E175">
-        <v>535.3317983283404</v>
+        <v>525.4087761151042</v>
       </c>
       <c r="F175">
-        <v>-38.34911497058766</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>89.49731493417963</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>0.9283638388559414</v>
+        <v>0.9458971870102071</v>
       </c>
       <c r="I175">
         <v>1.091057492416464</v>
       </c>
       <c r="J175">
-        <v>1.106270610319927</v>
+        <v>1.102334141199207</v>
       </c>
       <c r="K175">
         <v>2520.792595833334</v>
@@ -7894,22 +7894,22 @@
         <v>327.379541440789</v>
       </c>
       <c r="E176">
-        <v>379.0633018482832</v>
+        <v>386.7090238020619</v>
       </c>
       <c r="F176">
-        <v>-51.68376040749428</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>37.81355452668535</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0.8636540119935423</v>
+        <v>0.8465784900027549</v>
       </c>
       <c r="I176">
         <v>1.661042028360881</v>
       </c>
       <c r="J176">
-        <v>1.715643654561175</v>
+        <v>1.723721024490533</v>
       </c>
       <c r="K176">
         <v>946.5608261904761</v>
@@ -7935,22 +7935,22 @@
         <v>302.3101066583081</v>
       </c>
       <c r="E177">
-        <v>262.0185020398065</v>
+        <v>279.7157433547932</v>
       </c>
       <c r="F177">
-        <v>40.29160461850159</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>78.10515914518695</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1.153773891174984</v>
+        <v>1.080776158797956</v>
       </c>
       <c r="I177">
         <v>2.061050094014197</v>
       </c>
       <c r="J177">
-        <v>1.996809887393417</v>
+        <v>2.025026049282649</v>
       </c>
       <c r="K177">
         <v>627.2022886904759</v>
@@ -7976,22 +7976,22 @@
         <v>202.9633033249695</v>
       </c>
       <c r="E178">
-        <v>211.5022669207807</v>
+        <v>233.0233593228675</v>
       </c>
       <c r="F178">
-        <v>-8.538963595811225</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>69.56619554937572</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>0.9596270823943011</v>
+        <v>0.8709998169915317</v>
       </c>
       <c r="I178">
         <v>4.705763220732165</v>
       </c>
       <c r="J178">
-        <v>4.719281163881116</v>
+        <v>4.753350978130877</v>
       </c>
       <c r="K178">
         <v>631.6762470238091</v>
@@ -8017,22 +8017,22 @@
         <v>235.9568865392589</v>
       </c>
       <c r="E179">
-        <v>230.2034095792068</v>
+        <v>250.2962016023472</v>
       </c>
       <c r="F179">
-        <v>5.753476960052154</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>75.31967250942787</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>1.024993013659394</v>
+        <v>0.9427106165763173</v>
       </c>
       <c r="I179">
         <v>1.980812786102582</v>
       </c>
       <c r="J179">
-        <v>1.971731254776302</v>
+        <v>2.003446567352946</v>
       </c>
       <c r="K179">
         <v>633.5359922619057</v>
@@ -8058,22 +8058,22 @@
         <v>298.2458463011654</v>
       </c>
       <c r="E180">
-        <v>307.5624108669494</v>
+        <v>321.7707559687768</v>
       </c>
       <c r="F180">
-        <v>-9.316564565784006</v>
+        <v>-23.52490966761133</v>
       </c>
       <c r="G180">
-        <v>66.00310794364387</v>
+        <v>-23.52490966761133</v>
       </c>
       <c r="H180">
-        <v>0.9697083771078439</v>
+        <v>0.9268892239856189</v>
       </c>
       <c r="I180">
         <v>2.077146247084362</v>
       </c>
       <c r="J180">
-        <v>2.091826542762111</v>
+        <v>2.114214914110102</v>
       </c>
       <c r="K180">
         <v>634.6305803571427</v>
@@ -8099,22 +8099,22 @@
         <v>282.275992491638</v>
       </c>
       <c r="E181">
-        <v>298.6857871160262</v>
+        <v>313.5510553702226</v>
       </c>
       <c r="F181">
-        <v>-16.40979462438816</v>
+        <v>-31.27506287858455</v>
       </c>
       <c r="G181">
-        <v>49.59331331925571</v>
+        <v>-54.79997254619587</v>
       </c>
       <c r="H181">
-        <v>0.9450600084361775</v>
+        <v>0.9002552779110987</v>
       </c>
       <c r="I181">
         <v>2.041102800120592</v>
       </c>
       <c r="J181">
-        <v>2.066760501966197</v>
+        <v>2.090003243843921</v>
       </c>
       <c r="K181">
         <v>639.5660345238095</v>
@@ -8140,22 +8140,22 @@
         <v>299.9909151702128</v>
       </c>
       <c r="E182">
-        <v>265.5621181542676</v>
+        <v>282.9134190592902</v>
       </c>
       <c r="F182">
-        <v>34.42879701594512</v>
+        <v>17.07749611092254</v>
       </c>
       <c r="G182">
-        <v>84.02211033520084</v>
+        <v>-37.72247643527334</v>
       </c>
       <c r="H182">
-        <v>1.129644985720234</v>
+        <v>1.060362976658041</v>
       </c>
       <c r="I182">
         <v>2.061193782710517</v>
       </c>
       <c r="J182">
-        <v>2.008094642469668</v>
+        <v>2.034855355592762</v>
       </c>
       <c r="K182">
         <v>648.3870898809527</v>
@@ -8181,22 +8181,22 @@
         <v>278.3579601325729</v>
       </c>
       <c r="E183">
-        <v>239.0292097573624</v>
+        <v>258.3747921644596</v>
       </c>
       <c r="F183">
-        <v>39.32875037521057</v>
+        <v>19.98316796811338</v>
       </c>
       <c r="G183">
-        <v>123.3508607104114</v>
+        <v>-17.73930846715996</v>
       </c>
       <c r="H183">
-        <v>1.164535331958521</v>
+        <v>1.077341786327955</v>
       </c>
       <c r="I183">
         <v>2.039712075117801</v>
       </c>
       <c r="J183">
-        <v>1.979635996163622</v>
+        <v>2.009187068216903</v>
       </c>
       <c r="K183">
         <v>654.649089285714</v>
@@ -8222,22 +8222,22 @@
         <v>315.4869377976194</v>
       </c>
       <c r="E184">
-        <v>291.878890927993</v>
+        <v>307.1247574657344</v>
       </c>
       <c r="F184">
-        <v>23.60804686962638</v>
+        <v>8.362180331884986</v>
       </c>
       <c r="G184">
-        <v>146.9589075800378</v>
+        <v>-9.377128135274972</v>
       </c>
       <c r="H184">
-        <v>1.080883022388387</v>
+        <v>1.027227307889101</v>
       </c>
       <c r="I184">
         <v>2.059845670343221</v>
       </c>
       <c r="J184">
-        <v>2.02499590992977</v>
+        <v>2.047501575013793</v>
       </c>
       <c r="K184">
         <v>677.4235056294403</v>
@@ -8263,22 +8263,22 @@
         <v>338.9796124590627</v>
       </c>
       <c r="E185">
-        <v>308.23280095434</v>
+        <v>322.1461339575225</v>
       </c>
       <c r="F185">
-        <v>30.74681150472276</v>
+        <v>16.83347850154024</v>
       </c>
       <c r="G185">
-        <v>177.7057190847605</v>
+        <v>7.456350366265269</v>
       </c>
       <c r="H185">
-        <v>1.099751912870809</v>
+        <v>1.05225416892248</v>
       </c>
       <c r="I185">
         <v>2.137286426616849</v>
       </c>
       <c r="J185">
-        <v>2.09349707734766</v>
+        <v>2.113312328704092</v>
       </c>
       <c r="K185">
         <v>702.1527384595411</v>
@@ -8304,22 +8304,22 @@
         <v>389.880976588555</v>
       </c>
       <c r="E186">
-        <v>357.8166818850235</v>
+        <v>367.1806498305148</v>
       </c>
       <c r="F186">
-        <v>32.06429470353152</v>
+        <v>22.70032675804026</v>
       </c>
       <c r="G186">
-        <v>209.7700137882921</v>
+        <v>30.15667712430553</v>
       </c>
       <c r="H186">
-        <v>1.089610955349015</v>
+        <v>1.061823319852281</v>
       </c>
       <c r="I186">
         <v>1.975833829529693</v>
       </c>
       <c r="J186">
-        <v>1.940906021992219</v>
+        <v>1.951106242306161</v>
       </c>
       <c r="K186">
         <v>918.0162444817094</v>
@@ -8345,22 +8345,22 @@
         <v>552.5781744642875</v>
       </c>
       <c r="E187">
-        <v>451.9771115503769</v>
+        <v>452.400674072426</v>
       </c>
       <c r="F187">
-        <v>100.6010629139106</v>
+        <v>100.1775003918615</v>
       </c>
       <c r="G187">
-        <v>310.3710767022027</v>
+        <v>130.334177516167</v>
       </c>
       <c r="H187">
-        <v>1.22257999430287</v>
+        <v>1.221435347321838</v>
       </c>
       <c r="I187">
         <v>1.790608305342029</v>
       </c>
       <c r="J187">
-        <v>1.719323240426119</v>
+        <v>1.719623373257777</v>
       </c>
       <c r="K187">
         <v>1411.250211142857</v>
@@ -8386,22 +8386,22 @@
         <v>447.4795573809499</v>
       </c>
       <c r="E188">
-        <v>385.5713166195375</v>
+        <v>392.4722312726725</v>
       </c>
       <c r="F188">
-        <v>61.9082407614124</v>
+        <v>55.00732610827737</v>
       </c>
       <c r="G188">
-        <v>372.2793174636151</v>
+        <v>185.3415036244444</v>
       </c>
       <c r="H188">
-        <v>1.160562360561951</v>
+        <v>1.140155969582624</v>
       </c>
       <c r="I188">
         <v>1.939893976491091</v>
       </c>
       <c r="J188">
-        <v>1.878945993909263</v>
+        <v>1.885739868535726</v>
       </c>
       <c r="K188">
         <v>1015.755372678571</v>
@@ -8427,22 +8427,22 @@
         <v>411.4920686309543</v>
       </c>
       <c r="E189">
-        <v>304.5634848439292</v>
+        <v>317.7716428534284</v>
       </c>
       <c r="F189">
-        <v>106.9285837870252</v>
+        <v>93.72042577752597</v>
       </c>
       <c r="G189">
-        <v>479.2079012506402</v>
+        <v>279.0619294019704</v>
       </c>
       <c r="H189">
-        <v>1.351087996782739</v>
+        <v>1.294930110616429</v>
       </c>
       <c r="I189">
         <v>1.93460898753739</v>
       </c>
       <c r="J189">
-        <v>1.824873922063345</v>
+        <v>1.838428745597254</v>
       </c>
       <c r="K189">
         <v>974.4249326785715</v>
@@ -8468,22 +8468,22 @@
         <v>263.0811769999971</v>
       </c>
       <c r="E190">
-        <v>161.6670432185092</v>
+        <v>186.561416301864</v>
       </c>
       <c r="F190">
-        <v>101.4141337814879</v>
+        <v>76.5197606981331</v>
       </c>
       <c r="G190">
-        <v>580.6220350321282</v>
+        <v>355.5816901001035</v>
       </c>
       <c r="H190">
-        <v>1.627302459193347</v>
+        <v>1.41015855376184</v>
       </c>
       <c r="I190">
         <v>2.025751878444774</v>
       </c>
       <c r="J190">
-        <v>1.889896776137688</v>
+        <v>1.923245457194285</v>
       </c>
       <c r="K190">
         <v>746.487486000004</v>

--- a/All Teraco Data/Operations JB3/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations JB3/Outputs/Data Analysis Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="28">
   <si>
     <t>Total Incoming</t>
   </si>
@@ -496,7 +496,7 @@
         <v>44926</v>
       </c>
       <c r="B3">
-        <v>2610705.96677</v>
+        <v>3589943.59942375</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>853.945309999981</v>
+        <v>1225.039051249973</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2609852.02146</v>
+        <v>3588718.5603725</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>22.01633928581357</v>
+        <v>21.77340251562814</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>50.62647770507497</v>
+        <v>50.36908142528696</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>27.35718300911148</v>
+        <v>27.8575160590849</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3264,31 +3264,31 @@
         <v>25</v>
       </c>
       <c r="D63">
-        <v>292.6836995833354</v>
+        <v>292.6836991071468</v>
       </c>
       <c r="E63">
-        <v>226.4608465464075</v>
+        <v>234.2945512473537</v>
       </c>
       <c r="F63">
-        <v>66.22285303692794</v>
+        <v>58.38914785979313</v>
       </c>
       <c r="G63">
-        <v>340.5261470029571</v>
+        <v>332.6924418258223</v>
       </c>
       <c r="H63">
-        <v>1.292425176567364</v>
+        <v>1.24921257258838</v>
       </c>
       <c r="I63">
-        <v>1.93460898753739</v>
+        <v>1.934608989013634</v>
       </c>
       <c r="J63">
-        <v>1.838428745597254</v>
+        <v>1.852735128586911</v>
       </c>
       <c r="K63">
-        <v>725.7554875000001</v>
+        <v>725.7554863095244</v>
       </c>
       <c r="L63">
-        <v>1220.938616071429</v>
+        <v>1220.938616019345</v>
       </c>
       <c r="M63">
         <v>11.9</v>
@@ -3305,162 +3305,162 @@
         <v>25</v>
       </c>
       <c r="D64">
-        <v>206.0271769999992</v>
+        <v>306.7039836309518</v>
       </c>
       <c r="E64">
-        <v>174.1740644255438</v>
+        <v>229.4016508389175</v>
       </c>
       <c r="F64">
-        <v>31.85311257445537</v>
+        <v>77.30233279203426</v>
       </c>
       <c r="G64">
-        <v>372.3792595774125</v>
+        <v>409.9947746178566</v>
       </c>
       <c r="H64">
-        <v>1.182880916739886</v>
+        <v>1.336973742383026</v>
       </c>
       <c r="I64">
-        <v>2.025751878444774</v>
+        <v>2.128445514719377</v>
       </c>
       <c r="J64">
-        <v>1.923245457194285</v>
+        <v>2.002241131352442</v>
       </c>
       <c r="K64">
-        <v>730.8203000000037</v>
+        <v>735.5755208333334</v>
       </c>
       <c r="L64">
-        <v>1147.13125</v>
+        <v>1259.555129278274</v>
+      </c>
+      <c r="M64">
+        <v>11.1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>44199</v>
+        <v>44640</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>290.5596488095221</v>
       </c>
       <c r="E65">
-        <v>94.36188406375523</v>
+        <v>215.9413017914295</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>74.61834701809261</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>484.6131216359492</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1.345549213601407</v>
       </c>
       <c r="I65">
-        <v>625.3681526825983</v>
+        <v>2.062637451452935</v>
       </c>
       <c r="J65">
-        <v>723.7776627788096</v>
+        <v>1.953344431269582</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>766.2397693452381</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1267.981515066964</v>
       </c>
       <c r="M65">
-        <v>25.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>44206</v>
+        <v>44647</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>245.3668020833339</v>
       </c>
       <c r="E66">
-        <v>75.16428238264905</v>
+        <v>209.857020650904</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>35.50978143242995</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>520.1229030683792</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.169209404204305</v>
       </c>
       <c r="I66">
-        <v>666.8355386964591</v>
+        <v>1.935731383871939</v>
       </c>
       <c r="J66">
-        <v>650.3385135802446</v>
+        <v>1.8746605785305</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>799.8956473214286</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1254.981398809524</v>
       </c>
       <c r="M66">
-        <v>18.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>44213</v>
+        <v>44654</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>299.0846087239576</v>
       </c>
       <c r="E67">
-        <v>78.04223425149681</v>
+        <v>184.2772265314123</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>114.8073821925453</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>634.9302852609244</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1.623014489383879</v>
       </c>
       <c r="I67">
-        <v>549.0837530234937</v>
+        <v>1.893707754560978</v>
       </c>
       <c r="J67">
-        <v>642.4412338026199</v>
+        <v>1.730901369239886</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>808.4694010416666</v>
       </c>
       <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>17.8</v>
+        <v>1314.401692708333</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" s="3">
-        <v>44220</v>
+        <v>44199</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>99.40913348830405</v>
+        <v>94.36188406375523</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>567.9820122448994</v>
+        <v>625.3681526825983</v>
       </c>
       <c r="J68">
-        <v>705.1761556582318</v>
+        <v>723.7776627788096</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3493,15 +3493,15 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>44227</v>
+        <v>44206</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>24.52558321664025</v>
+        <v>75.16428238264905</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>475.3234972553736</v>
+        <v>666.8355386964591</v>
       </c>
       <c r="J69">
-        <v>478.491711775854</v>
+        <v>650.3385135802446</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3534,15 +3534,15 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>5.6</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>44234</v>
+        <v>44213</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>31.14061238886845</v>
+        <v>78.04223425149681</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>225.7679548028301</v>
+        <v>549.0837530234937</v>
       </c>
       <c r="J70">
-        <v>244.4322779583368</v>
+        <v>642.4412338026199</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3575,15 +3575,15 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>6.1</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>44241</v>
+        <v>44220</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>65.94584280274606</v>
+        <v>99.40913348830405</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>32.21712068844382</v>
+        <v>567.9820122448994</v>
       </c>
       <c r="J71">
-        <v>37.6607896292024</v>
+        <v>705.1761556582318</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3616,15 +3616,15 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>15.1</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3">
-        <v>44248</v>
+        <v>44227</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>84.7756002604375</v>
+        <v>24.52558321664025</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>11.73508143796019</v>
+        <v>475.3234972553736</v>
       </c>
       <c r="J72">
-        <v>15.66271771316647</v>
+        <v>478.491711775854</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3657,15 +3657,15 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>22.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3">
-        <v>44255</v>
+        <v>44234</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>48.14798256118755</v>
+        <v>31.14061238886845</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>6.896657526143269</v>
+        <v>225.7679548028301</v>
       </c>
       <c r="J73">
-        <v>7.952375391595656</v>
+        <v>244.4322779583368</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3698,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>44262</v>
+        <v>44241</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>58.51428945720168</v>
+        <v>65.94584280274606</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>5.884898003325697</v>
+        <v>32.21712068844382</v>
       </c>
       <c r="J74">
-        <v>6.851930853525978</v>
+        <v>37.6607896292024</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3739,24 +3739,24 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>12.3</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3">
-        <v>44269</v>
+        <v>44248</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75">
-        <v>0.00156547619047619</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>99.59137221684126</v>
+        <v>84.7756002604375</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1.571899408181327E-05</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>5.866617466732969</v>
+        <v>11.73508143796019</v>
       </c>
       <c r="J75">
-        <v>7.504017728042456</v>
+        <v>15.66271771316647</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3780,15 +3780,15 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3">
-        <v>44276</v>
+        <v>44255</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>50.92889822393106</v>
+        <v>48.14798256118755</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3809,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>5.003857497857754</v>
+        <v>6.896657526143269</v>
       </c>
       <c r="J76">
-        <v>5.843283783525982</v>
+        <v>7.952375391595656</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3821,24 +3821,24 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" s="3">
-        <v>44283</v>
+        <v>44262</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
       </c>
       <c r="D77">
-        <v>8.004002001000503E-05</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>22.92330244755313</v>
+        <v>58.51428945720168</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3847,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3.491644373367705E-06</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>4.11439707738977</v>
+        <v>5.884898003325697</v>
       </c>
       <c r="J77">
-        <v>4.328238935644349</v>
+        <v>6.851930853525978</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3862,24 +3862,24 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>4.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3">
-        <v>44290</v>
+        <v>44269</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
       </c>
       <c r="D78">
-        <v>0.0001404369587147776</v>
+        <v>0.00156547619047619</v>
       </c>
       <c r="E78">
-        <v>36.22436289403703</v>
+        <v>99.59137221684126</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>3.876864836120976E-06</v>
+        <v>1.571899408181327E-05</v>
       </c>
       <c r="I78">
-        <v>3.827190553689982</v>
+        <v>5.866617466732969</v>
       </c>
       <c r="J78">
-        <v>4.185940729197899</v>
+        <v>7.504017728042456</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3903,24 +3903,24 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>8.199999999999999</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" s="3">
-        <v>44297</v>
+        <v>44276</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
       <c r="D79">
-        <v>0.000272836961692117</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>49.1869799875232</v>
+        <v>50.92889822393106</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3929,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5.546934610771488E-06</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>3.739912814111165</v>
+        <v>5.003857497857754</v>
       </c>
       <c r="J79">
-        <v>4.339838772302323</v>
+        <v>5.843283783525982</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3944,24 +3944,24 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>11.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B80" s="3">
-        <v>44304</v>
+        <v>44283</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80">
-        <v>0.0003593136553665002</v>
+        <v>8.004002001000503E-05</v>
       </c>
       <c r="E80">
-        <v>59.36158120806312</v>
+        <v>22.92330244755313</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>6.052966380849948E-06</v>
+        <v>3.491644373367705E-06</v>
       </c>
       <c r="I80">
-        <v>3.766965667694176</v>
+        <v>4.11439707738977</v>
       </c>
       <c r="J80">
-        <v>4.507184391429336</v>
+        <v>4.328238935644349</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3985,24 +3985,24 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>16.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" s="3">
-        <v>44311</v>
+        <v>44290</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81">
-        <v>1.481290626271959E-05</v>
+        <v>0.0001404369587147776</v>
       </c>
       <c r="E81">
-        <v>19.45366639514292</v>
+        <v>36.22436289403703</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>7.614454757185509E-07</v>
+        <v>3.876864836120976E-06</v>
       </c>
       <c r="I81">
-        <v>3.525279724573007</v>
+        <v>3.827190553689982</v>
       </c>
       <c r="J81">
-        <v>3.866924924475888</v>
+        <v>4.185940729197899</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4026,24 +4026,24 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82" s="3">
-        <v>44318</v>
+        <v>44297</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
       </c>
       <c r="D82">
-        <v>1.47908960008132E-05</v>
+        <v>0.000272836961692117</v>
       </c>
       <c r="E82">
-        <v>28.48750050977443</v>
+        <v>49.1869799875232</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5.19206519916981E-07</v>
+        <v>5.546934610771488E-06</v>
       </c>
       <c r="I82">
-        <v>3.623731811483089</v>
+        <v>3.739912814111165</v>
       </c>
       <c r="J82">
-        <v>4.156509364090591</v>
+        <v>4.339838772302323</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4067,24 +4067,24 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B83" s="3">
-        <v>44325</v>
+        <v>44304</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83">
-        <v>1.483491652462565E-05</v>
+        <v>0.0003593136553665002</v>
       </c>
       <c r="E83">
-        <v>9.241197386855021</v>
+        <v>59.36158120806312</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1.605302419546553E-06</v>
+        <v>6.052966380849948E-06</v>
       </c>
       <c r="I83">
-        <v>3.318462914059969</v>
+        <v>3.766965667694176</v>
       </c>
       <c r="J83">
-        <v>3.531930586129255</v>
+        <v>4.507184391429336</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4108,24 +4108,24 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B84" s="3">
-        <v>44332</v>
+        <v>44311</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84">
-        <v>8.950928686108236E-05</v>
+        <v>1.481290626271959E-05</v>
       </c>
       <c r="E84">
-        <v>18.24663200424764</v>
+        <v>19.45366639514292</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4134,39 +4134,39 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>4.905523761330062E-06</v>
+        <v>7.614454757185509E-07</v>
       </c>
       <c r="I84">
-        <v>3.390317174680583</v>
+        <v>3.525279724573007</v>
       </c>
       <c r="J84">
-        <v>3.687547674551447</v>
+        <v>3.866924924475888</v>
       </c>
       <c r="K84">
-        <v>7.929974421090132E-06</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B85" s="3">
-        <v>44339</v>
+        <v>44318</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85">
-        <v>7.719159547924422E-05</v>
+        <v>1.47908960008132E-05</v>
       </c>
       <c r="E85">
-        <v>7.570283385078511</v>
+        <v>28.48750050977443</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4175,39 +4175,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1.0196658639146E-05</v>
+        <v>5.19206519916981E-07</v>
       </c>
       <c r="I85">
-        <v>3.415419737982404</v>
+        <v>3.623731811483089</v>
       </c>
       <c r="J85">
-        <v>3.563802260910358</v>
+        <v>4.156509364090591</v>
       </c>
       <c r="K85">
-        <v>1.258696411649448E-05</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86" s="3">
-        <v>44346</v>
+        <v>44325</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86">
-        <v>3.672837262653653E-05</v>
+        <v>1.483491652462565E-05</v>
       </c>
       <c r="E86">
-        <v>4.732566460759774</v>
+        <v>9.241197386855021</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4216,39 +4216,39 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>7.760772707804741E-06</v>
+        <v>1.605302419546553E-06</v>
       </c>
       <c r="I86">
-        <v>3.404275557750478</v>
+        <v>3.318462914059969</v>
       </c>
       <c r="J86">
-        <v>3.497214874760931</v>
+        <v>3.531930586129255</v>
       </c>
       <c r="K86">
-        <v>1.506614641653134E-05</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B87" s="3">
-        <v>44353</v>
+        <v>44332</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87">
-        <v>2.365927273108898E-05</v>
+        <v>8.950928686108236E-05</v>
       </c>
       <c r="E87">
-        <v>2.041585439337596</v>
+        <v>18.24663200424764</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4257,39 +4257,39 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1.158867626855987E-05</v>
+        <v>4.905523761330062E-06</v>
       </c>
       <c r="I87">
-        <v>3.251465106185762</v>
+        <v>3.390317174680583</v>
       </c>
       <c r="J87">
-        <v>3.48299220482045</v>
+        <v>3.687547674551447</v>
       </c>
       <c r="K87">
-        <v>7.071200822105277E-06</v>
+        <v>7.929974421090132E-06</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3">
-        <v>44360</v>
+        <v>44339</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88">
-        <v>1.665930651729589E-05</v>
+        <v>7.719159547924422E-05</v>
       </c>
       <c r="E88">
-        <v>2.548066367279379</v>
+        <v>7.570283385078511</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4298,39 +4298,39 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>6.538019076435345E-06</v>
+        <v>1.0196658639146E-05</v>
       </c>
       <c r="I88">
-        <v>3.208192538504918</v>
+        <v>3.415419737982404</v>
       </c>
       <c r="J88">
-        <v>3.502543946394703</v>
+        <v>3.563802260910358</v>
       </c>
       <c r="K88">
-        <v>2.743811583234558E-06</v>
+        <v>1.258696411649448E-05</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3">
-        <v>44367</v>
+        <v>44346</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89">
-        <v>1.665930651729556E-05</v>
+        <v>3.672837262653653E-05</v>
       </c>
       <c r="E89">
-        <v>3.523161901790298</v>
+        <v>4.732566460759774</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4339,39 +4339,39 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>4.728510066151123E-06</v>
+        <v>7.760772707804741E-06</v>
       </c>
       <c r="I89">
-        <v>3.245513172676071</v>
+        <v>3.404275557750478</v>
       </c>
       <c r="J89">
-        <v>3.477498388808104</v>
+        <v>3.497214874760931</v>
       </c>
       <c r="K89">
-        <v>2.743811583234558E-06</v>
+        <v>1.506614641653134E-05</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" s="3">
-        <v>44374</v>
+        <v>44353</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90">
-        <v>1.665930651729523E-05</v>
+        <v>2.365927273108898E-05</v>
       </c>
       <c r="E90">
-        <v>3.833204413977022</v>
+        <v>2.041585439337596</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4380,39 +4380,39 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>4.346052210664885E-06</v>
+        <v>1.158867626855987E-05</v>
       </c>
       <c r="I90">
-        <v>3.164422678988888</v>
+        <v>3.251465106185762</v>
       </c>
       <c r="J90">
-        <v>3.43079525515333</v>
+        <v>3.48299220482045</v>
       </c>
       <c r="K90">
-        <v>2.74381158323456E-06</v>
+        <v>7.071200822105277E-06</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3">
-        <v>44381</v>
+        <v>44360</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <v>1.665930651729622E-05</v>
+        <v>1.665930651729589E-05</v>
       </c>
       <c r="E91">
-        <v>7.515846772469716</v>
+        <v>2.548066367279379</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2.216557497994594E-06</v>
+        <v>6.538019076435345E-06</v>
       </c>
       <c r="I91">
-        <v>3.278347895298483</v>
+        <v>3.208192538504918</v>
       </c>
       <c r="J91">
-        <v>3.490748910706454</v>
+        <v>3.502543946394703</v>
       </c>
       <c r="K91">
         <v>2.743811583234558E-06</v>
@@ -4436,15 +4436,15 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92" s="3">
-        <v>44388</v>
+        <v>44367</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
@@ -4453,7 +4453,7 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E92">
-        <v>4.389387546525726</v>
+        <v>3.523161901790298</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4462,39 +4462,39 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>3.795360136400277E-06</v>
+        <v>4.728510066151123E-06</v>
       </c>
       <c r="I92">
-        <v>2.637638996388765</v>
+        <v>3.245513172676071</v>
       </c>
       <c r="J92">
-        <v>2.764664446669739</v>
+        <v>3.477498388808104</v>
       </c>
       <c r="K92">
-        <v>2.743811583234556E-06</v>
+        <v>2.743811583234558E-06</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B93" s="3">
-        <v>44395</v>
+        <v>44374</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="D93">
-        <v>1.665930651729556E-05</v>
+        <v>1.665930651729523E-05</v>
       </c>
       <c r="E93">
-        <v>1.987149761262175</v>
+        <v>3.833204413977022</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4503,39 +4503,39 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>8.38351836487356E-06</v>
+        <v>4.346052210664885E-06</v>
       </c>
       <c r="I93">
-        <v>2.497116635466115</v>
+        <v>3.164422678988888</v>
       </c>
       <c r="J93">
-        <v>2.632208884304098</v>
+        <v>3.43079525515333</v>
       </c>
       <c r="K93">
-        <v>2.743811583234558E-06</v>
+        <v>2.74381158323456E-06</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94" s="3">
-        <v>44402</v>
+        <v>44381</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
       </c>
       <c r="D94">
-        <v>1.665930651729556E-05</v>
+        <v>1.665930651729622E-05</v>
       </c>
       <c r="E94">
-        <v>1.987149761262175</v>
+        <v>7.515846772469716</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>8.38351836487356E-06</v>
+        <v>2.216557497994594E-06</v>
       </c>
       <c r="I94">
-        <v>2.47486360687252</v>
+        <v>3.278347895298483</v>
       </c>
       <c r="J94">
-        <v>2.611638513667842</v>
+        <v>3.490748910706454</v>
       </c>
       <c r="K94">
         <v>2.743811583234558E-06</v>
@@ -4559,15 +4559,15 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B95" s="3">
-        <v>44409</v>
+        <v>44388</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
@@ -4576,7 +4576,7 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E95">
-        <v>3.239153493680321</v>
+        <v>4.389387546525726</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4585,30 +4585,30 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>5.143104996351154E-06</v>
+        <v>3.795360136400277E-06</v>
       </c>
       <c r="I95">
-        <v>2.477051948399112</v>
+        <v>2.637638996388765</v>
       </c>
       <c r="J95">
-        <v>2.585797271052487</v>
+        <v>2.764664446669739</v>
       </c>
       <c r="K95">
-        <v>2.743811583234558E-06</v>
+        <v>2.743811583234556E-06</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3">
-        <v>44416</v>
+        <v>44395</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
@@ -4617,7 +4617,7 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E96">
-        <v>10.58787105352596</v>
+        <v>1.987149761262175</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4626,30 +4626,30 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1.573433075740727E-06</v>
+        <v>8.38351836487356E-06</v>
       </c>
       <c r="I96">
-        <v>2.097827999970653</v>
+        <v>2.497116635466115</v>
       </c>
       <c r="J96">
-        <v>2.146273655797176</v>
+        <v>2.632208884304098</v>
       </c>
       <c r="K96">
-        <v>2.743811583234553E-06</v>
+        <v>2.743811583234558E-06</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B97" s="3">
-        <v>44423</v>
+        <v>44402</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
@@ -4658,7 +4658,7 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E97">
-        <v>7.646017292853456</v>
+        <v>1.987149761262175</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>2.17882145425784E-06</v>
+        <v>8.38351836487356E-06</v>
       </c>
       <c r="I97">
-        <v>2.036081067093312</v>
+        <v>2.47486360687252</v>
       </c>
       <c r="J97">
-        <v>2.123775884648492</v>
+        <v>2.611638513667842</v>
       </c>
       <c r="K97">
         <v>2.743811583234558E-06</v>
@@ -4682,15 +4682,15 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B98" s="3">
-        <v>44430</v>
+        <v>44409</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
@@ -4699,7 +4699,7 @@
         <v>1.665930651729556E-05</v>
       </c>
       <c r="E98">
-        <v>12.58539685723279</v>
+        <v>3.239153493680321</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4708,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1.323701326726261E-06</v>
+        <v>5.143104996351154E-06</v>
       </c>
       <c r="I98">
-        <v>2.063743985586362</v>
+        <v>2.477051948399112</v>
       </c>
       <c r="J98">
-        <v>2.12461565700609</v>
+        <v>2.585797271052487</v>
       </c>
       <c r="K98">
         <v>2.743811583234558E-06</v>
@@ -4723,24 +4723,24 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B99" s="3">
-        <v>44437</v>
+        <v>44416</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
       </c>
       <c r="D99">
-        <v>0.0002637369650517596</v>
+        <v>1.665930651729556E-05</v>
       </c>
       <c r="E99">
-        <v>25.50541268950247</v>
+        <v>10.58787105352596</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4749,39 +4749,39 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1.034043119640674E-05</v>
+        <v>1.573433075740727E-06</v>
       </c>
       <c r="I99">
-        <v>2.058151076898119</v>
+        <v>2.097827999970653</v>
       </c>
       <c r="J99">
-        <v>2.238090753369406</v>
+        <v>2.146273655797176</v>
       </c>
       <c r="K99">
-        <v>2.743811583234558E-06</v>
+        <v>2.743811583234553E-06</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B100" s="3">
-        <v>44444</v>
+        <v>44423</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100">
-        <v>0.05638282079146886</v>
+        <v>1.665930651729556E-05</v>
       </c>
       <c r="E100">
-        <v>32.4730856351339</v>
+        <v>7.646017292853456</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.001736293908899932</v>
+        <v>2.17882145425784E-06</v>
       </c>
       <c r="I100">
-        <v>2.05746946506264</v>
+        <v>2.036081067093312</v>
       </c>
       <c r="J100">
-        <v>2.199871520775035</v>
+        <v>2.123775884648492</v>
       </c>
       <c r="K100">
         <v>2.743811583234558E-06</v>
@@ -4805,24 +4805,24 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B101" s="3">
-        <v>44451</v>
+        <v>44430</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
       </c>
       <c r="D101">
-        <v>3.374162582696231</v>
+        <v>1.665930651729556E-05</v>
       </c>
       <c r="E101">
-        <v>30.17735100291158</v>
+        <v>12.58539685723279</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4831,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0.1118110924438227</v>
+        <v>1.323701326726261E-06</v>
       </c>
       <c r="I101">
-        <v>1.983210157661925</v>
+        <v>2.063743985586362</v>
       </c>
       <c r="J101">
-        <v>2.072216844306239</v>
+        <v>2.12461565700609</v>
       </c>
       <c r="K101">
         <v>2.743811583234558E-06</v>
@@ -4846,24 +4846,24 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B102" s="3">
-        <v>44458</v>
+        <v>44437</v>
       </c>
       <c r="C102" t="s">
         <v>26</v>
       </c>
       <c r="D102">
-        <v>5.217865025013363</v>
+        <v>0.0002637369650517596</v>
       </c>
       <c r="E102">
-        <v>52.15723505388951</v>
+        <v>25.50541268950247</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0.1000410589177551</v>
+        <v>1.034043119640674E-05</v>
       </c>
       <c r="I102">
-        <v>1.953064814876338</v>
+        <v>2.058151076898119</v>
       </c>
       <c r="J102">
-        <v>2.045955311631654</v>
+        <v>2.238090753369406</v>
       </c>
       <c r="K102">
         <v>2.743811583234558E-06</v>
@@ -4887,24 +4887,24 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>12.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B103" s="3">
-        <v>44465</v>
+        <v>44444</v>
       </c>
       <c r="C103" t="s">
         <v>26</v>
       </c>
       <c r="D103">
-        <v>2.807769666968994</v>
+        <v>0.05638282079146886</v>
       </c>
       <c r="E103">
-        <v>51.51348266286535</v>
+        <v>32.4730856351339</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4913,39 +4913,39 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0.05450552985020828</v>
+        <v>0.001736293908899932</v>
       </c>
       <c r="I103">
-        <v>1.923730571134157</v>
+        <v>2.05746946506264</v>
       </c>
       <c r="J103">
-        <v>2.080931912726578</v>
+        <v>2.199871520775035</v>
       </c>
       <c r="K103">
-        <v>2.7478946361858E-06</v>
+        <v>2.743811583234558E-06</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3">
-        <v>44472</v>
+        <v>44451</v>
       </c>
       <c r="C104" t="s">
         <v>26</v>
       </c>
       <c r="D104">
-        <v>16.71104948745814</v>
+        <v>3.374162582696231</v>
       </c>
       <c r="E104">
-        <v>56.68006895304089</v>
+        <v>30.17735100291158</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0.2948311425186012</v>
+        <v>0.1118110924438227</v>
       </c>
       <c r="I104">
-        <v>1.945191760808501</v>
+        <v>1.983210157661925</v>
       </c>
       <c r="J104">
-        <v>2.018734125770526</v>
+        <v>2.072216844306239</v>
       </c>
       <c r="K104">
         <v>2.743811583234558E-06</v>
@@ -4969,24 +4969,24 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>14.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B105" s="3">
-        <v>44479</v>
+        <v>44458</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
       </c>
       <c r="D105">
-        <v>54.56517449301888</v>
+        <v>5.217865025013363</v>
       </c>
       <c r="E105">
-        <v>55.67663768807826</v>
+        <v>52.15723505388951</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4995,39 +4995,39 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>0.9800371710431542</v>
+        <v>0.1000410589177551</v>
       </c>
       <c r="I105">
-        <v>2.539958453890706</v>
+        <v>1.953064814876338</v>
       </c>
       <c r="J105">
-        <v>2.560478165962528</v>
+        <v>2.045955311631654</v>
       </c>
       <c r="K105">
-        <v>87.89241202742411</v>
+        <v>2.743811583234558E-06</v>
       </c>
       <c r="L105">
-        <v>513.8676278392857</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>7.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B106" s="3">
-        <v>44486</v>
+        <v>44465</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
       </c>
       <c r="D106">
-        <v>130.8506438274929</v>
+        <v>2.807769666968994</v>
       </c>
       <c r="E106">
-        <v>116.8671602713336</v>
+        <v>51.51348266286535</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5036,39 +5036,39 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1.119652805148114</v>
+        <v>0.05450552985020828</v>
       </c>
       <c r="I106">
-        <v>2.10354247371688</v>
+        <v>1.923730571134157</v>
       </c>
       <c r="J106">
-        <v>2.071483481370382</v>
+        <v>2.080931912726578</v>
       </c>
       <c r="K106">
-        <v>201.4925042956422</v>
+        <v>2.7478946361858E-06</v>
       </c>
       <c r="L106">
-        <v>496.1293530154762</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>22.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B107" s="3">
-        <v>44493</v>
+        <v>44472</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
       </c>
       <c r="D107">
-        <v>122.7463988095238</v>
+        <v>16.71104948745814</v>
       </c>
       <c r="E107">
-        <v>91.8508385587359</v>
+        <v>56.68006895304089</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5077,39 +5077,39 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1.33636666507983</v>
+        <v>0.2948311425186012</v>
       </c>
       <c r="I107">
-        <v>1.843868676257804</v>
+        <v>1.945191760808501</v>
       </c>
       <c r="J107">
-        <v>1.808935826736286</v>
+        <v>2.018734125770526</v>
       </c>
       <c r="K107">
-        <v>335.5660633506965</v>
+        <v>2.743811583234558E-06</v>
       </c>
       <c r="L107">
-        <v>635.4757822804821</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B108" s="3">
-        <v>44500</v>
+        <v>44479</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
       </c>
       <c r="D108">
-        <v>82.9775833333334</v>
+        <v>54.56517449301888</v>
       </c>
       <c r="E108">
-        <v>68.46913292665026</v>
+        <v>55.67663768807826</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5118,39 +5118,39 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1.211897679823488</v>
+        <v>0.9800371710431542</v>
       </c>
       <c r="I108">
-        <v>1.880971877249785</v>
+        <v>2.539958453890706</v>
       </c>
       <c r="J108">
-        <v>1.869344135736414</v>
+        <v>2.560478165962528</v>
       </c>
       <c r="K108">
-        <v>238.2129138690476</v>
+        <v>87.89241202742411</v>
       </c>
       <c r="L108">
-        <v>498.6082345599941</v>
+        <v>513.8676278392857</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B109" s="3">
-        <v>44507</v>
+        <v>44486</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
       </c>
       <c r="D109">
-        <v>187.644232142857</v>
+        <v>130.8506438274929</v>
       </c>
       <c r="E109">
-        <v>197.0049265319541</v>
+        <v>116.8671602713336</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5159,39 +5159,39 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0.9524849730720881</v>
+        <v>1.119652805148114</v>
       </c>
       <c r="I109">
-        <v>1.502933338082155</v>
+        <v>2.10354247371688</v>
       </c>
       <c r="J109">
-        <v>1.509240611009255</v>
+        <v>2.071483481370382</v>
       </c>
       <c r="K109">
-        <v>621.801688095238</v>
+        <v>201.4925042956422</v>
       </c>
       <c r="L109">
-        <v>726.9418994416667</v>
+        <v>496.1293530154762</v>
       </c>
       <c r="M109">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B110" s="3">
-        <v>44514</v>
+        <v>44493</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
       </c>
       <c r="D110">
-        <v>218.3294047619048</v>
+        <v>122.7463988095238</v>
       </c>
       <c r="E110">
-        <v>193.4759702246572</v>
+        <v>91.8508385587359</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5200,39 +5200,39 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1.128457474633096</v>
+        <v>1.33636666507983</v>
       </c>
       <c r="I110">
-        <v>1.607382705148449</v>
+        <v>1.843868676257804</v>
       </c>
       <c r="J110">
-        <v>1.586559709546443</v>
+        <v>1.808935826736286</v>
       </c>
       <c r="K110">
-        <v>711.4528924404761</v>
+        <v>335.5660633506965</v>
       </c>
       <c r="L110">
-        <v>1033.072227904762</v>
+        <v>635.4757822804821</v>
       </c>
       <c r="M110">
-        <v>17.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111" s="3">
-        <v>44521</v>
+        <v>44500</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
       </c>
       <c r="D111">
-        <v>365.9143869047619</v>
+        <v>82.9775833333334</v>
       </c>
       <c r="E111">
-        <v>327.141034977957</v>
+        <v>68.46913292665026</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5241,39 +5241,39 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1.118521823254051</v>
+        <v>1.211897679823488</v>
       </c>
       <c r="I111">
-        <v>1.311289847109123</v>
+        <v>1.880971877249785</v>
       </c>
       <c r="J111">
-        <v>1.291026392838446</v>
+        <v>1.869344135736414</v>
       </c>
       <c r="K111">
-        <v>1464.604911488095</v>
+        <v>238.2129138690476</v>
       </c>
       <c r="L111">
-        <v>1641.825133589286</v>
+        <v>498.6082345599941</v>
       </c>
       <c r="M111">
-        <v>21.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B112" s="3">
-        <v>44528</v>
+        <v>44507</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
       </c>
       <c r="D112">
-        <v>309.6720473458469</v>
+        <v>187.644232142857</v>
       </c>
       <c r="E112">
-        <v>347.402587741174</v>
+        <v>197.0049265319541</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5282,39 +5282,39 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0.8913924601406896</v>
+        <v>0.9524849730720881</v>
       </c>
       <c r="I112">
-        <v>1.091057492416464</v>
+        <v>1.502933338082155</v>
       </c>
       <c r="J112">
-        <v>1.102334141199207</v>
+        <v>1.509240611009255</v>
       </c>
       <c r="K112">
-        <v>1908.464750595238</v>
+        <v>621.801688095238</v>
       </c>
       <c r="L112">
-        <v>1733.621129464285</v>
+        <v>726.9418994416667</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B113" s="3">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
       </c>
       <c r="D113">
-        <v>97.41502810745615</v>
+        <v>218.3294047619048</v>
       </c>
       <c r="E113">
-        <v>129.9094968947338</v>
+        <v>193.4759702246572</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5323,39 +5323,39 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.7498684117481568</v>
+        <v>1.128457474633096</v>
       </c>
       <c r="I113">
-        <v>1.661042028360881</v>
+        <v>1.607382705148449</v>
       </c>
       <c r="J113">
-        <v>1.723721024490533</v>
+        <v>1.586559709546443</v>
       </c>
       <c r="K113">
-        <v>326.0623142857141</v>
+        <v>711.4528924404761</v>
       </c>
       <c r="L113">
-        <v>491.3907819642857</v>
+        <v>1033.072227904762</v>
       </c>
       <c r="M113">
-        <v>19.1</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B114" s="3">
-        <v>44542</v>
+        <v>44521</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
       </c>
       <c r="D114">
-        <v>43.31930397973476</v>
+        <v>365.9143869047619</v>
       </c>
       <c r="E114">
-        <v>50.75375970559657</v>
+        <v>327.141034977957</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5364,39 +5364,39 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0.8535191132836999</v>
+        <v>1.118521823254051</v>
       </c>
       <c r="I114">
-        <v>2.061050094014197</v>
+        <v>1.311289847109123</v>
       </c>
       <c r="J114">
-        <v>2.025026049282649</v>
+        <v>1.291026392838446</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1464.604911488095</v>
       </c>
       <c r="L114">
-        <v>200.4533113095234</v>
+        <v>1641.825133589286</v>
       </c>
       <c r="M114">
-        <v>13.1</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B115" s="3">
-        <v>44549</v>
+        <v>44528</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
       </c>
       <c r="D115">
-        <v>28.72340517021075</v>
+        <v>309.6720473458469</v>
       </c>
       <c r="E115">
-        <v>30.20101790537128</v>
+        <v>347.402587741174</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5405,39 +5405,39 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0.9510740750596444</v>
+        <v>0.8913924601406896</v>
       </c>
       <c r="I115">
-        <v>4.705763220732165</v>
+        <v>1.091057492416464</v>
       </c>
       <c r="J115">
-        <v>4.753350978130877</v>
+        <v>1.102334141199207</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1908.464750595238</v>
       </c>
       <c r="L115">
-        <v>1930.469743511905</v>
+        <v>1733.621129464285</v>
       </c>
       <c r="M115">
-        <v>7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B116" s="3">
-        <v>44556</v>
+        <v>44535</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
       </c>
       <c r="D116">
-        <v>21.815667074973</v>
+        <v>97.41502810745615</v>
       </c>
       <c r="E116">
-        <v>37.55683567541968</v>
+        <v>129.9094968947338</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5446,733 +5446,733 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.5808707438377455</v>
+        <v>0.7498684117481568</v>
       </c>
       <c r="I116">
-        <v>1.980812786102582</v>
+        <v>1.661042028360881</v>
       </c>
       <c r="J116">
-        <v>2.003446567352946</v>
+        <v>1.723721024490533</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>326.0623142857141</v>
       </c>
       <c r="L116">
-        <v>203.384568928571</v>
+        <v>491.3907819642857</v>
       </c>
       <c r="M116">
-        <v>7.7</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B117" s="3">
-        <v>44563</v>
+        <v>44542</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
       </c>
       <c r="D117">
-        <v>36.24765517021088</v>
+        <v>43.31930397973476</v>
       </c>
       <c r="E117">
-        <v>68.45931721451934</v>
+        <v>50.75375970559657</v>
       </c>
       <c r="F117">
-        <v>-32.21166204430846</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>-32.21166204430846</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0.5294773106869844</v>
+        <v>0.8535191132836999</v>
       </c>
       <c r="I117">
-        <v>2.077146247084362</v>
+        <v>2.061050094014197</v>
       </c>
       <c r="J117">
-        <v>2.114214914110102</v>
+        <v>2.025026049282649</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>212.7796800595241</v>
+        <v>200.4533113095234</v>
       </c>
       <c r="M117">
-        <v>16.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>44570</v>
+        <v>44549</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
       </c>
       <c r="D118">
-        <v>36.31801826544896</v>
+        <v>28.72340517021075</v>
       </c>
       <c r="E118">
-        <v>64.54946812953868</v>
+        <v>30.20101790537128</v>
       </c>
       <c r="F118">
-        <v>-28.23144986408972</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>-60.44311190839818</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0.5626385362705935</v>
+        <v>0.9510740750596444</v>
       </c>
       <c r="I118">
-        <v>2.041102800120592</v>
+        <v>4.705763220732165</v>
       </c>
       <c r="J118">
-        <v>2.090003243843921</v>
+        <v>4.753350978130877</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>209.9174227380949</v>
+        <v>1930.469743511905</v>
       </c>
       <c r="M118">
-        <v>16.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B119" s="3">
-        <v>44577</v>
+        <v>44556</v>
       </c>
       <c r="C119" t="s">
         <v>26</v>
       </c>
       <c r="D119">
-        <v>33.25356588449635</v>
+        <v>21.815667074973</v>
       </c>
       <c r="E119">
-        <v>51.21854860575691</v>
+        <v>37.55683567541968</v>
       </c>
       <c r="F119">
-        <v>-17.96498272126055</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>-78.40809462965873</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0.6492485005863421</v>
+        <v>0.5808707438377455</v>
       </c>
       <c r="I119">
-        <v>2.061193782710517</v>
+        <v>1.980812786102582</v>
       </c>
       <c r="J119">
-        <v>2.034855355592762</v>
+        <v>2.003446567352946</v>
       </c>
       <c r="K119">
-        <v>3.357886904762078</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>210.967435476191</v>
+        <v>203.384568928571</v>
       </c>
       <c r="M119">
-        <v>12.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
-        <v>44584</v>
+        <v>44563</v>
       </c>
       <c r="C120" t="s">
         <v>26</v>
       </c>
       <c r="D120">
-        <v>37.23104709686041</v>
+        <v>36.24765517021088</v>
       </c>
       <c r="E120">
-        <v>40.53327017576994</v>
+        <v>68.45931721451934</v>
       </c>
       <c r="F120">
-        <v>-3.302223078909527</v>
+        <v>-32.21166204430846</v>
       </c>
       <c r="G120">
-        <v>-81.71031770856825</v>
+        <v>-32.21166204430846</v>
       </c>
       <c r="H120">
-        <v>0.918530553676285</v>
+        <v>0.5294773106869844</v>
       </c>
       <c r="I120">
-        <v>2.039712075117801</v>
+        <v>2.077146247084362</v>
       </c>
       <c r="J120">
-        <v>2.009187068216903</v>
+        <v>2.114214914110102</v>
       </c>
       <c r="K120">
-        <v>5.665922619047619</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>233.0633844642852</v>
+        <v>212.7796800595241</v>
       </c>
       <c r="M120">
-        <v>8.699999999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3">
-        <v>44591</v>
+        <v>44570</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
       </c>
       <c r="D121">
-        <v>46.67138690476159</v>
+        <v>36.31801826544896</v>
       </c>
       <c r="E121">
-        <v>60.53793313294354</v>
+        <v>64.54946812953868</v>
       </c>
       <c r="F121">
-        <v>-13.86654622818195</v>
+        <v>-28.23144986408972</v>
       </c>
       <c r="G121">
-        <v>-95.5768639367502</v>
+        <v>-60.44311190839818</v>
       </c>
       <c r="H121">
-        <v>0.7709445051959323</v>
+        <v>0.5626385362705935</v>
       </c>
       <c r="I121">
-        <v>2.059845670343221</v>
+        <v>2.041102800120592</v>
       </c>
       <c r="J121">
-        <v>2.047501575013793</v>
+        <v>2.090003243843921</v>
       </c>
       <c r="K121">
-        <v>8.479588367535687</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>242.7852024404763</v>
+        <v>209.9174227380949</v>
       </c>
       <c r="M121">
-        <v>14.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B122" s="3">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
       </c>
       <c r="D122">
-        <v>61.18733650668513</v>
+        <v>33.25356588449635</v>
       </c>
       <c r="E122">
-        <v>65.65638616582127</v>
+        <v>51.21854860575691</v>
       </c>
       <c r="F122">
-        <v>-4.469049659136147</v>
+        <v>-17.96498272126055</v>
       </c>
       <c r="G122">
-        <v>-100.0459135958863</v>
+        <v>-78.40809462965873</v>
       </c>
       <c r="H122">
-        <v>0.931932749879819</v>
+        <v>0.6492485005863421</v>
       </c>
       <c r="I122">
-        <v>2.137286426616849</v>
+        <v>2.061193782710517</v>
       </c>
       <c r="J122">
-        <v>2.113312328704092</v>
+        <v>2.034855355592762</v>
       </c>
       <c r="K122">
-        <v>10.52829679287422</v>
+        <v>3.357886904762078</v>
       </c>
       <c r="L122">
-        <v>316.0943774404764</v>
+        <v>210.967435476191</v>
       </c>
       <c r="M122">
-        <v>15.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B123" s="3">
-        <v>44605</v>
+        <v>44584</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
       </c>
       <c r="D123">
-        <v>106.2223242076008</v>
+        <v>37.23104709686041</v>
       </c>
       <c r="E123">
-        <v>103.3947446763935</v>
+        <v>40.53327017576994</v>
       </c>
       <c r="F123">
-        <v>2.827579531207277</v>
+        <v>-3.302223078909527</v>
       </c>
       <c r="G123">
-        <v>-97.21833406467907</v>
+        <v>-81.71031770856825</v>
       </c>
       <c r="H123">
-        <v>1.027347420220023</v>
+        <v>0.918530553676285</v>
       </c>
       <c r="I123">
-        <v>1.975833829529693</v>
+        <v>2.039712075117801</v>
       </c>
       <c r="J123">
-        <v>1.951106242306161</v>
+        <v>2.009187068216903</v>
       </c>
       <c r="K123">
-        <v>207.6750986483759</v>
+        <v>5.665922619047619</v>
       </c>
       <c r="L123">
-        <v>586.963320952381</v>
+        <v>233.0633844642852</v>
       </c>
       <c r="M123">
-        <v>16.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B124" s="3">
-        <v>44612</v>
+        <v>44591</v>
       </c>
       <c r="C124" t="s">
         <v>26</v>
       </c>
       <c r="D124">
-        <v>230.5880059523811</v>
+        <v>46.67138690476159</v>
       </c>
       <c r="E124">
-        <v>187.7520211995451</v>
+        <v>60.53793313294354</v>
       </c>
       <c r="F124">
-        <v>42.83598475283605</v>
+        <v>-13.86654622818195</v>
       </c>
       <c r="G124">
-        <v>-54.38234931184302</v>
+        <v>-95.5768639367502</v>
       </c>
       <c r="H124">
-        <v>1.228151923367629</v>
+        <v>0.7709445051959323</v>
       </c>
       <c r="I124">
-        <v>1.790608305342029</v>
+        <v>2.059845670343221</v>
       </c>
       <c r="J124">
-        <v>1.719623373257777</v>
+        <v>2.047501575013793</v>
       </c>
       <c r="K124">
-        <v>692.3225700714288</v>
+        <v>8.479588367535687</v>
       </c>
       <c r="L124">
-        <v>1277.302896607143</v>
+        <v>242.7852024404763</v>
       </c>
       <c r="M124">
-        <v>17</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B125" s="3">
-        <v>44619</v>
+        <v>44598</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
       </c>
       <c r="D125">
-        <v>139.5081547619047</v>
+        <v>61.18733650668513</v>
       </c>
       <c r="E125">
-        <v>122.4246630770365</v>
+        <v>65.65638616582127</v>
       </c>
       <c r="F125">
-        <v>17.08349168486822</v>
+        <v>-4.469049659136147</v>
       </c>
       <c r="G125">
-        <v>-37.29885762697479</v>
+        <v>-100.0459135958863</v>
       </c>
       <c r="H125">
-        <v>1.139542893200517</v>
+        <v>0.931932749879819</v>
       </c>
       <c r="I125">
-        <v>1.939893976491091</v>
+        <v>2.137286426616849</v>
       </c>
       <c r="J125">
-        <v>1.885739868535726</v>
+        <v>2.113312328704092</v>
       </c>
       <c r="K125">
-        <v>295.8684673214282</v>
+        <v>10.52829679287422</v>
       </c>
       <c r="L125">
-        <v>729.1359284523812</v>
+        <v>316.0943774404764</v>
       </c>
       <c r="M125">
-        <v>18.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B126" s="3">
-        <v>44626</v>
+        <v>44605</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
       </c>
       <c r="D126">
-        <v>118.8083690476189</v>
+        <v>106.2223242076008</v>
       </c>
       <c r="E126">
-        <v>84.95714748789156</v>
+        <v>103.3947446763935</v>
       </c>
       <c r="F126">
-        <v>33.85122155972738</v>
+        <v>2.827579531207277</v>
       </c>
       <c r="G126">
-        <v>-3.447636067247416</v>
+        <v>-97.21833406467907</v>
       </c>
       <c r="H126">
-        <v>1.398450543134726</v>
+        <v>1.027347420220023</v>
       </c>
       <c r="I126">
-        <v>1.93460898753739</v>
+        <v>1.975833829529693</v>
       </c>
       <c r="J126">
-        <v>1.838428745597254</v>
+        <v>1.951106242306161</v>
       </c>
       <c r="K126">
-        <v>248.6694451785715</v>
+        <v>207.6750986483759</v>
       </c>
       <c r="L126">
-        <v>664.1926163690468</v>
+        <v>586.963320952381</v>
       </c>
       <c r="M126">
-        <v>11.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B127" s="3">
-        <v>44633</v>
+        <v>44612</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
       </c>
       <c r="D127">
-        <v>57.05399999999791</v>
+        <v>230.5880059523811</v>
       </c>
       <c r="E127">
-        <v>4.641633799881174</v>
+        <v>187.7520211995451</v>
       </c>
       <c r="F127">
-        <v>52.41236620011673</v>
+        <v>42.83598475283605</v>
       </c>
       <c r="G127">
-        <v>48.96473013286931</v>
+        <v>-54.38234931184302</v>
       </c>
       <c r="H127">
-        <v>12.29179260144531</v>
+        <v>1.228151923367629</v>
       </c>
       <c r="I127">
-        <v>2.025751878444774</v>
+        <v>1.790608305342029</v>
       </c>
       <c r="J127">
-        <v>1.923245457194285</v>
+        <v>1.719623373257777</v>
       </c>
       <c r="K127">
-        <v>15.66718600000022</v>
+        <v>692.3225700714288</v>
       </c>
       <c r="L127">
-        <v>365.0671770000059</v>
+        <v>1277.302896607143</v>
+      </c>
+      <c r="M127">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B128" s="3">
-        <v>44199</v>
+        <v>44619</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128">
-        <v>209.8296842253521</v>
+        <v>139.5081547619047</v>
       </c>
       <c r="E128">
-        <v>278.6557709321428</v>
+        <v>122.4246630770365</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>17.08349168486822</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>-37.29885762697479</v>
       </c>
       <c r="H128">
-        <v>0.7530067779448538</v>
+        <v>1.139542893200517</v>
       </c>
       <c r="I128">
-        <v>625.3681526825983</v>
+        <v>1.939893976491091</v>
       </c>
       <c r="J128">
-        <v>723.7776627788096</v>
+        <v>1.885739868535726</v>
       </c>
       <c r="K128">
-        <v>0.699384507042082</v>
+        <v>295.8684673214282</v>
       </c>
       <c r="L128">
-        <v>437.3727971830993</v>
+        <v>729.1359284523812</v>
       </c>
       <c r="M128">
-        <v>25.5</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B129" s="3">
-        <v>44206</v>
+        <v>44626</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129">
-        <v>246.0623289880958</v>
+        <v>118.8083690476189</v>
       </c>
       <c r="E129">
-        <v>234.3654275584958</v>
+        <v>90.99942630866011</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>27.80894273895883</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>-9.48991488801596</v>
       </c>
       <c r="H129">
-        <v>1.049908817829714</v>
+        <v>1.305594703912022</v>
       </c>
       <c r="I129">
-        <v>666.8355386964591</v>
+        <v>1.934608989013634</v>
       </c>
       <c r="J129">
-        <v>650.3385135802446</v>
+        <v>1.852735128586911</v>
       </c>
       <c r="K129">
-        <v>0.7090309523809992</v>
+        <v>248.6694448139881</v>
       </c>
       <c r="L129">
-        <v>472.8070370833329</v>
+        <v>664.1926148511905</v>
       </c>
       <c r="M129">
-        <v>18.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B130" s="3">
-        <v>44213</v>
+        <v>44633</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130">
-        <v>173.8325378571414</v>
+        <v>83.18680357142841</v>
       </c>
       <c r="E130">
-        <v>241.0070240329089</v>
+        <v>52.96916306739963</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>30.21764050402879</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>20.72772561601283</v>
       </c>
       <c r="H130">
-        <v>0.7212758157347521</v>
+        <v>1.570476079933129</v>
       </c>
       <c r="I130">
-        <v>549.0837530234937</v>
+        <v>2.128445514719377</v>
       </c>
       <c r="J130">
-        <v>642.4412338026199</v>
+        <v>2.002241131352442</v>
       </c>
       <c r="K130">
-        <v>0.7195404761904294</v>
+        <v>52.30019996279762</v>
       </c>
       <c r="L130">
-        <v>395.0879851190473</v>
+        <v>417.3954148065476</v>
       </c>
       <c r="M130">
-        <v>17.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
-        <v>44220</v>
+        <v>44640</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131">
-        <v>190.2680119642866</v>
+        <v>52.40220833333366</v>
       </c>
       <c r="E131">
-        <v>290.3054082031749</v>
+        <v>32.72236206723358</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>19.67984626610008</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>40.4075718821129</v>
       </c>
       <c r="H131">
-        <v>0.6554063637392676</v>
+        <v>1.601418877575663</v>
       </c>
       <c r="I131">
-        <v>567.9820122448994</v>
+        <v>2.062637451452935</v>
       </c>
       <c r="J131">
-        <v>705.1761556582318</v>
+        <v>1.953344431269582</v>
       </c>
       <c r="K131">
-        <v>0.7291666666666666</v>
+        <v>12.24125744047619</v>
       </c>
       <c r="L131">
-        <v>414.1535505952386</v>
+        <v>337.7426060267857</v>
       </c>
       <c r="M131">
-        <v>27.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B132" s="3">
-        <v>44227</v>
+        <v>44647</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132">
-        <v>115.237380059524</v>
+        <v>49.32838095238063</v>
       </c>
       <c r="E132">
-        <v>117.5366344282408</v>
+        <v>24.93725703149937</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>24.39112392088126</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>64.79869580299416</v>
       </c>
       <c r="H132">
-        <v>0.9804379768069627</v>
+        <v>1.9780997120121</v>
       </c>
       <c r="I132">
-        <v>475.3234972553736</v>
+        <v>1.935731383871939</v>
       </c>
       <c r="J132">
-        <v>478.491711775854</v>
+        <v>1.8746605785305</v>
       </c>
       <c r="K132">
-        <v>0.7257255952381023</v>
+        <v>13.92613002232143</v>
       </c>
       <c r="L132">
-        <v>344.9544279761903</v>
+        <v>320.3589564732143</v>
       </c>
       <c r="M132">
-        <v>5.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B133" s="3">
-        <v>44234</v>
+        <v>44654</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D133">
-        <v>105.0662557738099</v>
+        <v>85.01709375000003</v>
       </c>
       <c r="E133">
-        <v>132.9229913874596</v>
+        <v>31.09896232557504</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>53.91813142442498</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>118.7168272274191</v>
       </c>
       <c r="H133">
-        <v>0.7904295161967152</v>
+        <v>2.733759823236417</v>
       </c>
       <c r="I133">
-        <v>225.7679548028301</v>
+        <v>1.893707754560978</v>
       </c>
       <c r="J133">
-        <v>244.4322779583368</v>
+        <v>1.730901369239886</v>
       </c>
       <c r="K133">
-        <v>1.492512500000192</v>
+        <v>171.822509765625</v>
       </c>
       <c r="L133">
-        <v>336.9614946428572</v>
-      </c>
-      <c r="M133">
-        <v>6.1</v>
+        <v>541.9847005208334</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B134" s="3">
-        <v>44241</v>
+        <v>44199</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134">
-        <v>149.8882673809518</v>
+        <v>209.8296842253521</v>
       </c>
       <c r="E134">
-        <v>214.9206663079548</v>
+        <v>278.6557709321428</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6181,39 +6181,39 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0.6974120728165827</v>
+        <v>0.7530067779448538</v>
       </c>
       <c r="I134">
-        <v>32.21712068844382</v>
+        <v>625.3681526825983</v>
       </c>
       <c r="J134">
-        <v>37.6607896292024</v>
+        <v>723.7776627788096</v>
       </c>
       <c r="K134">
-        <v>11.94642797619053</v>
+        <v>0.699384507042082</v>
       </c>
       <c r="L134">
-        <v>384.8795119047618</v>
+        <v>437.3727971830993</v>
       </c>
       <c r="M134">
-        <v>15.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B135" s="3">
-        <v>44248</v>
+        <v>44206</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135">
-        <v>122.0218367857146</v>
+        <v>246.0623289880958</v>
       </c>
       <c r="E135">
-        <v>262.2178520596729</v>
+        <v>234.3654275584958</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6222,39 +6222,39 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0.465345268551533</v>
+        <v>1.049908817829714</v>
       </c>
       <c r="I135">
-        <v>11.73508143796019</v>
+        <v>666.8355386964591</v>
       </c>
       <c r="J135">
-        <v>15.66271771316647</v>
+        <v>650.3385135802446</v>
       </c>
       <c r="K135">
-        <v>35.69475517857115</v>
+        <v>0.7090309523809992</v>
       </c>
       <c r="L135">
-        <v>418.8808589285713</v>
+        <v>472.8070370833329</v>
       </c>
       <c r="M135">
-        <v>22.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B136" s="3">
-        <v>44255</v>
+        <v>44213</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136">
-        <v>118.1905783333336</v>
+        <v>173.8325378571414</v>
       </c>
       <c r="E136">
-        <v>181.6787726944805</v>
+        <v>241.0070240329089</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6263,39 +6263,39 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0.6505469878536023</v>
+        <v>0.7212758157347521</v>
       </c>
       <c r="I136">
-        <v>6.896657526143269</v>
+        <v>549.0837530234937</v>
       </c>
       <c r="J136">
-        <v>7.952375391595656</v>
+        <v>642.4412338026199</v>
       </c>
       <c r="K136">
-        <v>60.13746327380951</v>
+        <v>0.7195404761904294</v>
       </c>
       <c r="L136">
-        <v>414.7474886904764</v>
+        <v>395.0879851190473</v>
       </c>
       <c r="M136">
-        <v>11.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B137" s="3">
-        <v>44262</v>
+        <v>44220</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137">
-        <v>136.5653833333331</v>
+        <v>190.2680119642866</v>
       </c>
       <c r="E137">
-        <v>207.7885407043914</v>
+        <v>290.3054082031749</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6304,39 +6304,39 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.657232506038996</v>
+        <v>0.6554063637392676</v>
       </c>
       <c r="I137">
-        <v>5.884898003325697</v>
+        <v>567.9820122448994</v>
       </c>
       <c r="J137">
-        <v>6.851930853525978</v>
+        <v>705.1761556582318</v>
       </c>
       <c r="K137">
-        <v>73.65122845238095</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L137">
-        <v>433.4299672619042</v>
+        <v>414.1535505952386</v>
       </c>
       <c r="M137">
-        <v>12.3</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B138" s="3">
-        <v>44269</v>
+        <v>44227</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138">
-        <v>172.6068015476199</v>
+        <v>115.237380059524</v>
       </c>
       <c r="E138">
-        <v>303.5892262147403</v>
+        <v>117.5366344282408</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6345,39 +6345,39 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.5685537780761972</v>
+        <v>0.9804379768069627</v>
       </c>
       <c r="I138">
-        <v>5.866617466732969</v>
+        <v>475.3234972553736</v>
       </c>
       <c r="J138">
-        <v>7.504017728042456</v>
+        <v>478.491711775854</v>
       </c>
       <c r="K138">
-        <v>79.99413934523831</v>
+        <v>0.7257255952381023</v>
       </c>
       <c r="L138">
-        <v>469.2950151190474</v>
+        <v>344.9544279761903</v>
       </c>
       <c r="M138">
-        <v>26.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B139" s="3">
-        <v>44276</v>
+        <v>44234</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
       </c>
       <c r="D139">
-        <v>116.6964731547618</v>
+        <v>105.0662557738099</v>
       </c>
       <c r="E139">
-        <v>193.1078041625976</v>
+        <v>132.9229913874596</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6386,39 +6386,39 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.6043073901689799</v>
+        <v>0.7904295161967152</v>
       </c>
       <c r="I139">
-        <v>5.003857497857754</v>
+        <v>225.7679548028301</v>
       </c>
       <c r="J139">
-        <v>5.843283783525982</v>
+        <v>244.4322779583368</v>
       </c>
       <c r="K139">
-        <v>91.02804178571421</v>
+        <v>1.492512500000192</v>
       </c>
       <c r="L139">
-        <v>455.4913494047623</v>
+        <v>336.9614946428572</v>
       </c>
       <c r="M139">
-        <v>13.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B140" s="3">
-        <v>44283</v>
+        <v>44241</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140">
-        <v>108.2734285519249</v>
+        <v>149.8882673809518</v>
       </c>
       <c r="E140">
-        <v>130.872179082316</v>
+        <v>214.9206663079548</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6427,39 +6427,39 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.8273219664495925</v>
+        <v>0.6974120728165827</v>
       </c>
       <c r="I140">
-        <v>4.11439707738977</v>
+        <v>32.21712068844382</v>
       </c>
       <c r="J140">
-        <v>4.328238935644349</v>
+        <v>37.6607896292024</v>
       </c>
       <c r="K140">
-        <v>105.6797332142858</v>
+        <v>11.94642797619053</v>
       </c>
       <c r="L140">
-        <v>434.80838547619</v>
+        <v>384.8795119047618</v>
       </c>
       <c r="M140">
-        <v>4.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B141" s="3">
-        <v>44290</v>
+        <v>44248</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141">
-        <v>122.1507930560042</v>
+        <v>122.0218367857146</v>
       </c>
       <c r="E141">
-        <v>162.7958832221837</v>
+        <v>262.2178520596729</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6468,39 +6468,39 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.7503309705276324</v>
+        <v>0.465345268551533</v>
       </c>
       <c r="I141">
-        <v>3.827190553689982</v>
+        <v>11.73508143796019</v>
       </c>
       <c r="J141">
-        <v>4.185940729197899</v>
+        <v>15.66271771316647</v>
       </c>
       <c r="K141">
-        <v>113.2963631547619</v>
+        <v>35.69475517857115</v>
       </c>
       <c r="L141">
-        <v>433.6067708333333</v>
+        <v>418.8808589285713</v>
       </c>
       <c r="M141">
-        <v>8.199999999999999</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B142" s="3">
-        <v>44297</v>
+        <v>44255</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142">
-        <v>123.6243827774389</v>
+        <v>118.1905783333336</v>
       </c>
       <c r="E142">
-        <v>193.1138813626261</v>
+        <v>181.6787726944805</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6509,39 +6509,39 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.6401631094830469</v>
+        <v>0.6505469878536023</v>
       </c>
       <c r="I142">
-        <v>3.739912814111165</v>
+        <v>6.896657526143269</v>
       </c>
       <c r="J142">
-        <v>4.339838772302323</v>
+        <v>7.952375391595656</v>
       </c>
       <c r="K142">
-        <v>115.8301247619047</v>
+        <v>60.13746327380951</v>
       </c>
       <c r="L142">
-        <v>433.1945678571432</v>
+        <v>414.7474886904764</v>
       </c>
       <c r="M142">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B143" s="3">
-        <v>44304</v>
+        <v>44262</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143">
-        <v>129.6880426469891</v>
+        <v>136.5653833333331</v>
       </c>
       <c r="E143">
-        <v>216.9142005377153</v>
+        <v>207.7885407043914</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6550,39 +6550,39 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.5978771437070575</v>
+        <v>0.657232506038996</v>
       </c>
       <c r="I143">
-        <v>3.766965667694176</v>
+        <v>5.884898003325697</v>
       </c>
       <c r="J143">
-        <v>4.507184391429336</v>
+        <v>6.851930853525978</v>
       </c>
       <c r="K143">
-        <v>117.8383565476187</v>
+        <v>73.65122845238095</v>
       </c>
       <c r="L143">
-        <v>443.8930434523808</v>
+        <v>433.4299672619042</v>
       </c>
       <c r="M143">
-        <v>16.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B144" s="3">
-        <v>44311</v>
+        <v>44269</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
       </c>
       <c r="D144">
-        <v>84.32030671766795</v>
+        <v>172.6068015476199</v>
       </c>
       <c r="E144">
-        <v>125.076557766996</v>
+        <v>303.5892262147403</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6591,39 +6591,39 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.674149562660235</v>
+        <v>0.5685537780761972</v>
       </c>
       <c r="I144">
-        <v>3.525279724573007</v>
+        <v>5.866617466732969</v>
       </c>
       <c r="J144">
-        <v>3.866924924475888</v>
+        <v>7.504017728042456</v>
       </c>
       <c r="K144">
-        <v>119.2940836309528</v>
+        <v>79.99413934523831</v>
       </c>
       <c r="L144">
-        <v>420.5450142857146</v>
+        <v>469.2950151190474</v>
       </c>
       <c r="M144">
-        <v>3.9</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B145" s="3">
-        <v>44318</v>
+        <v>44276</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145">
-        <v>82.22687806470627</v>
+        <v>116.6964731547618</v>
       </c>
       <c r="E145">
-        <v>145.9781577237503</v>
+        <v>193.1078041625976</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6632,39 +6632,39 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.5632820645696375</v>
+        <v>0.6043073901689799</v>
       </c>
       <c r="I145">
-        <v>3.623731811483089</v>
+        <v>5.003857497857754</v>
       </c>
       <c r="J145">
-        <v>4.156509364090591</v>
+        <v>5.843283783525982</v>
       </c>
       <c r="K145">
-        <v>119.6583439880952</v>
+        <v>91.02804178571421</v>
       </c>
       <c r="L145">
-        <v>433.6097476190473</v>
+        <v>455.4913494047623</v>
       </c>
       <c r="M145">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B146" s="3">
-        <v>44325</v>
+        <v>44283</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146">
-        <v>75.96008679920017</v>
+        <v>108.2734285519249</v>
       </c>
       <c r="E146">
-        <v>101.7977656078871</v>
+        <v>130.872179082316</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6673,39 +6673,39 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0.7461861893097873</v>
+        <v>0.8273219664495925</v>
       </c>
       <c r="I146">
-        <v>3.318462914059969</v>
+        <v>4.11439707738977</v>
       </c>
       <c r="J146">
-        <v>3.531930586129255</v>
+        <v>4.328238935644349</v>
       </c>
       <c r="K146">
-        <v>121.0379002976188</v>
+        <v>105.6797332142858</v>
       </c>
       <c r="L146">
-        <v>401.6597833333338</v>
+        <v>434.80838547619</v>
       </c>
       <c r="M146">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B147" s="3">
-        <v>44332</v>
+        <v>44290</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147">
-        <v>86.58018950928711</v>
+        <v>122.1507930560042</v>
       </c>
       <c r="E147">
-        <v>122.5968324807174</v>
+        <v>162.7958832221837</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6714,39 +6714,39 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0.7062188129771201</v>
+        <v>0.7503309705276324</v>
       </c>
       <c r="I147">
-        <v>3.390317174680583</v>
+        <v>3.827190553689982</v>
       </c>
       <c r="J147">
-        <v>3.687547674551447</v>
+        <v>4.185940729197899</v>
       </c>
       <c r="K147">
-        <v>121.1741156680696</v>
+        <v>113.2963631547619</v>
       </c>
       <c r="L147">
-        <v>410.8186854761901</v>
+        <v>433.6067708333333</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B148" s="3">
-        <v>44339</v>
+        <v>44297</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148">
-        <v>79.98301409635837</v>
+        <v>123.6243827774389</v>
       </c>
       <c r="E148">
-        <v>97.94533314896319</v>
+        <v>193.1138813626261</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6755,39 +6755,39 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.8166087298382428</v>
+        <v>0.6401631094830469</v>
       </c>
       <c r="I148">
-        <v>3.415419737982404</v>
+        <v>3.739912814111165</v>
       </c>
       <c r="J148">
-        <v>3.563802260910358</v>
+        <v>4.339838772302323</v>
       </c>
       <c r="K148">
-        <v>121.054142348869</v>
+        <v>115.8301247619047</v>
       </c>
       <c r="L148">
-        <v>413.450707142857</v>
+        <v>433.1945678571432</v>
       </c>
       <c r="M148">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B149" s="3">
-        <v>44346</v>
+        <v>44304</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149">
-        <v>80.1880599426579</v>
+        <v>129.6880426469891</v>
       </c>
       <c r="E149">
-        <v>91.49300286588731</v>
+        <v>216.9142005377153</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6796,39 +6796,39 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0.8764392623575765</v>
+        <v>0.5978771437070575</v>
       </c>
       <c r="I149">
-        <v>3.404275557750478</v>
+        <v>3.766965667694176</v>
       </c>
       <c r="J149">
-        <v>3.497214874760931</v>
+        <v>4.507184391429336</v>
       </c>
       <c r="K149">
-        <v>121.6378954232895</v>
+        <v>117.8383565476187</v>
       </c>
       <c r="L149">
-        <v>414.0889142857139</v>
+        <v>443.8930434523808</v>
       </c>
       <c r="M149">
-        <v>0.8</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B150" s="3">
-        <v>44353</v>
+        <v>44311</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
       </c>
       <c r="D150">
-        <v>57.08574080213167</v>
+        <v>84.32030671766795</v>
       </c>
       <c r="E150">
-        <v>85.36950569851253</v>
+        <v>125.076557766996</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -6837,39 +6837,39 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0.6686900707113539</v>
+        <v>0.674149562660235</v>
       </c>
       <c r="I150">
-        <v>3.251465106185762</v>
+        <v>3.525279724573007</v>
       </c>
       <c r="J150">
-        <v>3.48299220482045</v>
+        <v>3.866924924475888</v>
       </c>
       <c r="K150">
-        <v>122.161790404534</v>
+        <v>119.2940836309528</v>
       </c>
       <c r="L150">
-        <v>397.204798809524</v>
+        <v>420.5450142857146</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B151" s="3">
-        <v>44360</v>
+        <v>44318</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151">
-        <v>50.62201356406728</v>
+        <v>82.22687806470627</v>
       </c>
       <c r="E151">
-        <v>86.48585350993255</v>
+        <v>145.9781577237503</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -6878,39 +6878,39 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0.5853213156791423</v>
+        <v>0.5632820645696375</v>
       </c>
       <c r="I151">
-        <v>3.208192538504918</v>
+        <v>3.623731811483089</v>
       </c>
       <c r="J151">
-        <v>3.502543946394703</v>
+        <v>4.156509364090591</v>
       </c>
       <c r="K151">
-        <v>121.8402188152402</v>
+        <v>119.6583439880952</v>
       </c>
       <c r="L151">
-        <v>390.8868808928576</v>
+        <v>433.6097476190473</v>
       </c>
       <c r="M151">
-        <v>0.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B152" s="3">
-        <v>44367</v>
+        <v>44325</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152">
-        <v>60.43053255216147</v>
+        <v>75.96008679920017</v>
       </c>
       <c r="E152">
-        <v>88.82842994851022</v>
+        <v>101.7977656078871</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -6919,39 +6919,39 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0.6803062103787074</v>
+        <v>0.7461861893097873</v>
       </c>
       <c r="I152">
-        <v>3.245513172676071</v>
+        <v>3.318462914059969</v>
       </c>
       <c r="J152">
-        <v>3.477498388808104</v>
+        <v>3.531930586129255</v>
       </c>
       <c r="K152">
-        <v>122.4125307200019</v>
+        <v>121.0379002976188</v>
       </c>
       <c r="L152">
-        <v>397.2914809523808</v>
+        <v>401.6597833333338</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B153" s="3">
-        <v>44374</v>
+        <v>44332</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153">
-        <v>56.87601636168974</v>
+        <v>86.58018950928711</v>
       </c>
       <c r="E153">
-        <v>89.6378989653214</v>
+        <v>122.5968324807174</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6960,39 +6960,39 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0.6345085841837236</v>
+        <v>0.7062188129771201</v>
       </c>
       <c r="I153">
-        <v>3.164422678988888</v>
+        <v>3.390317174680583</v>
       </c>
       <c r="J153">
-        <v>3.43079525515333</v>
+        <v>3.687547674551447</v>
       </c>
       <c r="K153">
-        <v>122.9927009580976</v>
+        <v>121.1741156680696</v>
       </c>
       <c r="L153">
-        <v>389.2008922619051</v>
+        <v>410.8186854761901</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B154" s="3">
-        <v>44381</v>
+        <v>44339</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154">
-        <v>71.98636481406849</v>
+        <v>79.98301409635837</v>
       </c>
       <c r="E154">
-        <v>98.21269531918918</v>
+        <v>97.94533314896319</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7001,19 +7001,19 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>0.7329639470754197</v>
+        <v>0.8166087298382428</v>
       </c>
       <c r="I154">
-        <v>3.278347895298483</v>
+        <v>3.415419737982404</v>
       </c>
       <c r="J154">
-        <v>3.490748910706454</v>
+        <v>3.563802260910358</v>
       </c>
       <c r="K154">
-        <v>123.4755420295259</v>
+        <v>121.054142348869</v>
       </c>
       <c r="L154">
-        <v>404.7957833333327</v>
+        <v>413.450707142857</v>
       </c>
       <c r="M154">
         <v>1.5</v>
@@ -7021,19 +7021,19 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B155" s="3">
-        <v>44388</v>
+        <v>44346</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
       </c>
       <c r="D155">
-        <v>77.41301064740216</v>
+        <v>80.1880599426579</v>
       </c>
       <c r="E155">
-        <v>100.6564948255571</v>
+        <v>91.49300286588731</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7042,39 +7042,39 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0.7690811286600323</v>
+        <v>0.8764392623575765</v>
       </c>
       <c r="I155">
-        <v>2.637638996388765</v>
+        <v>3.404275557750478</v>
       </c>
       <c r="J155">
-        <v>2.764664446669739</v>
+        <v>3.497214874760931</v>
       </c>
       <c r="K155">
-        <v>182.9828914342874</v>
+        <v>121.6378954232895</v>
       </c>
       <c r="L155">
-        <v>482.6428101190479</v>
+        <v>414.0889142857139</v>
       </c>
       <c r="M155">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B156" s="3">
-        <v>44395</v>
+        <v>44353</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156">
-        <v>70.74451534978174</v>
+        <v>57.08574080213167</v>
       </c>
       <c r="E156">
-        <v>97.20266298808161</v>
+        <v>85.36950569851253</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7083,19 +7083,19 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0.727804292341826</v>
+        <v>0.6686900707113539</v>
       </c>
       <c r="I156">
-        <v>2.497116635466115</v>
+        <v>3.251465106185762</v>
       </c>
       <c r="J156">
-        <v>2.632208884304098</v>
+        <v>3.48299220482045</v>
       </c>
       <c r="K156">
-        <v>195.8524479819071</v>
+        <v>122.161790404534</v>
       </c>
       <c r="L156">
-        <v>489.0664059523811</v>
+        <v>397.204798809524</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -7103,19 +7103,19 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B157" s="3">
-        <v>44402</v>
+        <v>44360</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157">
-        <v>70.49711933787978</v>
+        <v>50.62201356406728</v>
       </c>
       <c r="E157">
-        <v>97.72534386897914</v>
+        <v>86.48585350993255</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7124,39 +7124,39 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0.721380110285369</v>
+        <v>0.5853213156791423</v>
       </c>
       <c r="I157">
-        <v>2.47486360687252</v>
+        <v>3.208192538504918</v>
       </c>
       <c r="J157">
-        <v>2.611638513667842</v>
+        <v>3.502543946394703</v>
       </c>
       <c r="K157">
-        <v>199.0732450057164</v>
+        <v>121.8402188152402</v>
       </c>
       <c r="L157">
-        <v>492.6791291666668</v>
+        <v>390.8868808928576</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B158" s="3">
-        <v>44409</v>
+        <v>44367</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158">
-        <v>78.93807499263795</v>
+        <v>60.43053255216147</v>
       </c>
       <c r="E158">
-        <v>100.5303886174333</v>
+        <v>88.82842994851022</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7165,39 +7165,39 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0.7852160533571142</v>
+        <v>0.6803062103787074</v>
       </c>
       <c r="I158">
-        <v>2.477051948399112</v>
+        <v>3.245513172676071</v>
       </c>
       <c r="J158">
-        <v>2.585797271052487</v>
+        <v>3.477498388808104</v>
       </c>
       <c r="K158">
-        <v>198.5585503628587</v>
+        <v>122.4125307200019</v>
       </c>
       <c r="L158">
-        <v>491.8398440476189</v>
+        <v>397.2914809523808</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B159" s="3">
-        <v>44416</v>
+        <v>44374</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159">
-        <v>118.7566424926414</v>
+        <v>56.87601636168974</v>
       </c>
       <c r="E159">
-        <v>133.0107675103519</v>
+        <v>89.6378989653214</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7206,39 +7206,39 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0.8928348036439896</v>
+        <v>0.6345085841837236</v>
       </c>
       <c r="I159">
-        <v>2.097827999970653</v>
+        <v>3.164422678988888</v>
       </c>
       <c r="J159">
-        <v>2.146273655797176</v>
+        <v>3.43079525515333</v>
       </c>
       <c r="K159">
-        <v>294.2291682200025</v>
+        <v>122.9927009580976</v>
       </c>
       <c r="L159">
-        <v>617.2421875</v>
+        <v>389.2008922619051</v>
       </c>
       <c r="M159">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B160" s="3">
-        <v>44423</v>
+        <v>44381</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160">
-        <v>101.2461523140687</v>
+        <v>71.98636481406849</v>
       </c>
       <c r="E160">
-        <v>128.0185883865616</v>
+        <v>98.21269531918918</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7247,39 +7247,39 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0.790870713308824</v>
+        <v>0.7329639470754197</v>
       </c>
       <c r="I160">
-        <v>2.036081067093312</v>
+        <v>3.278347895298483</v>
       </c>
       <c r="J160">
-        <v>2.123775884648492</v>
+        <v>3.490748910706454</v>
       </c>
       <c r="K160">
-        <v>305.2909717914307</v>
+        <v>123.4755420295259</v>
       </c>
       <c r="L160">
-        <v>621.5971676190477</v>
+        <v>404.7957833333327</v>
       </c>
       <c r="M160">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B161" s="3">
-        <v>44430</v>
+        <v>44388</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161">
-        <v>121.2672990997805</v>
+        <v>77.41301064740216</v>
       </c>
       <c r="E161">
-        <v>140.1127883266354</v>
+        <v>100.6564948255571</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7288,39 +7288,39 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0.8654977218573248</v>
+        <v>0.7690811286600323</v>
       </c>
       <c r="I161">
-        <v>2.063743985586362</v>
+        <v>2.637638996388765</v>
       </c>
       <c r="J161">
-        <v>2.12461565700609</v>
+        <v>2.764664446669739</v>
       </c>
       <c r="K161">
-        <v>309.5937533390496</v>
+        <v>182.9828914342874</v>
       </c>
       <c r="L161">
-        <v>638.9222464285717</v>
+        <v>482.6428101190479</v>
       </c>
       <c r="M161">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B162" s="3">
-        <v>44437</v>
+        <v>44395</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162">
-        <v>114.2066896298222</v>
+        <v>70.74451534978174</v>
       </c>
       <c r="E162">
-        <v>169.9803417507496</v>
+        <v>97.20266298808161</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7329,39 +7329,39 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0.6718817508749862</v>
+        <v>0.727804292341826</v>
       </c>
       <c r="I162">
-        <v>2.058151076898119</v>
+        <v>2.497116635466115</v>
       </c>
       <c r="J162">
-        <v>2.238090753369406</v>
+        <v>2.632208884304098</v>
       </c>
       <c r="K162">
-        <v>309.9574991723831</v>
+        <v>195.8524479819071</v>
       </c>
       <c r="L162">
-        <v>637.9393607142854</v>
+        <v>489.0664059523811</v>
       </c>
       <c r="M162">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B163" s="3">
-        <v>44444</v>
+        <v>44402</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163">
-        <v>142.1872773446011</v>
+        <v>70.49711933787978</v>
       </c>
       <c r="E163">
-        <v>188.259759630769</v>
+        <v>97.72534386897914</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7370,39 +7370,39 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0.7552717459295117</v>
+        <v>0.721380110285369</v>
       </c>
       <c r="I163">
-        <v>2.05746946506264</v>
+        <v>2.47486360687252</v>
       </c>
       <c r="J163">
-        <v>2.199871520775035</v>
+        <v>2.611638513667842</v>
       </c>
       <c r="K163">
-        <v>323.5380420295258</v>
+        <v>199.0732450057164</v>
       </c>
       <c r="L163">
-        <v>665.6696422619051</v>
+        <v>492.6791291666668</v>
       </c>
       <c r="M163">
-        <v>7.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B164" s="3">
-        <v>44451</v>
+        <v>44409</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
       </c>
       <c r="D164">
-        <v>158.3184572255542</v>
+        <v>78.93807499263795</v>
       </c>
       <c r="E164">
-        <v>192.1592683415491</v>
+        <v>100.5303886174333</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7411,39 +7411,39 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0.8238918611209254</v>
+        <v>0.7852160533571142</v>
       </c>
       <c r="I164">
-        <v>1.983210157661925</v>
+        <v>2.477051948399112</v>
       </c>
       <c r="J164">
-        <v>2.072216844306239</v>
+        <v>2.585797271052487</v>
       </c>
       <c r="K164">
-        <v>380.2052676247639</v>
+        <v>198.5585503628587</v>
       </c>
       <c r="L164">
-        <v>754.0269487499999</v>
+        <v>491.8398440476189</v>
       </c>
       <c r="M164">
-        <v>6.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B165" s="3">
-        <v>44458</v>
+        <v>44416</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
       </c>
       <c r="D165">
-        <v>211.3229274059634</v>
+        <v>118.7566424926414</v>
       </c>
       <c r="E165">
-        <v>251.6870449846581</v>
+        <v>133.0107675103519</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7452,39 +7452,39 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0.8396257638880253</v>
+        <v>0.8928348036439896</v>
       </c>
       <c r="I165">
-        <v>1.953064814876338</v>
+        <v>2.097827999970653</v>
       </c>
       <c r="J165">
-        <v>2.045955311631654</v>
+        <v>2.146273655797176</v>
       </c>
       <c r="K165">
-        <v>434.5344140533352</v>
+        <v>294.2291682200025</v>
       </c>
       <c r="L165">
-        <v>848.6738749404761</v>
+        <v>617.2421875</v>
       </c>
       <c r="M165">
-        <v>12.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B166" s="3">
-        <v>44465</v>
+        <v>44423</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
       </c>
       <c r="D166">
-        <v>181.9529977622066</v>
+        <v>101.2461523140687</v>
       </c>
       <c r="E166">
-        <v>252.1365401488184</v>
+        <v>128.0185883865616</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7493,39 +7493,39 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0.7216446995537125</v>
+        <v>0.790870713308824</v>
       </c>
       <c r="I166">
-        <v>1.923730571134157</v>
+        <v>2.036081067093312</v>
       </c>
       <c r="J166">
-        <v>2.080931912726578</v>
+        <v>2.123775884648492</v>
       </c>
       <c r="K166">
-        <v>446.4563831050374</v>
+        <v>305.2909717914307</v>
       </c>
       <c r="L166">
-        <v>858.861792857143</v>
+        <v>621.5971676190477</v>
       </c>
       <c r="M166">
-        <v>12.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B167" s="3">
-        <v>44472</v>
+        <v>44430</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
       </c>
       <c r="D167">
-        <v>231.1352914517449</v>
+        <v>121.2672990997805</v>
       </c>
       <c r="E167">
-        <v>263.8958845112541</v>
+        <v>140.1127883266354</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -7534,39 +7534,39 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0.8758578856954017</v>
+        <v>0.8654977218573248</v>
       </c>
       <c r="I167">
-        <v>1.945191760808501</v>
+        <v>2.063743985586362</v>
       </c>
       <c r="J167">
-        <v>2.018734125770526</v>
+        <v>2.12461565700609</v>
       </c>
       <c r="K167">
-        <v>445.4655908390499</v>
+        <v>309.5937533390496</v>
       </c>
       <c r="L167">
-        <v>866.5159970238095</v>
+        <v>638.9222464285717</v>
       </c>
       <c r="M167">
-        <v>14.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B168" s="3">
-        <v>44479</v>
+        <v>44437</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168">
-        <v>231.7321609215915</v>
+        <v>114.2066896298222</v>
       </c>
       <c r="E168">
-        <v>242.8486848067979</v>
+        <v>169.9803417507496</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -7575,39 +7575,39 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.9542244838836564</v>
+        <v>0.6718817508749862</v>
       </c>
       <c r="I168">
-        <v>2.539958453890706</v>
+        <v>2.058151076898119</v>
       </c>
       <c r="J168">
-        <v>2.560478165962528</v>
+        <v>2.238090753369406</v>
       </c>
       <c r="K168">
-        <v>541.7485316702812</v>
+        <v>309.9574991723831</v>
       </c>
       <c r="L168">
-        <v>1376.018762898809</v>
+        <v>637.9393607142854</v>
       </c>
       <c r="M168">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B169" s="3">
-        <v>44486</v>
+        <v>44444</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
       <c r="D169">
-        <v>381.8260223989217</v>
+        <v>142.1872773446011</v>
       </c>
       <c r="E169">
-        <v>360.3605340371982</v>
+        <v>188.259759630769</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -7616,39 +7616,39 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1.059566701495419</v>
+        <v>0.7552717459295117</v>
       </c>
       <c r="I169">
-        <v>2.10354247371688</v>
+        <v>2.05746946506264</v>
       </c>
       <c r="J169">
-        <v>2.071483481370382</v>
+        <v>2.199871520775035</v>
       </c>
       <c r="K169">
-        <v>669.5621662004041</v>
+        <v>323.5380420295258</v>
       </c>
       <c r="L169">
-        <v>1408.452455396429</v>
+        <v>665.6696422619051</v>
       </c>
       <c r="M169">
-        <v>22.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B170" s="3">
-        <v>44493</v>
+        <v>44451</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170">
-        <v>301.4869277976214</v>
+        <v>158.3184572255542</v>
       </c>
       <c r="E170">
-        <v>273.1618830323712</v>
+        <v>192.1592683415491</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7657,39 +7657,39 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1.103693254896378</v>
+        <v>0.8238918611209254</v>
       </c>
       <c r="I170">
-        <v>1.843868676257804</v>
+        <v>1.983210157661925</v>
       </c>
       <c r="J170">
-        <v>1.808935826736286</v>
+        <v>2.072216844306239</v>
       </c>
       <c r="K170">
-        <v>810.8426639459341</v>
+        <v>380.2052676247639</v>
       </c>
       <c r="L170">
-        <v>1495.087389423339</v>
+        <v>754.0269487499999</v>
       </c>
       <c r="M170">
-        <v>9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B171" s="3">
-        <v>44500</v>
+        <v>44458</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
       </c>
       <c r="D171">
-        <v>253.6047397619021</v>
+        <v>211.3229274059634</v>
       </c>
       <c r="E171">
-        <v>245.052043552628</v>
+        <v>251.6870449846581</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -7698,39 +7698,39 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>1.034901550239214</v>
+        <v>0.8396257638880253</v>
       </c>
       <c r="I171">
-        <v>1.880971877249785</v>
+        <v>1.953064814876338</v>
       </c>
       <c r="J171">
-        <v>1.869344135736414</v>
+        <v>2.045955311631654</v>
       </c>
       <c r="K171">
-        <v>735.542340654762</v>
+        <v>434.5344140533352</v>
       </c>
       <c r="L171">
-        <v>1383.53445729809</v>
+        <v>848.6738749404761</v>
       </c>
       <c r="M171">
-        <v>3.9</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B172" s="3">
-        <v>44507</v>
+        <v>44465</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
       </c>
       <c r="D172">
-        <v>450.2747246428588</v>
+        <v>181.9529977622066</v>
       </c>
       <c r="E172">
-        <v>457.4718526158198</v>
+        <v>252.1365401488184</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -7739,39 +7739,39 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0.9842676048115139</v>
+        <v>0.7216446995537125</v>
       </c>
       <c r="I172">
-        <v>1.502933338082155</v>
+        <v>1.923730571134157</v>
       </c>
       <c r="J172">
-        <v>1.509240611009255</v>
+        <v>2.080931912726578</v>
       </c>
       <c r="K172">
-        <v>1141.083960714286</v>
+        <v>446.4563831050374</v>
       </c>
       <c r="L172">
-        <v>1714.973126108333</v>
+        <v>858.861792857143</v>
       </c>
       <c r="M172">
-        <v>23.4</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B173" s="3">
-        <v>44514</v>
+        <v>44472</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173">
-        <v>463.5903273809508</v>
+        <v>231.1352914517449</v>
       </c>
       <c r="E173">
-        <v>436.9246213584405</v>
+        <v>263.8958845112541</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -7780,39 +7780,39 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1.061030449461978</v>
+        <v>0.8758578856954017</v>
       </c>
       <c r="I173">
-        <v>1.607382705148449</v>
+        <v>1.945191760808501</v>
       </c>
       <c r="J173">
-        <v>1.586559709546443</v>
+        <v>2.018734125770526</v>
       </c>
       <c r="K173">
-        <v>1280.58933172619</v>
+        <v>445.4655908390499</v>
       </c>
       <c r="L173">
-        <v>2058.397144214286</v>
+        <v>866.5159970238095</v>
       </c>
       <c r="M173">
-        <v>17.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B174" s="3">
-        <v>44521</v>
+        <v>44479</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
       </c>
       <c r="D174">
-        <v>619.1160964880943</v>
+        <v>231.7321609215915</v>
       </c>
       <c r="E174">
-        <v>577.3750598638536</v>
+        <v>242.8486848067979</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -7821,39 +7821,39 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1.072294491961747</v>
+        <v>0.9542244838836564</v>
       </c>
       <c r="I174">
-        <v>1.311289847109123</v>
+        <v>2.539958453890706</v>
       </c>
       <c r="J174">
-        <v>1.291026392838446</v>
+        <v>2.560478165962528</v>
       </c>
       <c r="K174">
-        <v>2059.917132916666</v>
+        <v>541.7485316702812</v>
       </c>
       <c r="L174">
-        <v>2701.148422279762</v>
+        <v>1376.018762898809</v>
       </c>
       <c r="M174">
-        <v>21.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B175" s="3">
-        <v>44528</v>
+        <v>44486</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175">
-        <v>496.9826833577527</v>
+        <v>381.8260223989217</v>
       </c>
       <c r="E175">
-        <v>525.4087761151042</v>
+        <v>360.3605340371982</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -7862,39 +7862,39 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>0.9458971870102071</v>
+        <v>1.059566701495419</v>
       </c>
       <c r="I175">
-        <v>1.091057492416464</v>
+        <v>2.10354247371688</v>
       </c>
       <c r="J175">
-        <v>1.102334141199207</v>
+        <v>2.071483481370382</v>
       </c>
       <c r="K175">
-        <v>2520.792595833334</v>
+        <v>669.5621662004041</v>
       </c>
       <c r="L175">
-        <v>2750.329648511904</v>
+        <v>1408.452455396429</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B176" s="3">
-        <v>44535</v>
+        <v>44493</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
       </c>
       <c r="D176">
-        <v>327.379541440789</v>
+        <v>301.4869277976214</v>
       </c>
       <c r="E176">
-        <v>386.7090238020619</v>
+        <v>273.1618830323712</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -7903,39 +7903,39 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0.8465784900027549</v>
+        <v>1.103693254896378</v>
       </c>
       <c r="I176">
-        <v>1.661042028360881</v>
+        <v>1.843868676257804</v>
       </c>
       <c r="J176">
-        <v>1.723721024490533</v>
+        <v>1.808935826736286</v>
       </c>
       <c r="K176">
-        <v>946.5608261904761</v>
+        <v>810.8426639459341</v>
       </c>
       <c r="L176">
-        <v>1572.277314702381</v>
+        <v>1495.087389423339</v>
       </c>
       <c r="M176">
-        <v>19.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B177" s="3">
-        <v>44542</v>
+        <v>44500</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
       </c>
       <c r="D177">
-        <v>302.3101066583081</v>
+        <v>253.6047397619021</v>
       </c>
       <c r="E177">
-        <v>279.7157433547932</v>
+        <v>245.052043552628</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -7944,39 +7944,39 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>1.080776158797956</v>
+        <v>1.034901550239214</v>
       </c>
       <c r="I177">
-        <v>2.061050094014197</v>
+        <v>1.880971877249785</v>
       </c>
       <c r="J177">
-        <v>2.025026049282649</v>
+        <v>1.869344135736414</v>
       </c>
       <c r="K177">
-        <v>627.2022886904759</v>
+        <v>735.542340654762</v>
       </c>
       <c r="L177">
-        <v>1292.695336071428</v>
+        <v>1383.53445729809</v>
       </c>
       <c r="M177">
-        <v>13.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B178" s="3">
-        <v>44549</v>
+        <v>44507</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
       </c>
       <c r="D178">
-        <v>202.9633033249695</v>
+        <v>450.2747246428588</v>
       </c>
       <c r="E178">
-        <v>233.0233593228675</v>
+        <v>457.4718526158198</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -7985,39 +7985,39 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0.8709998169915317</v>
+        <v>0.9842676048115139</v>
       </c>
       <c r="I178">
-        <v>4.705763220732165</v>
+        <v>1.502933338082155</v>
       </c>
       <c r="J178">
-        <v>4.753350978130877</v>
+        <v>1.509240611009255</v>
       </c>
       <c r="K178">
-        <v>631.6762470238091</v>
+        <v>1141.083960714286</v>
       </c>
       <c r="L178">
-        <v>2972.518850654762</v>
+        <v>1714.973126108333</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B179" s="3">
-        <v>44556</v>
+        <v>44514</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
       </c>
       <c r="D179">
-        <v>235.9568865392589</v>
+        <v>463.5903273809508</v>
       </c>
       <c r="E179">
-        <v>250.2962016023472</v>
+        <v>436.9246213584405</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8026,470 +8026,839 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0.9427106165763173</v>
+        <v>1.061030449461978</v>
       </c>
       <c r="I179">
-        <v>1.980812786102582</v>
+        <v>1.607382705148449</v>
       </c>
       <c r="J179">
-        <v>2.003446567352946</v>
+        <v>1.586559709546443</v>
       </c>
       <c r="K179">
-        <v>633.5359922619057</v>
+        <v>1280.58933172619</v>
       </c>
       <c r="L179">
-        <v>1254.916193928571</v>
+        <v>2058.397144214286</v>
       </c>
       <c r="M179">
-        <v>7.7</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B180" s="3">
-        <v>44563</v>
+        <v>44521</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
       </c>
       <c r="D180">
-        <v>298.2458463011654</v>
+        <v>619.1160964880943</v>
       </c>
       <c r="E180">
-        <v>321.7707559687768</v>
+        <v>577.3750598638536</v>
       </c>
       <c r="F180">
-        <v>-23.52490966761133</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>-23.52490966761133</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>0.9268892239856189</v>
+        <v>1.072294491961747</v>
       </c>
       <c r="I180">
-        <v>2.077146247084362</v>
+        <v>1.311289847109123</v>
       </c>
       <c r="J180">
-        <v>2.114214914110102</v>
+        <v>1.291026392838446</v>
       </c>
       <c r="K180">
-        <v>634.6305803571427</v>
+        <v>2059.917132916666</v>
       </c>
       <c r="L180">
-        <v>1318.22052827381</v>
+        <v>2701.148422279762</v>
       </c>
       <c r="M180">
-        <v>16.8</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B181" s="3">
-        <v>44570</v>
+        <v>44528</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
       </c>
       <c r="D181">
-        <v>282.275992491638</v>
+        <v>496.9826833577527</v>
       </c>
       <c r="E181">
-        <v>313.5510553702226</v>
+        <v>525.4087761151042</v>
       </c>
       <c r="F181">
-        <v>-31.27506287858455</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>-54.79997254619587</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>0.9002552779110987</v>
+        <v>0.9458971870102071</v>
       </c>
       <c r="I181">
-        <v>2.041102800120592</v>
+        <v>1.091057492416464</v>
       </c>
       <c r="J181">
-        <v>2.090003243843921</v>
+        <v>1.102334141199207</v>
       </c>
       <c r="K181">
-        <v>639.5660345238095</v>
+        <v>2520.792595833334</v>
       </c>
       <c r="L181">
-        <v>1305.420023928571</v>
+        <v>2750.329648511904</v>
       </c>
       <c r="M181">
-        <v>16.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B182" s="3">
-        <v>44577</v>
+        <v>44535</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
       </c>
       <c r="D182">
-        <v>299.9909151702128</v>
+        <v>327.379541440789</v>
       </c>
       <c r="E182">
-        <v>282.9134190592902</v>
+        <v>386.7090238020619</v>
       </c>
       <c r="F182">
-        <v>17.07749611092254</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>-37.72247643527334</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>1.060362976658041</v>
+        <v>0.8465784900027549</v>
       </c>
       <c r="I182">
-        <v>2.061193782710517</v>
+        <v>1.661042028360881</v>
       </c>
       <c r="J182">
-        <v>2.034855355592762</v>
+        <v>1.723721024490533</v>
       </c>
       <c r="K182">
-        <v>648.3870898809527</v>
+        <v>946.5608261904761</v>
       </c>
       <c r="L182">
-        <v>1336.451438452382</v>
+        <v>1572.277314702381</v>
       </c>
       <c r="M182">
-        <v>12.8</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B183" s="3">
-        <v>44584</v>
+        <v>44542</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
       </c>
       <c r="D183">
-        <v>278.3579601325729</v>
+        <v>302.3101066583081</v>
       </c>
       <c r="E183">
-        <v>258.3747921644596</v>
+        <v>279.7157433547932</v>
       </c>
       <c r="F183">
-        <v>19.98316796811338</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>-17.73930846715996</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>1.077341786327955</v>
+        <v>1.080776158797956</v>
       </c>
       <c r="I183">
-        <v>2.039712075117801</v>
+        <v>2.061050094014197</v>
       </c>
       <c r="J183">
-        <v>2.009187068216903</v>
+        <v>2.025026049282649</v>
       </c>
       <c r="K183">
-        <v>654.649089285714</v>
+        <v>627.2022886904759</v>
       </c>
       <c r="L183">
-        <v>1335.295652380951</v>
+        <v>1292.695336071428</v>
       </c>
       <c r="M183">
-        <v>8.699999999999999</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B184" s="3">
-        <v>44591</v>
+        <v>44549</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
       </c>
       <c r="D184">
-        <v>315.4869377976194</v>
+        <v>202.9633033249695</v>
       </c>
       <c r="E184">
-        <v>307.1247574657344</v>
+        <v>233.0233593228675</v>
       </c>
       <c r="F184">
-        <v>8.362180331884986</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>-9.377128135274972</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>1.027227307889101</v>
+        <v>0.8709998169915317</v>
       </c>
       <c r="I184">
-        <v>2.059845670343221</v>
+        <v>4.705763220732165</v>
       </c>
       <c r="J184">
-        <v>2.047501575013793</v>
+        <v>4.753350978130877</v>
       </c>
       <c r="K184">
-        <v>677.4235056294403</v>
+        <v>631.6762470238091</v>
       </c>
       <c r="L184">
-        <v>1395.387875059524</v>
+        <v>2972.518850654762</v>
       </c>
       <c r="M184">
-        <v>14.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B185" s="3">
-        <v>44598</v>
+        <v>44556</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
       </c>
       <c r="D185">
-        <v>338.9796124590627</v>
+        <v>235.9568865392589</v>
       </c>
       <c r="E185">
-        <v>322.1461339575225</v>
+        <v>250.2962016023472</v>
       </c>
       <c r="F185">
-        <v>16.83347850154024</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>7.456350366265269</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>1.05225416892248</v>
+        <v>0.9427106165763173</v>
       </c>
       <c r="I185">
-        <v>2.137286426616849</v>
+        <v>1.980812786102582</v>
       </c>
       <c r="J185">
-        <v>2.113312328704092</v>
+        <v>2.003446567352946</v>
       </c>
       <c r="K185">
-        <v>702.1527384595411</v>
+        <v>633.5359922619057</v>
       </c>
       <c r="L185">
-        <v>1500.701517321429</v>
+        <v>1254.916193928571</v>
       </c>
       <c r="M185">
-        <v>15.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B186" s="3">
-        <v>44605</v>
+        <v>44563</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
       </c>
       <c r="D186">
-        <v>389.880976588555</v>
+        <v>298.2458463011654</v>
       </c>
       <c r="E186">
-        <v>367.1806498305148</v>
+        <v>321.7707559687768</v>
       </c>
       <c r="F186">
-        <v>22.70032675804026</v>
+        <v>-23.52490966761133</v>
       </c>
       <c r="G186">
-        <v>30.15667712430553</v>
+        <v>-23.52490966761133</v>
       </c>
       <c r="H186">
-        <v>1.061823319852281</v>
+        <v>0.9268892239856189</v>
       </c>
       <c r="I186">
-        <v>1.975833829529693</v>
+        <v>2.077146247084362</v>
       </c>
       <c r="J186">
-        <v>1.951106242306161</v>
+        <v>2.114214914110102</v>
       </c>
       <c r="K186">
-        <v>918.0162444817094</v>
+        <v>634.6305803571427</v>
       </c>
       <c r="L186">
-        <v>1813.847551904762</v>
+        <v>1318.22052827381</v>
       </c>
       <c r="M186">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B187" s="3">
-        <v>44612</v>
+        <v>44570</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
       </c>
       <c r="D187">
-        <v>552.5781744642875</v>
+        <v>282.275992491638</v>
       </c>
       <c r="E187">
-        <v>452.400674072426</v>
+        <v>313.5510553702226</v>
       </c>
       <c r="F187">
-        <v>100.1775003918615</v>
+        <v>-31.27506287858455</v>
       </c>
       <c r="G187">
-        <v>130.334177516167</v>
+        <v>-54.79997254619587</v>
       </c>
       <c r="H187">
-        <v>1.221435347321838</v>
+        <v>0.9002552779110987</v>
       </c>
       <c r="I187">
-        <v>1.790608305342029</v>
+        <v>2.041102800120592</v>
       </c>
       <c r="J187">
-        <v>1.719623373257777</v>
+        <v>2.090003243843921</v>
       </c>
       <c r="K187">
-        <v>1411.250211142857</v>
+        <v>639.5660345238095</v>
       </c>
       <c r="L187">
-        <v>2526.996348988095</v>
+        <v>1305.420023928571</v>
       </c>
       <c r="M187">
-        <v>17</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B188" s="3">
-        <v>44619</v>
+        <v>44577</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
       </c>
       <c r="D188">
-        <v>447.4795573809499</v>
+        <v>299.9909151702128</v>
       </c>
       <c r="E188">
-        <v>392.4722312726725</v>
+        <v>282.9134190592902</v>
       </c>
       <c r="F188">
-        <v>55.00732610827737</v>
+        <v>17.07749611092254</v>
       </c>
       <c r="G188">
-        <v>185.3415036244444</v>
+        <v>-37.72247643527334</v>
       </c>
       <c r="H188">
-        <v>1.140155969582624</v>
+        <v>1.060362976658041</v>
       </c>
       <c r="I188">
-        <v>1.939893976491091</v>
+        <v>2.061193782710517</v>
       </c>
       <c r="J188">
-        <v>1.885739868535726</v>
+        <v>2.034855355592762</v>
       </c>
       <c r="K188">
-        <v>1015.755372678571</v>
+        <v>648.3870898809527</v>
       </c>
       <c r="L188">
-        <v>1970.457729047619</v>
+        <v>1336.451438452382</v>
       </c>
       <c r="M188">
-        <v>18.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B189" s="3">
-        <v>44626</v>
+        <v>44584</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
       </c>
       <c r="D189">
-        <v>411.4920686309543</v>
+        <v>278.3579601325729</v>
       </c>
       <c r="E189">
-        <v>317.7716428534284</v>
+        <v>258.3747921644596</v>
       </c>
       <c r="F189">
-        <v>93.72042577752597</v>
+        <v>19.98316796811338</v>
       </c>
       <c r="G189">
-        <v>279.0619294019704</v>
+        <v>-17.73930846715996</v>
       </c>
       <c r="H189">
-        <v>1.294930110616429</v>
+        <v>1.077341786327955</v>
       </c>
       <c r="I189">
-        <v>1.93460898753739</v>
+        <v>2.039712075117801</v>
       </c>
       <c r="J189">
-        <v>1.838428745597254</v>
+        <v>2.009187068216903</v>
       </c>
       <c r="K189">
-        <v>974.4249326785715</v>
+        <v>654.649089285714</v>
       </c>
       <c r="L189">
-        <v>1885.131232440476</v>
+        <v>1335.295652380951</v>
       </c>
       <c r="M189">
-        <v>11.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B190" s="3">
-        <v>44633</v>
+        <v>44591</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
       </c>
       <c r="D190">
-        <v>263.0811769999971</v>
+        <v>315.4869377976194</v>
       </c>
       <c r="E190">
-        <v>186.561416301864</v>
+        <v>307.1247574657344</v>
       </c>
       <c r="F190">
-        <v>76.5197606981331</v>
+        <v>8.362180331884986</v>
       </c>
       <c r="G190">
-        <v>355.5816901001035</v>
+        <v>-9.377128135274972</v>
       </c>
       <c r="H190">
-        <v>1.41015855376184</v>
+        <v>1.027227307889101</v>
       </c>
       <c r="I190">
-        <v>2.025751878444774</v>
+        <v>2.059845670343221</v>
       </c>
       <c r="J190">
-        <v>1.923245457194285</v>
+        <v>2.047501575013793</v>
       </c>
       <c r="K190">
-        <v>746.487486000004</v>
+        <v>677.4235056294403</v>
       </c>
       <c r="L190">
-        <v>1512.198427000006</v>
+        <v>1395.387875059524</v>
+      </c>
+      <c r="M190">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="1">
+        <v>57</v>
+      </c>
+      <c r="B191" s="3">
+        <v>44598</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191">
+        <v>338.9796124590627</v>
+      </c>
+      <c r="E191">
+        <v>322.1461339575225</v>
+      </c>
+      <c r="F191">
+        <v>16.83347850154024</v>
+      </c>
+      <c r="G191">
+        <v>7.456350366265269</v>
+      </c>
+      <c r="H191">
+        <v>1.05225416892248</v>
+      </c>
+      <c r="I191">
+        <v>2.137286426616849</v>
+      </c>
+      <c r="J191">
+        <v>2.113312328704092</v>
+      </c>
+      <c r="K191">
+        <v>702.1527384595411</v>
+      </c>
+      <c r="L191">
+        <v>1500.701517321429</v>
+      </c>
+      <c r="M191">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="1">
+        <v>58</v>
+      </c>
+      <c r="B192" s="3">
+        <v>44605</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192">
+        <v>389.880976588555</v>
+      </c>
+      <c r="E192">
+        <v>367.1806498305148</v>
+      </c>
+      <c r="F192">
+        <v>22.70032675804026</v>
+      </c>
+      <c r="G192">
+        <v>30.15667712430553</v>
+      </c>
+      <c r="H192">
+        <v>1.061823319852281</v>
+      </c>
+      <c r="I192">
+        <v>1.975833829529693</v>
+      </c>
+      <c r="J192">
+        <v>1.951106242306161</v>
+      </c>
+      <c r="K192">
+        <v>918.0162444817094</v>
+      </c>
+      <c r="L192">
+        <v>1813.847551904762</v>
+      </c>
+      <c r="M192">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="1">
+        <v>59</v>
+      </c>
+      <c r="B193" s="3">
+        <v>44612</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193">
+        <v>552.5781744642875</v>
+      </c>
+      <c r="E193">
+        <v>452.400674072426</v>
+      </c>
+      <c r="F193">
+        <v>100.1775003918615</v>
+      </c>
+      <c r="G193">
+        <v>130.334177516167</v>
+      </c>
+      <c r="H193">
+        <v>1.221435347321838</v>
+      </c>
+      <c r="I193">
+        <v>1.790608305342029</v>
+      </c>
+      <c r="J193">
+        <v>1.719623373257777</v>
+      </c>
+      <c r="K193">
+        <v>1411.250211142857</v>
+      </c>
+      <c r="L193">
+        <v>2526.996348988095</v>
+      </c>
+      <c r="M193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="1">
+        <v>60</v>
+      </c>
+      <c r="B194" s="3">
+        <v>44619</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194">
+        <v>447.4795573809499</v>
+      </c>
+      <c r="E194">
+        <v>392.4722312726725</v>
+      </c>
+      <c r="F194">
+        <v>55.00732610827737</v>
+      </c>
+      <c r="G194">
+        <v>185.3415036244444</v>
+      </c>
+      <c r="H194">
+        <v>1.140155969582624</v>
+      </c>
+      <c r="I194">
+        <v>1.939893976491091</v>
+      </c>
+      <c r="J194">
+        <v>1.885739868535726</v>
+      </c>
+      <c r="K194">
+        <v>1015.755372678571</v>
+      </c>
+      <c r="L194">
+        <v>1970.457729047619</v>
+      </c>
+      <c r="M194">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="1">
+        <v>61</v>
+      </c>
+      <c r="B195" s="3">
+        <v>44626</v>
+      </c>
+      <c r="C195" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195">
+        <v>411.4920681547658</v>
+      </c>
+      <c r="E195">
+        <v>331.7121373476397</v>
+      </c>
+      <c r="F195">
+        <v>79.77993080712605</v>
+      </c>
+      <c r="G195">
+        <v>265.1214344315704</v>
+      </c>
+      <c r="H195">
+        <v>1.240509531683236</v>
+      </c>
+      <c r="I195">
+        <v>1.934608989013634</v>
+      </c>
+      <c r="J195">
+        <v>1.852735128586911</v>
+      </c>
+      <c r="K195">
+        <v>974.4249311235125</v>
+      </c>
+      <c r="L195">
+        <v>1885.131230870536</v>
+      </c>
+      <c r="M195">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="1">
+        <v>62</v>
+      </c>
+      <c r="B196" s="3">
+        <v>44633</v>
+      </c>
+      <c r="C196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196">
+        <v>389.8907872023802</v>
+      </c>
+      <c r="E196">
+        <v>290.4574176895251</v>
+      </c>
+      <c r="F196">
+        <v>99.43336951285505</v>
+      </c>
+      <c r="G196">
+        <v>364.5548039444255</v>
+      </c>
+      <c r="H196">
+        <v>1.342333724178258</v>
+      </c>
+      <c r="I196">
+        <v>2.128445514719377</v>
+      </c>
+      <c r="J196">
+        <v>2.002241131352442</v>
+      </c>
+      <c r="K196">
+        <v>787.875720796131</v>
+      </c>
+      <c r="L196">
+        <v>1676.950544084821</v>
+      </c>
+      <c r="M196">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="1">
+        <v>63</v>
+      </c>
+      <c r="B197" s="3">
+        <v>44640</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197">
+        <v>342.9618571428558</v>
+      </c>
+      <c r="E197">
+        <v>257.8793145700068</v>
+      </c>
+      <c r="F197">
+        <v>85.08254257284892</v>
+      </c>
+      <c r="G197">
+        <v>449.6373465172744</v>
+      </c>
+      <c r="H197">
+        <v>1.329931629897176</v>
+      </c>
+      <c r="I197">
+        <v>2.062637451452935</v>
+      </c>
+      <c r="J197">
+        <v>1.953344431269582</v>
+      </c>
+      <c r="K197">
+        <v>778.4810267857143</v>
+      </c>
+      <c r="L197">
+        <v>1605.72412109375</v>
+      </c>
+      <c r="M197">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="1">
+        <v>64</v>
+      </c>
+      <c r="B198" s="3">
+        <v>44647</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198">
+        <v>294.6951830357145</v>
+      </c>
+      <c r="E198">
+        <v>244.9944316889306</v>
+      </c>
+      <c r="F198">
+        <v>49.7007513467839</v>
+      </c>
+      <c r="G198">
+        <v>499.3380978640583</v>
+      </c>
+      <c r="H198">
+        <v>1.202864820249829</v>
+      </c>
+      <c r="I198">
+        <v>1.935731383871939</v>
+      </c>
+      <c r="J198">
+        <v>1.8746605785305</v>
+      </c>
+      <c r="K198">
+        <v>813.82177734375</v>
+      </c>
+      <c r="L198">
+        <v>1575.340355282738</v>
+      </c>
+      <c r="M198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="1">
+        <v>65</v>
+      </c>
+      <c r="B199" s="3">
+        <v>44654</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199">
+        <v>384.1017024739576</v>
+      </c>
+      <c r="E199">
+        <v>224.5039199159158</v>
+      </c>
+      <c r="F199">
+        <v>159.5977825580418</v>
+      </c>
+      <c r="G199">
+        <v>658.9358804221001</v>
+      </c>
+      <c r="H199">
+        <v>1.710890850448475</v>
+      </c>
+      <c r="I199">
+        <v>1.893707754560978</v>
+      </c>
+      <c r="J199">
+        <v>1.730901369239886</v>
+      </c>
+      <c r="K199">
+        <v>980.2919108072916</v>
+      </c>
+      <c r="L199">
+        <v>1856.386393229167</v>
       </c>
     </row>
   </sheetData>
